--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Linea Base de costos.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Linea Base de costos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>Valor Planificado (PV)</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Mes - 4</t>
-  </si>
-  <si>
-    <t>Mes - 5</t>
   </si>
   <si>
     <t>Total</t>
@@ -148,7 +145,7 @@
     <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -175,11 +172,6 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="8">
@@ -319,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -353,9 +345,6 @@
     <xf borderId="4" fillId="2" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -378,9 +367,6 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -410,7 +396,7 @@
     <xf borderId="4" fillId="4" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -419,7 +405,7 @@
     <xf borderId="4" fillId="4" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -437,7 +423,7 @@
     <xf borderId="4" fillId="5" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="5" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -445,9 +431,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -474,8 +457,8 @@
     <xf borderId="4" fillId="7" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="6" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="7" fontId="4" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="4" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -485,14 +468,14 @@
     <xf borderId="4" fillId="7" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="7" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="7" fontId="4" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -718,7 +701,7 @@
     <col customWidth="1" min="2" max="2" width="33.25"/>
     <col customWidth="1" min="3" max="5" width="13.25"/>
     <col customWidth="1" min="6" max="6" width="18.75"/>
-    <col customWidth="1" min="7" max="8" width="14.25"/>
+    <col customWidth="1" min="7" max="7" width="14.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -736,7 +719,6 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
@@ -753,7 +735,6 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
@@ -764,15 +745,14 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
@@ -794,21 +774,18 @@
       <c r="G4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8">
         <v>1423751.68</v>
@@ -816,23 +793,22 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10">
-        <f t="shared" ref="H5:H10" si="1">SUM(C5:G5)</f>
+      <c r="G5" s="10">
+        <f t="shared" ref="G5:G10" si="1">SUM(C5:F5)</f>
         <v>1423751.68</v>
       </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9">
         <v>39282.88</v>
@@ -842,23 +818,22 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10">
+      <c r="G6" s="10">
         <f t="shared" si="1"/>
         <v>1629209.6</v>
       </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="9">
@@ -868,25 +843,24 @@
         <v>5149520.0</v>
       </c>
       <c r="F7" s="9">
-        <v>568640.0</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10">
+        <v>419712.0</v>
+      </c>
+      <c r="G7" s="10">
         <f t="shared" si="1"/>
-        <v>5990776</v>
-      </c>
+        <v>5841848</v>
+      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -894,23 +868,22 @@
       <c r="F8" s="9">
         <v>444368.0</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10">
+      <c r="G8" s="10">
         <f t="shared" si="1"/>
         <v>444368</v>
       </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -918,28 +891,25 @@
       <c r="F9" s="9">
         <v>799396.0</v>
       </c>
-      <c r="G9" s="9">
-        <v>29544.0</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="G9" s="10">
         <f t="shared" si="1"/>
-        <v>828940</v>
-      </c>
+        <v>799396</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="10">
-        <f t="shared" ref="C10:G10" si="2">SUM(C5:C9)</f>
+        <f t="shared" ref="C10:F10" si="2">SUM(C5:C9)</f>
         <v>1463034.56</v>
       </c>
       <c r="D10" s="10">
@@ -952,35 +922,31 @@
       </c>
       <c r="F10" s="10">
         <f t="shared" si="2"/>
-        <v>1812404</v>
+        <v>1663476</v>
       </c>
       <c r="G10" s="10">
-        <f t="shared" si="2"/>
-        <v>29544</v>
-      </c>
-      <c r="H10" s="10">
         <f t="shared" si="1"/>
-        <v>10317045.28</v>
-      </c>
+        <v>10138573.28</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="10">
         <f>C10</f>
         <v>1463034.56</v>
       </c>
       <c r="D11" s="10">
-        <f t="shared" ref="D11:G11" si="3">C11+D10</f>
+        <f t="shared" ref="D11:F11" si="3">C11+D10</f>
         <v>3325577.28</v>
       </c>
       <c r="E11" s="10">
@@ -989,54 +955,46 @@
       </c>
       <c r="F11" s="10">
         <f t="shared" si="3"/>
-        <v>10287501.28</v>
-      </c>
-      <c r="G11" s="10">
-        <f t="shared" si="3"/>
-        <v>10317045.28</v>
-      </c>
-      <c r="H11" s="6"/>
+        <v>10138573.28</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="12">
-        <f>C11/H10</f>
-        <v>0.1418075156</v>
+        <f>C11/G10</f>
+        <v>0.144303791</v>
       </c>
       <c r="D12" s="12">
-        <f>D11/H10</f>
-        <v>0.3223381491</v>
+        <f>D11/G10</f>
+        <v>0.3280123532</v>
       </c>
       <c r="E12" s="12">
-        <f>E11/H10</f>
-        <v>0.8214655505</v>
+        <f>E11/G10</f>
+        <v>0.8359260269</v>
       </c>
       <c r="F12" s="12">
-        <f>F11/H10</f>
-        <v>0.9971363894</v>
-      </c>
-      <c r="G12" s="13">
-        <f>G11/H10</f>
+        <f>F11/G10</f>
         <v>1</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1"/>
@@ -1053,308 +1011,280 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
-      <c r="B14" s="14" t="s">
-        <v>15</v>
+      <c r="B14" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1"/>
-      <c r="B16" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="B16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="17">
         <f t="shared" ref="C16:C17" si="4">C5</f>
         <v>1423751.68</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20">
-        <f t="shared" ref="H16:H21" si="6">SUM(C16:G16)</f>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19">
+        <f t="shared" ref="G16:G21" si="6">SUM(C16:F16)</f>
         <v>1423751.68</v>
       </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1"/>
-      <c r="B17" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="19">
+      <c r="B17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="18">
         <f t="shared" si="4"/>
         <v>39282.88</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <f t="shared" ref="D17:F17" si="5">D6</f>
         <v>1589926.72</v>
       </c>
-      <c r="E17" s="20" t="str">
+      <c r="E17" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F17" s="20" t="str">
+      <c r="F17" s="19" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20">
+      <c r="G17" s="19">
         <f t="shared" si="6"/>
         <v>1629209.6</v>
       </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1"/>
-      <c r="B18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19">
-        <f t="shared" ref="D18:G18" si="7">D7</f>
+      <c r="B18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18">
+        <f t="shared" ref="D18:F18" si="7">D7</f>
         <v>272616</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <f t="shared" si="7"/>
         <v>5149520</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <f t="shared" si="7"/>
-        <v>568640</v>
-      </c>
-      <c r="G18" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H18" s="20">
+        <v>419712</v>
+      </c>
+      <c r="G18" s="19">
         <f t="shared" si="6"/>
-        <v>5990776</v>
-      </c>
+        <v>5841848</v>
+      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19">
+      <c r="B19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18">
         <f t="shared" ref="F19:F20" si="8">F8</f>
         <v>444368</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20">
+      <c r="G19" s="19">
         <f t="shared" si="6"/>
         <v>444368</v>
       </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19">
+      <c r="B20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18">
         <f t="shared" si="8"/>
         <v>799396</v>
       </c>
       <c r="G20" s="19">
-        <f>G9</f>
-        <v>29544</v>
-      </c>
-      <c r="H20" s="20">
         <f t="shared" si="6"/>
-        <v>828940</v>
-      </c>
+        <v>799396</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
-      <c r="B21" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="20">
-        <f t="shared" ref="C21:G21" si="9">SUM(C16:C20)</f>
+      <c r="B21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="19">
+        <f t="shared" ref="C21:F21" si="9">SUM(C16:C20)</f>
         <v>1463034.56</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <f t="shared" si="9"/>
         <v>1862542.72</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <f t="shared" si="9"/>
         <v>5149520</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="19">
         <f t="shared" si="9"/>
-        <v>1812404</v>
-      </c>
-      <c r="G21" s="20">
-        <f t="shared" si="9"/>
-        <v>29544</v>
-      </c>
-      <c r="H21" s="20">
+        <v>1663476</v>
+      </c>
+      <c r="G21" s="19">
         <f t="shared" si="6"/>
-        <v>10317045.28</v>
-      </c>
+        <v>10138573.28</v>
+      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
-      <c r="B22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="20">
+      <c r="B22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="19">
         <f>C21</f>
         <v>1463034.56</v>
       </c>
-      <c r="D22" s="20">
-        <f t="shared" ref="D22:G22" si="10">C22+D21</f>
+      <c r="D22" s="19">
+        <f t="shared" ref="D22:F22" si="10">C22+D21</f>
         <v>3325577.28</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <f t="shared" si="10"/>
         <v>8475097.28</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="19">
         <f t="shared" si="10"/>
-        <v>10287501.28</v>
-      </c>
-      <c r="G22" s="20">
-        <f t="shared" si="10"/>
-        <v>10317045.28</v>
-      </c>
-      <c r="H22" s="19"/>
+        <v>10138573.28</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1"/>
-      <c r="B23" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="21">
-        <f>C22/H21</f>
-        <v>0.1418075156</v>
-      </c>
-      <c r="D23" s="21">
-        <f>D22/H21</f>
-        <v>0.3223381491</v>
-      </c>
-      <c r="E23" s="21">
-        <f>E22/H21</f>
-        <v>0.8214655505</v>
-      </c>
-      <c r="F23" s="21">
-        <f>F22/H21</f>
-        <v>0.9971363894</v>
-      </c>
-      <c r="G23" s="22">
-        <f>G22/H21</f>
+      <c r="B23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="20">
+        <f>C22/G21</f>
+        <v>0.144303791</v>
+      </c>
+      <c r="D23" s="20">
+        <f>D22/G21</f>
+        <v>0.3280123532</v>
+      </c>
+      <c r="E23" s="20">
+        <f>E22/G21</f>
+        <v>0.8359260269</v>
+      </c>
+      <c r="F23" s="20">
+        <f>F22/G21</f>
         <v>1</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1"/>
@@ -1371,209 +1301,202 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
-      <c r="B25" s="23" t="s">
-        <v>16</v>
+      <c r="B25" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1"/>
-      <c r="B27" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="29">
-        <f t="shared" ref="C27:C28" si="11">C16/H16</f>
+      <c r="B27" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="27">
+        <f t="shared" ref="C27:C28" si="11">C16/G16</f>
         <v>1</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31">
-        <f t="shared" ref="H27:H31" si="12">H5</f>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29">
+        <f t="shared" ref="G27:G31" si="12">G5</f>
         <v>1423751.68</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1"/>
-      <c r="B28" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="30">
+      <c r="B28" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="28">
         <f t="shared" si="11"/>
         <v>0.0241116183</v>
       </c>
-      <c r="D28" s="30">
-        <f t="shared" ref="D28:D29" si="13">D17/H17</f>
+      <c r="D28" s="28">
+        <f t="shared" ref="D28:D29" si="13">D17/G17</f>
         <v>0.9758883817</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="29">
         <f t="shared" si="12"/>
         <v>1629209.6</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1"/>
-      <c r="B29" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30">
+      <c r="B29" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28">
         <f t="shared" si="13"/>
-        <v>0.04550595783</v>
-      </c>
-      <c r="E29" s="30">
-        <f>E18/H18</f>
-        <v>0.8595747863</v>
-      </c>
-      <c r="F29" s="30">
-        <f t="shared" ref="F29:F31" si="14">F18/H18</f>
-        <v>0.09491925587</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="31">
+        <v>0.04666605499</v>
+      </c>
+      <c r="E29" s="28">
+        <f>E18/G18</f>
+        <v>0.8814881866</v>
+      </c>
+      <c r="F29" s="28">
+        <f t="shared" ref="F29:F31" si="14">F18/G18</f>
+        <v>0.0718457584</v>
+      </c>
+      <c r="G29" s="29">
         <f t="shared" si="12"/>
-        <v>5990776</v>
-      </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
+        <v>5841848</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1"/>
-      <c r="B30" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30">
+      <c r="B30" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31">
+      <c r="G30" s="29">
         <f t="shared" si="12"/>
         <v>444368</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1"/>
-      <c r="B31" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30">
+      <c r="B31" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28">
         <f t="shared" si="14"/>
-        <v>0.9643593022</v>
-      </c>
-      <c r="G31" s="30">
-        <f>G20/H20</f>
-        <v>0.03564069776</v>
-      </c>
-      <c r="H31" s="31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="29">
         <f t="shared" si="12"/>
-        <v>828940</v>
-      </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="33"/>
+        <v>799396</v>
+      </c>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1"/>
-      <c r="B32" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="31">
-        <f>SUM(H27:H31)</f>
-        <v>10317045.28</v>
-      </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
+      <c r="B32" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="29">
+        <f>SUM(G27:G31)</f>
+        <v>10138573.28</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="1"/>
@@ -1590,497 +1513,479 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
     </row>
     <row r="34">
       <c r="A34" s="1"/>
-      <c r="B34" s="36" t="s">
-        <v>17</v>
+      <c r="B34" s="34" t="s">
+        <v>16</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
     </row>
     <row r="35">
       <c r="A35" s="1"/>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="1"/>
     </row>
     <row r="36">
       <c r="A36" s="1"/>
-      <c r="B36" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="40">
-        <f t="shared" ref="C36:C37" si="15">C27*H27</f>
+      <c r="B36" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="38">
+        <f t="shared" ref="C36:C37" si="15">C27*G27</f>
         <v>1423751.68</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="42">
-        <f t="shared" ref="H36:H40" si="16">SUM(C36:G36)</f>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="40">
+        <f t="shared" ref="G36:G40" si="16">SUM(C36:F36)</f>
         <v>1423751.68</v>
       </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" s="1"/>
-      <c r="B37" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="40">
+      <c r="B37" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="38">
         <f t="shared" si="15"/>
         <v>39282.88</v>
       </c>
-      <c r="D37" s="40">
-        <f t="shared" ref="D37:D38" si="17">D28*H28</f>
+      <c r="D37" s="38">
+        <f t="shared" ref="D37:D38" si="17">D28*G28</f>
         <v>1589926.72</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="42">
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="40">
         <f t="shared" si="16"/>
         <v>1629209.6</v>
       </c>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" s="1"/>
-      <c r="B38" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41">
+      <c r="B38" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39">
         <f t="shared" si="17"/>
         <v>272616</v>
       </c>
-      <c r="E38" s="40">
-        <f>E29*H29</f>
+      <c r="E38" s="38">
+        <f>E29*G29</f>
         <v>5149520</v>
       </c>
-      <c r="F38" s="40">
-        <f t="shared" ref="F38:F40" si="18">F29*H29</f>
-        <v>568640</v>
-      </c>
-      <c r="G38" s="41"/>
-      <c r="H38" s="42">
+      <c r="F38" s="38">
+        <f t="shared" ref="F38:F40" si="18">F29*G29</f>
+        <v>419712</v>
+      </c>
+      <c r="G38" s="40">
         <f t="shared" si="16"/>
-        <v>5990776</v>
-      </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
+        <v>5841848</v>
+      </c>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="1"/>
     </row>
     <row r="39">
       <c r="A39" s="1"/>
-      <c r="B39" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41">
+      <c r="B39" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39">
         <f t="shared" si="18"/>
         <v>444368</v>
       </c>
-      <c r="G39" s="40"/>
-      <c r="H39" s="42">
+      <c r="G39" s="40">
         <f t="shared" si="16"/>
         <v>444368</v>
       </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="1"/>
     </row>
     <row r="40">
       <c r="A40" s="1"/>
-      <c r="B40" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41">
+      <c r="B40" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39">
         <f t="shared" si="18"/>
         <v>799396</v>
       </c>
-      <c r="G40" s="41">
-        <f>G31*H31</f>
-        <v>29544</v>
-      </c>
-      <c r="H40" s="42">
+      <c r="G40" s="40">
         <f t="shared" si="16"/>
-        <v>828940</v>
-      </c>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
+        <v>799396</v>
+      </c>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="1"/>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="B41" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="40">
-        <f>SUM(H36:H40)</f>
-        <v>10317045.28</v>
-      </c>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
+      <c r="B41" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="38">
+        <f>SUM(G36:G40)</f>
+        <v>10138573.28</v>
+      </c>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
     </row>
     <row r="43">
       <c r="A43" s="1"/>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="47">
-        <f>H41</f>
-        <v>10317045.28</v>
-      </c>
-      <c r="E43" s="48">
-        <f>G11</f>
-        <v>10317045.28</v>
-      </c>
-      <c r="F43" s="47">
+      <c r="D43" s="44">
+        <f>G41</f>
+        <v>10138573.28</v>
+      </c>
+      <c r="E43" s="45">
+        <f>G10</f>
+        <v>10138573.28</v>
+      </c>
+      <c r="F43" s="44">
         <f t="shared" ref="F43:F44" si="19">D43-E43</f>
         <v>0</v>
       </c>
-      <c r="G43" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
+      <c r="G43" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
     </row>
     <row r="44">
       <c r="A44" s="1"/>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="47">
-        <f>H41</f>
-        <v>10317045.28</v>
-      </c>
-      <c r="E44" s="48">
-        <f>G22</f>
-        <v>10317045.28</v>
-      </c>
-      <c r="F44" s="47">
+      <c r="D44" s="44">
+        <f>G41</f>
+        <v>10138573.28</v>
+      </c>
+      <c r="E44" s="45">
+        <f>G21</f>
+        <v>10138573.28</v>
+      </c>
+      <c r="F44" s="44">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G44" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
+      <c r="G44" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
     </row>
     <row r="45">
       <c r="A45" s="1"/>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="47">
-        <f>H41</f>
-        <v>10317045.28</v>
-      </c>
-      <c r="E45" s="48">
-        <f>G11</f>
-        <v>10317045.28</v>
-      </c>
-      <c r="F45" s="50">
+      <c r="D45" s="44">
+        <f>G41</f>
+        <v>10138573.28</v>
+      </c>
+      <c r="E45" s="45">
+        <f>G10</f>
+        <v>10138573.28</v>
+      </c>
+      <c r="F45" s="47">
         <f t="shared" ref="F45:F46" si="20">D45/E45</f>
         <v>1</v>
       </c>
-      <c r="G45" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
+      <c r="G45" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
     </row>
     <row r="46">
       <c r="A46" s="1"/>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="47">
-        <f>H41</f>
-        <v>10317045.28</v>
-      </c>
-      <c r="E46" s="48">
-        <f>G22</f>
-        <v>10317045.28</v>
-      </c>
-      <c r="F46" s="49">
+      <c r="D46" s="44">
+        <f>G41</f>
+        <v>10138573.28</v>
+      </c>
+      <c r="E46" s="45">
+        <f>G21</f>
+        <v>10138573.28</v>
+      </c>
+      <c r="F46" s="46">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="G46" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
+      <c r="G46" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
     </row>
     <row r="47">
       <c r="A47" s="1"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
     </row>
     <row r="48">
       <c r="A48" s="1"/>
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="53">
-        <f>H10</f>
-        <v>10317045.28</v>
-      </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
+      <c r="D48" s="50">
+        <f>G10</f>
+        <v>10138573.28</v>
+      </c>
+      <c r="E48" s="51"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
     </row>
     <row r="49">
       <c r="A49" s="1"/>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="D49" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="58">
+      <c r="E49" s="55">
         <f>E44+(D48-D43)/(F45*F46)</f>
-        <v>10317045.28</v>
-      </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
+        <v>10138573.28</v>
+      </c>
+      <c r="F49" s="56"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
     </row>
     <row r="50">
       <c r="A50" s="1"/>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="D50" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="58">
+      <c r="E50" s="55">
         <f>E49-E44</f>
         <v>0</v>
       </c>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
-      <c r="N50" s="44"/>
-      <c r="O50" s="44"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
     </row>
     <row r="51">
       <c r="A51" s="1"/>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="D51" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="61" t="str">
+      <c r="E51" s="58" t="str">
         <f>(D48-D43)/(D48-E44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="44"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="44"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
     </row>
     <row r="52">
       <c r="A52" s="1"/>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="60"/>
+      <c r="D52" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="64" t="str">
+      <c r="E52" s="61" t="str">
         <f>(D48-D43)/(E49-E44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="44"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
     </row>
     <row r="53">
       <c r="A53" s="1"/>
@@ -2097,7 +2002,6 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1"/>
@@ -2114,7 +2018,6 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1"/>
@@ -2131,7 +2034,6 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1"/>
@@ -2148,7 +2050,6 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1"/>
@@ -2165,7 +2066,6 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1"/>
@@ -2182,7 +2082,6 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1"/>
@@ -2199,7 +2098,6 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1"/>
@@ -2216,7 +2114,6 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="1"/>
@@ -2233,7 +2130,6 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" s="1"/>
@@ -2250,7 +2146,6 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" s="1"/>
@@ -2267,7 +2162,6 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="1"/>
@@ -2284,7 +2178,6 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1"/>
@@ -2301,7 +2194,6 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1"/>
@@ -2318,7 +2210,6 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1"/>
@@ -2335,7 +2226,6 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1"/>
@@ -2352,7 +2242,6 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="1"/>
@@ -2369,7 +2258,6 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
     </row>
     <row r="70">
       <c r="A70" s="1"/>
@@ -2386,7 +2274,6 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
     </row>
     <row r="71">
       <c r="A71" s="1"/>
@@ -2403,7 +2290,6 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
     </row>
     <row r="72">
       <c r="A72" s="1"/>
@@ -2420,7 +2306,6 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
     </row>
     <row r="73">
       <c r="A73" s="1"/>
@@ -2437,7 +2322,6 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" s="1"/>
@@ -2454,7 +2338,6 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
     </row>
     <row r="75">
       <c r="A75" s="1"/>
@@ -2471,7 +2354,6 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" s="1"/>
@@ -2488,7 +2370,6 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" s="1"/>
@@ -2505,7 +2386,6 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" s="1"/>
@@ -2522,7 +2402,6 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" s="1"/>
@@ -2539,7 +2418,6 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" s="1"/>
@@ -2556,7 +2434,6 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" s="1"/>
@@ -2573,7 +2450,6 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" s="1"/>
@@ -2590,7 +2466,6 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" s="1"/>
@@ -2607,7 +2482,6 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" s="1"/>
@@ -2624,7 +2498,6 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" s="1"/>
@@ -2641,7 +2514,6 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" s="1"/>
@@ -2658,7 +2530,6 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" s="1"/>
@@ -2675,7 +2546,6 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" s="1"/>
@@ -2692,7 +2562,6 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" s="1"/>
@@ -2709,7 +2578,6 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
     </row>
     <row r="90">
       <c r="A90" s="1"/>
@@ -2726,7 +2594,6 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
     </row>
     <row r="91">
       <c r="A91" s="1"/>
@@ -2743,7 +2610,6 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
     </row>
     <row r="92">
       <c r="A92" s="1"/>
@@ -2760,7 +2626,6 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
     </row>
     <row r="93">
       <c r="A93" s="1"/>
@@ -2777,7 +2642,6 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
     </row>
     <row r="94">
       <c r="A94" s="1"/>
@@ -2794,7 +2658,6 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
     </row>
     <row r="95">
       <c r="A95" s="1"/>
@@ -2811,7 +2674,6 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
     </row>
     <row r="96">
       <c r="A96" s="1"/>
@@ -2828,7 +2690,6 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
     </row>
     <row r="97">
       <c r="A97" s="1"/>
@@ -2845,7 +2706,6 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
     </row>
     <row r="98">
       <c r="A98" s="1"/>
@@ -2862,7 +2722,6 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
     </row>
     <row r="99">
       <c r="A99" s="1"/>
@@ -2879,7 +2738,6 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
     </row>
     <row r="100">
       <c r="A100" s="1"/>
@@ -2896,7 +2754,6 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
     </row>
     <row r="101">
       <c r="A101" s="1"/>
@@ -2913,7 +2770,6 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
     </row>
     <row r="102">
       <c r="A102" s="1"/>
@@ -2930,7 +2786,6 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
     </row>
     <row r="103">
       <c r="A103" s="1"/>
@@ -2947,7 +2802,6 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
     </row>
     <row r="104">
       <c r="A104" s="1"/>
@@ -2964,7 +2818,6 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
     </row>
     <row r="105">
       <c r="A105" s="1"/>
@@ -2981,7 +2834,6 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
     </row>
     <row r="106">
       <c r="A106" s="1"/>
@@ -2998,7 +2850,6 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
     </row>
     <row r="107">
       <c r="A107" s="1"/>
@@ -3015,7 +2866,6 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
     </row>
     <row r="108">
       <c r="A108" s="1"/>
@@ -3032,7 +2882,6 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
     </row>
     <row r="109">
       <c r="A109" s="1"/>
@@ -3049,7 +2898,6 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
     </row>
     <row r="110">
       <c r="A110" s="1"/>
@@ -3066,7 +2914,6 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
     </row>
     <row r="111">
       <c r="A111" s="1"/>
@@ -3083,7 +2930,6 @@
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
     </row>
     <row r="112">
       <c r="A112" s="1"/>
@@ -3100,7 +2946,6 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
     </row>
     <row r="113">
       <c r="A113" s="1"/>
@@ -3117,7 +2962,6 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
     </row>
     <row r="114">
       <c r="A114" s="1"/>
@@ -3134,7 +2978,6 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="1"/>
@@ -3151,7 +2994,6 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
     </row>
     <row r="116">
       <c r="A116" s="1"/>
@@ -3168,7 +3010,6 @@
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
     </row>
     <row r="117">
       <c r="A117" s="1"/>
@@ -3185,7 +3026,6 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
     </row>
     <row r="118">
       <c r="A118" s="1"/>
@@ -3202,7 +3042,6 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
     </row>
     <row r="119">
       <c r="A119" s="1"/>
@@ -3219,7 +3058,6 @@
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
     </row>
     <row r="120">
       <c r="A120" s="1"/>
@@ -3236,7 +3074,6 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
     </row>
     <row r="121">
       <c r="A121" s="1"/>
@@ -3253,7 +3090,6 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
     </row>
     <row r="122">
       <c r="A122" s="1"/>
@@ -3270,7 +3106,6 @@
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
     </row>
     <row r="123">
       <c r="A123" s="1"/>
@@ -3287,7 +3122,6 @@
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
     </row>
     <row r="124">
       <c r="A124" s="1"/>
@@ -3304,7 +3138,6 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
     </row>
     <row r="125">
       <c r="A125" s="1"/>
@@ -3321,7 +3154,6 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
     </row>
     <row r="126">
       <c r="A126" s="1"/>
@@ -3338,7 +3170,6 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
@@ -3355,7 +3186,6 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
     </row>
     <row r="128">
       <c r="A128" s="1"/>
@@ -3372,7 +3202,6 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
@@ -3389,7 +3218,6 @@
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
     </row>
     <row r="130">
       <c r="A130" s="1"/>
@@ -3406,7 +3234,6 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
     </row>
     <row r="131">
       <c r="A131" s="1"/>
@@ -3423,7 +3250,6 @@
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
@@ -3440,7 +3266,6 @@
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
     </row>
     <row r="133">
       <c r="A133" s="1"/>
@@ -3457,7 +3282,6 @@
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
     </row>
     <row r="134">
       <c r="A134" s="1"/>
@@ -3474,7 +3298,6 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
     </row>
     <row r="135">
       <c r="A135" s="1"/>
@@ -3491,7 +3314,6 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
     </row>
     <row r="136">
       <c r="A136" s="1"/>
@@ -3508,7 +3330,6 @@
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
     </row>
     <row r="137">
       <c r="A137" s="1"/>
@@ -3525,7 +3346,6 @@
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
     </row>
     <row r="138">
       <c r="A138" s="1"/>
@@ -3542,7 +3362,6 @@
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
     </row>
     <row r="139">
       <c r="A139" s="1"/>
@@ -3559,7 +3378,6 @@
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
-      <c r="O139" s="1"/>
     </row>
     <row r="140">
       <c r="A140" s="1"/>
@@ -3576,7 +3394,6 @@
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
     </row>
     <row r="141">
       <c r="A141" s="1"/>
@@ -3593,7 +3410,6 @@
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
     </row>
     <row r="142">
       <c r="A142" s="1"/>
@@ -3610,7 +3426,6 @@
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
@@ -3627,7 +3442,6 @@
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
     </row>
     <row r="144">
       <c r="A144" s="1"/>
@@ -3644,7 +3458,6 @@
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
     </row>
     <row r="145">
       <c r="A145" s="1"/>
@@ -3661,7 +3474,6 @@
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
     </row>
     <row r="146">
       <c r="A146" s="1"/>
@@ -3678,7 +3490,6 @@
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
     </row>
     <row r="147">
       <c r="A147" s="1"/>
@@ -3695,7 +3506,6 @@
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
     </row>
     <row r="148">
       <c r="A148" s="1"/>
@@ -3712,7 +3522,6 @@
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
     </row>
     <row r="149">
       <c r="A149" s="1"/>
@@ -3729,7 +3538,6 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
-      <c r="O149" s="1"/>
     </row>
     <row r="150">
       <c r="A150" s="1"/>
@@ -3746,7 +3554,6 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
     </row>
     <row r="151">
       <c r="A151" s="1"/>
@@ -3763,7 +3570,6 @@
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
     </row>
     <row r="152">
       <c r="A152" s="1"/>
@@ -3780,7 +3586,6 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
     </row>
     <row r="153">
       <c r="A153" s="1"/>
@@ -3797,7 +3602,6 @@
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
     </row>
     <row r="154">
       <c r="A154" s="1"/>
@@ -3814,7 +3618,6 @@
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
-      <c r="O154" s="1"/>
     </row>
     <row r="155">
       <c r="A155" s="1"/>
@@ -3831,7 +3634,6 @@
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
     </row>
     <row r="156">
       <c r="A156" s="1"/>
@@ -3848,7 +3650,6 @@
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
     </row>
     <row r="157">
       <c r="A157" s="1"/>
@@ -3865,7 +3666,6 @@
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
     </row>
     <row r="158">
       <c r="A158" s="1"/>
@@ -3882,7 +3682,6 @@
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
     </row>
     <row r="159">
       <c r="A159" s="1"/>
@@ -3899,7 +3698,6 @@
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
     </row>
     <row r="160">
       <c r="A160" s="1"/>
@@ -3916,7 +3714,6 @@
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
     </row>
     <row r="161">
       <c r="A161" s="1"/>
@@ -3933,7 +3730,6 @@
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
     </row>
     <row r="162">
       <c r="A162" s="1"/>
@@ -3950,7 +3746,6 @@
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
@@ -3967,7 +3762,6 @@
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
     </row>
     <row r="164">
       <c r="A164" s="1"/>
@@ -3984,7 +3778,6 @@
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
     </row>
     <row r="165">
       <c r="A165" s="1"/>
@@ -4001,7 +3794,6 @@
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
     </row>
     <row r="166">
       <c r="A166" s="1"/>
@@ -4018,7 +3810,6 @@
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
     </row>
     <row r="167">
       <c r="A167" s="1"/>
@@ -4035,7 +3826,6 @@
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
     </row>
     <row r="168">
       <c r="A168" s="1"/>
@@ -4052,7 +3842,6 @@
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
     </row>
     <row r="169">
       <c r="A169" s="1"/>
@@ -4069,7 +3858,6 @@
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
     </row>
     <row r="170">
       <c r="A170" s="1"/>
@@ -4086,7 +3874,6 @@
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
     </row>
     <row r="171">
       <c r="A171" s="1"/>
@@ -4103,7 +3890,6 @@
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
     </row>
     <row r="172">
       <c r="A172" s="1"/>
@@ -4120,7 +3906,6 @@
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
     </row>
     <row r="173">
       <c r="A173" s="1"/>
@@ -4137,7 +3922,6 @@
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
     </row>
     <row r="174">
       <c r="A174" s="1"/>
@@ -4154,7 +3938,6 @@
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
     </row>
     <row r="175">
       <c r="A175" s="1"/>
@@ -4171,7 +3954,6 @@
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
     </row>
     <row r="176">
       <c r="A176" s="1"/>
@@ -4188,7 +3970,6 @@
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
     </row>
     <row r="177">
       <c r="A177" s="1"/>
@@ -4205,7 +3986,6 @@
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
     </row>
     <row r="178">
       <c r="A178" s="1"/>
@@ -4222,7 +4002,6 @@
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
     </row>
     <row r="179">
       <c r="A179" s="1"/>
@@ -4239,7 +4018,6 @@
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
     </row>
     <row r="180">
       <c r="A180" s="1"/>
@@ -4256,7 +4034,6 @@
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
     </row>
     <row r="181">
       <c r="A181" s="1"/>
@@ -4273,7 +4050,6 @@
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
     </row>
     <row r="182">
       <c r="A182" s="1"/>
@@ -4290,7 +4066,6 @@
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
     </row>
     <row r="183">
       <c r="A183" s="1"/>
@@ -4307,7 +4082,6 @@
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
     </row>
     <row r="184">
       <c r="A184" s="1"/>
@@ -4324,7 +4098,6 @@
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
     </row>
     <row r="185">
       <c r="A185" s="1"/>
@@ -4341,7 +4114,6 @@
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
     </row>
     <row r="186">
       <c r="A186" s="1"/>
@@ -4358,7 +4130,6 @@
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
     </row>
     <row r="187">
       <c r="A187" s="1"/>
@@ -4375,7 +4146,6 @@
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
     </row>
     <row r="188">
       <c r="A188" s="1"/>
@@ -4392,7 +4162,6 @@
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
     </row>
     <row r="189">
       <c r="A189" s="1"/>
@@ -4409,7 +4178,6 @@
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
     </row>
     <row r="190">
       <c r="A190" s="1"/>
@@ -4426,7 +4194,6 @@
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
     </row>
     <row r="191">
       <c r="A191" s="1"/>
@@ -4443,7 +4210,6 @@
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
-      <c r="O191" s="1"/>
     </row>
     <row r="192">
       <c r="A192" s="1"/>
@@ -4460,7 +4226,6 @@
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
     </row>
     <row r="193">
       <c r="A193" s="1"/>
@@ -4477,7 +4242,6 @@
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
-      <c r="O193" s="1"/>
     </row>
     <row r="194">
       <c r="A194" s="1"/>
@@ -4494,7 +4258,6 @@
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
     </row>
     <row r="195">
       <c r="A195" s="1"/>
@@ -4511,7 +4274,6 @@
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
     </row>
     <row r="196">
       <c r="A196" s="1"/>
@@ -4528,7 +4290,6 @@
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
     </row>
     <row r="197">
       <c r="A197" s="1"/>
@@ -4545,7 +4306,6 @@
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
     </row>
     <row r="198">
       <c r="A198" s="1"/>
@@ -4562,7 +4322,6 @@
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
-      <c r="O198" s="1"/>
     </row>
     <row r="199">
       <c r="A199" s="1"/>
@@ -4579,7 +4338,6 @@
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
     </row>
     <row r="200">
       <c r="A200" s="1"/>
@@ -4596,7 +4354,6 @@
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
     </row>
     <row r="201">
       <c r="A201" s="1"/>
@@ -4613,7 +4370,6 @@
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
     </row>
     <row r="202">
       <c r="A202" s="1"/>
@@ -4630,7 +4386,6 @@
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
-      <c r="O202" s="1"/>
     </row>
     <row r="203">
       <c r="A203" s="1"/>
@@ -4647,7 +4402,6 @@
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
     </row>
     <row r="204">
       <c r="A204" s="1"/>
@@ -4664,7 +4418,6 @@
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
-      <c r="O204" s="1"/>
     </row>
     <row r="205">
       <c r="A205" s="1"/>
@@ -4681,7 +4434,6 @@
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
-      <c r="O205" s="1"/>
     </row>
     <row r="206">
       <c r="A206" s="1"/>
@@ -4698,7 +4450,6 @@
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
-      <c r="O206" s="1"/>
     </row>
     <row r="207">
       <c r="A207" s="1"/>
@@ -4715,7 +4466,6 @@
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
-      <c r="O207" s="1"/>
     </row>
     <row r="208">
       <c r="A208" s="1"/>
@@ -4732,7 +4482,6 @@
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
     </row>
     <row r="209">
       <c r="A209" s="1"/>
@@ -4749,7 +4498,6 @@
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
-      <c r="O209" s="1"/>
     </row>
     <row r="210">
       <c r="A210" s="1"/>
@@ -4766,7 +4514,6 @@
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
-      <c r="O210" s="1"/>
     </row>
     <row r="211">
       <c r="A211" s="1"/>
@@ -4783,7 +4530,6 @@
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
-      <c r="O211" s="1"/>
     </row>
     <row r="212">
       <c r="A212" s="1"/>
@@ -4800,7 +4546,6 @@
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
-      <c r="O212" s="1"/>
     </row>
     <row r="213">
       <c r="A213" s="1"/>
@@ -4817,7 +4562,6 @@
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
-      <c r="O213" s="1"/>
     </row>
     <row r="214">
       <c r="A214" s="1"/>
@@ -4834,7 +4578,6 @@
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
-      <c r="O214" s="1"/>
     </row>
     <row r="215">
       <c r="A215" s="1"/>
@@ -4851,7 +4594,6 @@
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
     </row>
     <row r="216">
       <c r="A216" s="1"/>
@@ -4868,7 +4610,6 @@
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
     </row>
     <row r="217">
       <c r="A217" s="1"/>
@@ -4885,7 +4626,6 @@
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
-      <c r="O217" s="1"/>
     </row>
     <row r="218">
       <c r="A218" s="1"/>
@@ -4902,7 +4642,6 @@
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
-      <c r="O218" s="1"/>
     </row>
     <row r="219">
       <c r="A219" s="1"/>
@@ -4919,7 +4658,6 @@
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
-      <c r="O219" s="1"/>
     </row>
     <row r="220">
       <c r="A220" s="1"/>
@@ -4936,7 +4674,6 @@
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
     </row>
     <row r="221">
       <c r="A221" s="1"/>
@@ -4953,7 +4690,6 @@
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
     </row>
     <row r="222">
       <c r="A222" s="1"/>
@@ -4970,7 +4706,6 @@
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
-      <c r="O222" s="1"/>
     </row>
     <row r="223">
       <c r="A223" s="1"/>
@@ -4987,7 +4722,6 @@
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
-      <c r="O223" s="1"/>
     </row>
     <row r="224">
       <c r="A224" s="1"/>
@@ -5004,7 +4738,6 @@
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
-      <c r="O224" s="1"/>
     </row>
     <row r="225">
       <c r="A225" s="1"/>
@@ -5021,7 +4754,6 @@
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
-      <c r="O225" s="1"/>
     </row>
     <row r="226">
       <c r="A226" s="1"/>
@@ -5038,7 +4770,6 @@
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
-      <c r="O226" s="1"/>
     </row>
     <row r="227">
       <c r="A227" s="1"/>
@@ -5055,7 +4786,6 @@
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
-      <c r="O227" s="1"/>
     </row>
     <row r="228">
       <c r="A228" s="1"/>
@@ -5072,7 +4802,6 @@
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
-      <c r="O228" s="1"/>
     </row>
     <row r="229">
       <c r="A229" s="1"/>
@@ -5089,7 +4818,6 @@
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
-      <c r="O229" s="1"/>
     </row>
     <row r="230">
       <c r="A230" s="1"/>
@@ -5106,7 +4834,6 @@
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
-      <c r="O230" s="1"/>
     </row>
     <row r="231">
       <c r="A231" s="1"/>
@@ -5123,7 +4850,6 @@
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
-      <c r="O231" s="1"/>
     </row>
     <row r="232">
       <c r="A232" s="1"/>
@@ -5140,7 +4866,6 @@
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
-      <c r="O232" s="1"/>
     </row>
     <row r="233">
       <c r="A233" s="1"/>
@@ -5157,7 +4882,6 @@
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
-      <c r="O233" s="1"/>
     </row>
     <row r="234">
       <c r="A234" s="1"/>
@@ -5174,7 +4898,6 @@
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
-      <c r="O234" s="1"/>
     </row>
     <row r="235">
       <c r="A235" s="1"/>
@@ -5191,7 +4914,6 @@
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
-      <c r="O235" s="1"/>
     </row>
     <row r="236">
       <c r="A236" s="1"/>
@@ -5208,7 +4930,6 @@
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
-      <c r="O236" s="1"/>
     </row>
     <row r="237">
       <c r="A237" s="1"/>
@@ -5225,7 +4946,6 @@
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
-      <c r="O237" s="1"/>
     </row>
     <row r="238">
       <c r="A238" s="1"/>
@@ -5242,7 +4962,6 @@
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
-      <c r="O238" s="1"/>
     </row>
     <row r="239">
       <c r="A239" s="1"/>
@@ -5259,7 +4978,6 @@
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
-      <c r="O239" s="1"/>
     </row>
     <row r="240">
       <c r="A240" s="1"/>
@@ -5276,7 +4994,6 @@
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
-      <c r="O240" s="1"/>
     </row>
     <row r="241">
       <c r="A241" s="1"/>
@@ -5293,7 +5010,6 @@
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
-      <c r="O241" s="1"/>
     </row>
     <row r="242">
       <c r="A242" s="1"/>
@@ -5310,7 +5026,6 @@
       <c r="L242" s="1"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
-      <c r="O242" s="1"/>
     </row>
     <row r="243">
       <c r="A243" s="1"/>
@@ -5327,7 +5042,6 @@
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
-      <c r="O243" s="1"/>
     </row>
     <row r="244">
       <c r="A244" s="1"/>
@@ -5344,7 +5058,6 @@
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
-      <c r="O244" s="1"/>
     </row>
     <row r="245">
       <c r="A245" s="1"/>
@@ -5361,7 +5074,6 @@
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
-      <c r="O245" s="1"/>
     </row>
     <row r="246">
       <c r="A246" s="1"/>
@@ -5378,7 +5090,6 @@
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
-      <c r="O246" s="1"/>
     </row>
     <row r="247">
       <c r="A247" s="1"/>
@@ -5395,7 +5106,6 @@
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
-      <c r="O247" s="1"/>
     </row>
     <row r="248">
       <c r="A248" s="1"/>
@@ -5412,7 +5122,6 @@
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
-      <c r="O248" s="1"/>
     </row>
     <row r="249">
       <c r="A249" s="1"/>
@@ -5429,7 +5138,6 @@
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
-      <c r="O249" s="1"/>
     </row>
     <row r="250">
       <c r="A250" s="1"/>
@@ -5446,7 +5154,6 @@
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
-      <c r="O250" s="1"/>
     </row>
     <row r="251">
       <c r="A251" s="1"/>
@@ -5463,7 +5170,6 @@
       <c r="L251" s="1"/>
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
-      <c r="O251" s="1"/>
     </row>
     <row r="252">
       <c r="A252" s="1"/>
@@ -5480,7 +5186,6 @@
       <c r="L252" s="1"/>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
-      <c r="O252" s="1"/>
     </row>
     <row r="253">
       <c r="A253" s="1"/>
@@ -5497,7 +5202,6 @@
       <c r="L253" s="1"/>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
-      <c r="O253" s="1"/>
     </row>
     <row r="254">
       <c r="A254" s="1"/>
@@ -5514,7 +5218,6 @@
       <c r="L254" s="1"/>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
-      <c r="O254" s="1"/>
     </row>
     <row r="255">
       <c r="A255" s="1"/>
@@ -5531,7 +5234,6 @@
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
-      <c r="O255" s="1"/>
     </row>
     <row r="256">
       <c r="A256" s="1"/>
@@ -5548,7 +5250,6 @@
       <c r="L256" s="1"/>
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
-      <c r="O256" s="1"/>
     </row>
     <row r="257">
       <c r="A257" s="1"/>
@@ -5565,7 +5266,6 @@
       <c r="L257" s="1"/>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
-      <c r="O257" s="1"/>
     </row>
     <row r="258">
       <c r="A258" s="1"/>
@@ -5582,7 +5282,6 @@
       <c r="L258" s="1"/>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
-      <c r="O258" s="1"/>
     </row>
     <row r="259">
       <c r="A259" s="1"/>
@@ -5599,7 +5298,6 @@
       <c r="L259" s="1"/>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
-      <c r="O259" s="1"/>
     </row>
     <row r="260">
       <c r="A260" s="1"/>
@@ -5616,7 +5314,6 @@
       <c r="L260" s="1"/>
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
-      <c r="O260" s="1"/>
     </row>
     <row r="261">
       <c r="A261" s="1"/>
@@ -5633,7 +5330,6 @@
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
-      <c r="O261" s="1"/>
     </row>
     <row r="262">
       <c r="A262" s="1"/>
@@ -5650,7 +5346,6 @@
       <c r="L262" s="1"/>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
-      <c r="O262" s="1"/>
     </row>
     <row r="263">
       <c r="A263" s="1"/>
@@ -5667,7 +5362,6 @@
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
-      <c r="O263" s="1"/>
     </row>
     <row r="264">
       <c r="A264" s="1"/>
@@ -5684,7 +5378,6 @@
       <c r="L264" s="1"/>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
-      <c r="O264" s="1"/>
     </row>
     <row r="265">
       <c r="A265" s="1"/>
@@ -5701,7 +5394,6 @@
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
-      <c r="O265" s="1"/>
     </row>
     <row r="266">
       <c r="A266" s="1"/>
@@ -5718,7 +5410,6 @@
       <c r="L266" s="1"/>
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
-      <c r="O266" s="1"/>
     </row>
     <row r="267">
       <c r="A267" s="1"/>
@@ -5735,7 +5426,6 @@
       <c r="L267" s="1"/>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
-      <c r="O267" s="1"/>
     </row>
     <row r="268">
       <c r="A268" s="1"/>
@@ -5752,7 +5442,6 @@
       <c r="L268" s="1"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
-      <c r="O268" s="1"/>
     </row>
     <row r="269">
       <c r="A269" s="1"/>
@@ -5769,7 +5458,6 @@
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
-      <c r="O269" s="1"/>
     </row>
     <row r="270">
       <c r="A270" s="1"/>
@@ -5786,7 +5474,6 @@
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
-      <c r="O270" s="1"/>
     </row>
     <row r="271">
       <c r="A271" s="1"/>
@@ -5803,7 +5490,6 @@
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
-      <c r="O271" s="1"/>
     </row>
     <row r="272">
       <c r="A272" s="1"/>
@@ -5820,7 +5506,6 @@
       <c r="L272" s="1"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
-      <c r="O272" s="1"/>
     </row>
     <row r="273">
       <c r="A273" s="1"/>
@@ -5837,7 +5522,6 @@
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
-      <c r="O273" s="1"/>
     </row>
     <row r="274">
       <c r="A274" s="1"/>
@@ -5854,7 +5538,6 @@
       <c r="L274" s="1"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
-      <c r="O274" s="1"/>
     </row>
     <row r="275">
       <c r="A275" s="1"/>
@@ -5871,7 +5554,6 @@
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
-      <c r="O275" s="1"/>
     </row>
     <row r="276">
       <c r="A276" s="1"/>
@@ -5888,7 +5570,6 @@
       <c r="L276" s="1"/>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
-      <c r="O276" s="1"/>
     </row>
     <row r="277">
       <c r="A277" s="1"/>
@@ -5905,7 +5586,6 @@
       <c r="L277" s="1"/>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
-      <c r="O277" s="1"/>
     </row>
     <row r="278">
       <c r="A278" s="1"/>
@@ -5922,7 +5602,6 @@
       <c r="L278" s="1"/>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
-      <c r="O278" s="1"/>
     </row>
     <row r="279">
       <c r="A279" s="1"/>
@@ -5939,7 +5618,6 @@
       <c r="L279" s="1"/>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
-      <c r="O279" s="1"/>
     </row>
     <row r="280">
       <c r="A280" s="1"/>
@@ -5956,7 +5634,6 @@
       <c r="L280" s="1"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
-      <c r="O280" s="1"/>
     </row>
     <row r="281">
       <c r="A281" s="1"/>
@@ -5973,7 +5650,6 @@
       <c r="L281" s="1"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
-      <c r="O281" s="1"/>
     </row>
     <row r="282">
       <c r="A282" s="1"/>
@@ -5990,7 +5666,6 @@
       <c r="L282" s="1"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
-      <c r="O282" s="1"/>
     </row>
     <row r="283">
       <c r="A283" s="1"/>
@@ -6007,7 +5682,6 @@
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
-      <c r="O283" s="1"/>
     </row>
     <row r="284">
       <c r="A284" s="1"/>
@@ -6024,7 +5698,6 @@
       <c r="L284" s="1"/>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
-      <c r="O284" s="1"/>
     </row>
     <row r="285">
       <c r="A285" s="1"/>
@@ -6041,7 +5714,6 @@
       <c r="L285" s="1"/>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
-      <c r="O285" s="1"/>
     </row>
     <row r="286">
       <c r="A286" s="1"/>
@@ -6058,7 +5730,6 @@
       <c r="L286" s="1"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
-      <c r="O286" s="1"/>
     </row>
     <row r="287">
       <c r="A287" s="1"/>
@@ -6075,7 +5746,6 @@
       <c r="L287" s="1"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
-      <c r="O287" s="1"/>
     </row>
     <row r="288">
       <c r="A288" s="1"/>
@@ -6092,7 +5762,6 @@
       <c r="L288" s="1"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
-      <c r="O288" s="1"/>
     </row>
     <row r="289">
       <c r="A289" s="1"/>
@@ -6109,7 +5778,6 @@
       <c r="L289" s="1"/>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
-      <c r="O289" s="1"/>
     </row>
     <row r="290">
       <c r="A290" s="1"/>
@@ -6126,7 +5794,6 @@
       <c r="L290" s="1"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
-      <c r="O290" s="1"/>
     </row>
     <row r="291">
       <c r="A291" s="1"/>
@@ -6143,7 +5810,6 @@
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
-      <c r="O291" s="1"/>
     </row>
     <row r="292">
       <c r="A292" s="1"/>
@@ -6160,7 +5826,6 @@
       <c r="L292" s="1"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
-      <c r="O292" s="1"/>
     </row>
     <row r="293">
       <c r="A293" s="1"/>
@@ -6177,7 +5842,6 @@
       <c r="L293" s="1"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
-      <c r="O293" s="1"/>
     </row>
     <row r="294">
       <c r="A294" s="1"/>
@@ -6194,7 +5858,6 @@
       <c r="L294" s="1"/>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
-      <c r="O294" s="1"/>
     </row>
     <row r="295">
       <c r="A295" s="1"/>
@@ -6211,7 +5874,6 @@
       <c r="L295" s="1"/>
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
-      <c r="O295" s="1"/>
     </row>
     <row r="296">
       <c r="A296" s="1"/>
@@ -6228,7 +5890,6 @@
       <c r="L296" s="1"/>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
-      <c r="O296" s="1"/>
     </row>
     <row r="297">
       <c r="A297" s="1"/>
@@ -6245,7 +5906,6 @@
       <c r="L297" s="1"/>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
-      <c r="O297" s="1"/>
     </row>
     <row r="298">
       <c r="A298" s="1"/>
@@ -6262,7 +5922,6 @@
       <c r="L298" s="1"/>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
-      <c r="O298" s="1"/>
     </row>
     <row r="299">
       <c r="A299" s="1"/>
@@ -6279,7 +5938,6 @@
       <c r="L299" s="1"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
-      <c r="O299" s="1"/>
     </row>
     <row r="300">
       <c r="A300" s="1"/>
@@ -6296,7 +5954,6 @@
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
-      <c r="O300" s="1"/>
     </row>
     <row r="301">
       <c r="A301" s="1"/>
@@ -6313,7 +5970,6 @@
       <c r="L301" s="1"/>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
-      <c r="O301" s="1"/>
     </row>
     <row r="302">
       <c r="A302" s="1"/>
@@ -6330,7 +5986,6 @@
       <c r="L302" s="1"/>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
-      <c r="O302" s="1"/>
     </row>
     <row r="303">
       <c r="A303" s="1"/>
@@ -6347,7 +6002,6 @@
       <c r="L303" s="1"/>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
-      <c r="O303" s="1"/>
     </row>
     <row r="304">
       <c r="A304" s="1"/>
@@ -6364,7 +6018,6 @@
       <c r="L304" s="1"/>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
-      <c r="O304" s="1"/>
     </row>
     <row r="305">
       <c r="A305" s="1"/>
@@ -6381,7 +6034,6 @@
       <c r="L305" s="1"/>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
-      <c r="O305" s="1"/>
     </row>
     <row r="306">
       <c r="A306" s="1"/>
@@ -6398,7 +6050,6 @@
       <c r="L306" s="1"/>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
-      <c r="O306" s="1"/>
     </row>
     <row r="307">
       <c r="A307" s="1"/>
@@ -6415,7 +6066,6 @@
       <c r="L307" s="1"/>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
-      <c r="O307" s="1"/>
     </row>
     <row r="308">
       <c r="A308" s="1"/>
@@ -6432,7 +6082,6 @@
       <c r="L308" s="1"/>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
-      <c r="O308" s="1"/>
     </row>
     <row r="309">
       <c r="A309" s="1"/>
@@ -6449,7 +6098,6 @@
       <c r="L309" s="1"/>
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
-      <c r="O309" s="1"/>
     </row>
     <row r="310">
       <c r="A310" s="1"/>
@@ -6466,7 +6114,6 @@
       <c r="L310" s="1"/>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
-      <c r="O310" s="1"/>
     </row>
     <row r="311">
       <c r="A311" s="1"/>
@@ -6483,7 +6130,6 @@
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
-      <c r="O311" s="1"/>
     </row>
     <row r="312">
       <c r="A312" s="1"/>
@@ -6500,7 +6146,6 @@
       <c r="L312" s="1"/>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
-      <c r="O312" s="1"/>
     </row>
     <row r="313">
       <c r="A313" s="1"/>
@@ -6517,7 +6162,6 @@
       <c r="L313" s="1"/>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
-      <c r="O313" s="1"/>
     </row>
     <row r="314">
       <c r="A314" s="1"/>
@@ -6534,7 +6178,6 @@
       <c r="L314" s="1"/>
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
-      <c r="O314" s="1"/>
     </row>
     <row r="315">
       <c r="A315" s="1"/>
@@ -6551,7 +6194,6 @@
       <c r="L315" s="1"/>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
-      <c r="O315" s="1"/>
     </row>
     <row r="316">
       <c r="A316" s="1"/>
@@ -6568,7 +6210,6 @@
       <c r="L316" s="1"/>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
-      <c r="O316" s="1"/>
     </row>
     <row r="317">
       <c r="A317" s="1"/>
@@ -6585,7 +6226,6 @@
       <c r="L317" s="1"/>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
-      <c r="O317" s="1"/>
     </row>
     <row r="318">
       <c r="A318" s="1"/>
@@ -6602,7 +6242,6 @@
       <c r="L318" s="1"/>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
-      <c r="O318" s="1"/>
     </row>
     <row r="319">
       <c r="A319" s="1"/>
@@ -6619,7 +6258,6 @@
       <c r="L319" s="1"/>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
-      <c r="O319" s="1"/>
     </row>
     <row r="320">
       <c r="A320" s="1"/>
@@ -6636,7 +6274,6 @@
       <c r="L320" s="1"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
-      <c r="O320" s="1"/>
     </row>
     <row r="321">
       <c r="A321" s="1"/>
@@ -6653,7 +6290,6 @@
       <c r="L321" s="1"/>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
-      <c r="O321" s="1"/>
     </row>
     <row r="322">
       <c r="A322" s="1"/>
@@ -6670,7 +6306,6 @@
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
-      <c r="O322" s="1"/>
     </row>
     <row r="323">
       <c r="A323" s="1"/>
@@ -6687,7 +6322,6 @@
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
-      <c r="O323" s="1"/>
     </row>
     <row r="324">
       <c r="A324" s="1"/>
@@ -6704,7 +6338,6 @@
       <c r="L324" s="1"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
-      <c r="O324" s="1"/>
     </row>
     <row r="325">
       <c r="A325" s="1"/>
@@ -6721,7 +6354,6 @@
       <c r="L325" s="1"/>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
-      <c r="O325" s="1"/>
     </row>
     <row r="326">
       <c r="A326" s="1"/>
@@ -6738,7 +6370,6 @@
       <c r="L326" s="1"/>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
-      <c r="O326" s="1"/>
     </row>
     <row r="327">
       <c r="A327" s="1"/>
@@ -6755,7 +6386,6 @@
       <c r="L327" s="1"/>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
-      <c r="O327" s="1"/>
     </row>
     <row r="328">
       <c r="A328" s="1"/>
@@ -6772,7 +6402,6 @@
       <c r="L328" s="1"/>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
-      <c r="O328" s="1"/>
     </row>
     <row r="329">
       <c r="A329" s="1"/>
@@ -6789,7 +6418,6 @@
       <c r="L329" s="1"/>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
-      <c r="O329" s="1"/>
     </row>
     <row r="330">
       <c r="A330" s="1"/>
@@ -6806,7 +6434,6 @@
       <c r="L330" s="1"/>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
-      <c r="O330" s="1"/>
     </row>
     <row r="331">
       <c r="A331" s="1"/>
@@ -6823,7 +6450,6 @@
       <c r="L331" s="1"/>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
-      <c r="O331" s="1"/>
     </row>
     <row r="332">
       <c r="A332" s="1"/>
@@ -6840,7 +6466,6 @@
       <c r="L332" s="1"/>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
-      <c r="O332" s="1"/>
     </row>
     <row r="333">
       <c r="A333" s="1"/>
@@ -6857,7 +6482,6 @@
       <c r="L333" s="1"/>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
-      <c r="O333" s="1"/>
     </row>
     <row r="334">
       <c r="A334" s="1"/>
@@ -6874,7 +6498,6 @@
       <c r="L334" s="1"/>
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
-      <c r="O334" s="1"/>
     </row>
     <row r="335">
       <c r="A335" s="1"/>
@@ -6891,7 +6514,6 @@
       <c r="L335" s="1"/>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
-      <c r="O335" s="1"/>
     </row>
     <row r="336">
       <c r="A336" s="1"/>
@@ -6908,7 +6530,6 @@
       <c r="L336" s="1"/>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
-      <c r="O336" s="1"/>
     </row>
     <row r="337">
       <c r="A337" s="1"/>
@@ -6925,7 +6546,6 @@
       <c r="L337" s="1"/>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
-      <c r="O337" s="1"/>
     </row>
     <row r="338">
       <c r="A338" s="1"/>
@@ -6942,7 +6562,6 @@
       <c r="L338" s="1"/>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
-      <c r="O338" s="1"/>
     </row>
     <row r="339">
       <c r="A339" s="1"/>
@@ -6959,7 +6578,6 @@
       <c r="L339" s="1"/>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
-      <c r="O339" s="1"/>
     </row>
     <row r="340">
       <c r="A340" s="1"/>
@@ -6976,7 +6594,6 @@
       <c r="L340" s="1"/>
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
-      <c r="O340" s="1"/>
     </row>
     <row r="341">
       <c r="A341" s="1"/>
@@ -6993,7 +6610,6 @@
       <c r="L341" s="1"/>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
-      <c r="O341" s="1"/>
     </row>
     <row r="342">
       <c r="A342" s="1"/>
@@ -7010,7 +6626,6 @@
       <c r="L342" s="1"/>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
-      <c r="O342" s="1"/>
     </row>
     <row r="343">
       <c r="A343" s="1"/>
@@ -7027,7 +6642,6 @@
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
-      <c r="O343" s="1"/>
     </row>
     <row r="344">
       <c r="A344" s="1"/>
@@ -7044,7 +6658,6 @@
       <c r="L344" s="1"/>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
-      <c r="O344" s="1"/>
     </row>
     <row r="345">
       <c r="A345" s="1"/>
@@ -7061,7 +6674,6 @@
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
-      <c r="O345" s="1"/>
     </row>
     <row r="346">
       <c r="A346" s="1"/>
@@ -7078,7 +6690,6 @@
       <c r="L346" s="1"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
-      <c r="O346" s="1"/>
     </row>
     <row r="347">
       <c r="A347" s="1"/>
@@ -7095,7 +6706,6 @@
       <c r="L347" s="1"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
-      <c r="O347" s="1"/>
     </row>
     <row r="348">
       <c r="A348" s="1"/>
@@ -7112,7 +6722,6 @@
       <c r="L348" s="1"/>
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
-      <c r="O348" s="1"/>
     </row>
     <row r="349">
       <c r="A349" s="1"/>
@@ -7129,7 +6738,6 @@
       <c r="L349" s="1"/>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
-      <c r="O349" s="1"/>
     </row>
     <row r="350">
       <c r="A350" s="1"/>
@@ -7146,7 +6754,6 @@
       <c r="L350" s="1"/>
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
-      <c r="O350" s="1"/>
     </row>
     <row r="351">
       <c r="A351" s="1"/>
@@ -7163,7 +6770,6 @@
       <c r="L351" s="1"/>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
-      <c r="O351" s="1"/>
     </row>
     <row r="352">
       <c r="A352" s="1"/>
@@ -7180,7 +6786,6 @@
       <c r="L352" s="1"/>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
-      <c r="O352" s="1"/>
     </row>
     <row r="353">
       <c r="A353" s="1"/>
@@ -7197,7 +6802,6 @@
       <c r="L353" s="1"/>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
-      <c r="O353" s="1"/>
     </row>
     <row r="354">
       <c r="A354" s="1"/>
@@ -7214,7 +6818,6 @@
       <c r="L354" s="1"/>
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
-      <c r="O354" s="1"/>
     </row>
     <row r="355">
       <c r="A355" s="1"/>
@@ -7231,7 +6834,6 @@
       <c r="L355" s="1"/>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
-      <c r="O355" s="1"/>
     </row>
     <row r="356">
       <c r="A356" s="1"/>
@@ -7248,7 +6850,6 @@
       <c r="L356" s="1"/>
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
-      <c r="O356" s="1"/>
     </row>
     <row r="357">
       <c r="A357" s="1"/>
@@ -7265,7 +6866,6 @@
       <c r="L357" s="1"/>
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
-      <c r="O357" s="1"/>
     </row>
     <row r="358">
       <c r="A358" s="1"/>
@@ -7282,7 +6882,6 @@
       <c r="L358" s="1"/>
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
-      <c r="O358" s="1"/>
     </row>
     <row r="359">
       <c r="A359" s="1"/>
@@ -7299,7 +6898,6 @@
       <c r="L359" s="1"/>
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
-      <c r="O359" s="1"/>
     </row>
     <row r="360">
       <c r="A360" s="1"/>
@@ -7316,7 +6914,6 @@
       <c r="L360" s="1"/>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
-      <c r="O360" s="1"/>
     </row>
     <row r="361">
       <c r="A361" s="1"/>
@@ -7333,7 +6930,6 @@
       <c r="L361" s="1"/>
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
-      <c r="O361" s="1"/>
     </row>
     <row r="362">
       <c r="A362" s="1"/>
@@ -7350,7 +6946,6 @@
       <c r="L362" s="1"/>
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
-      <c r="O362" s="1"/>
     </row>
     <row r="363">
       <c r="A363" s="1"/>
@@ -7367,7 +6962,6 @@
       <c r="L363" s="1"/>
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
-      <c r="O363" s="1"/>
     </row>
     <row r="364">
       <c r="A364" s="1"/>
@@ -7384,7 +6978,6 @@
       <c r="L364" s="1"/>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
-      <c r="O364" s="1"/>
     </row>
     <row r="365">
       <c r="A365" s="1"/>
@@ -7401,7 +6994,6 @@
       <c r="L365" s="1"/>
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
-      <c r="O365" s="1"/>
     </row>
     <row r="366">
       <c r="A366" s="1"/>
@@ -7418,7 +7010,6 @@
       <c r="L366" s="1"/>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
-      <c r="O366" s="1"/>
     </row>
     <row r="367">
       <c r="A367" s="1"/>
@@ -7435,7 +7026,6 @@
       <c r="L367" s="1"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
-      <c r="O367" s="1"/>
     </row>
     <row r="368">
       <c r="A368" s="1"/>
@@ -7452,7 +7042,6 @@
       <c r="L368" s="1"/>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
-      <c r="O368" s="1"/>
     </row>
     <row r="369">
       <c r="A369" s="1"/>
@@ -7469,7 +7058,6 @@
       <c r="L369" s="1"/>
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
-      <c r="O369" s="1"/>
     </row>
     <row r="370">
       <c r="A370" s="1"/>
@@ -7486,7 +7074,6 @@
       <c r="L370" s="1"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
-      <c r="O370" s="1"/>
     </row>
     <row r="371">
       <c r="A371" s="1"/>
@@ -7503,7 +7090,6 @@
       <c r="L371" s="1"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
-      <c r="O371" s="1"/>
     </row>
     <row r="372">
       <c r="A372" s="1"/>
@@ -7520,7 +7106,6 @@
       <c r="L372" s="1"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
-      <c r="O372" s="1"/>
     </row>
     <row r="373">
       <c r="A373" s="1"/>
@@ -7537,7 +7122,6 @@
       <c r="L373" s="1"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
-      <c r="O373" s="1"/>
     </row>
     <row r="374">
       <c r="A374" s="1"/>
@@ -7554,7 +7138,6 @@
       <c r="L374" s="1"/>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
-      <c r="O374" s="1"/>
     </row>
     <row r="375">
       <c r="A375" s="1"/>
@@ -7571,7 +7154,6 @@
       <c r="L375" s="1"/>
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
-      <c r="O375" s="1"/>
     </row>
     <row r="376">
       <c r="A376" s="1"/>
@@ -7588,7 +7170,6 @@
       <c r="L376" s="1"/>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
-      <c r="O376" s="1"/>
     </row>
     <row r="377">
       <c r="A377" s="1"/>
@@ -7605,7 +7186,6 @@
       <c r="L377" s="1"/>
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
-      <c r="O377" s="1"/>
     </row>
     <row r="378">
       <c r="A378" s="1"/>
@@ -7622,7 +7202,6 @@
       <c r="L378" s="1"/>
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
-      <c r="O378" s="1"/>
     </row>
     <row r="379">
       <c r="A379" s="1"/>
@@ -7639,7 +7218,6 @@
       <c r="L379" s="1"/>
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
-      <c r="O379" s="1"/>
     </row>
     <row r="380">
       <c r="A380" s="1"/>
@@ -7656,7 +7234,6 @@
       <c r="L380" s="1"/>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
-      <c r="O380" s="1"/>
     </row>
     <row r="381">
       <c r="A381" s="1"/>
@@ -7673,7 +7250,6 @@
       <c r="L381" s="1"/>
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
-      <c r="O381" s="1"/>
     </row>
     <row r="382">
       <c r="A382" s="1"/>
@@ -7690,7 +7266,6 @@
       <c r="L382" s="1"/>
       <c r="M382" s="1"/>
       <c r="N382" s="1"/>
-      <c r="O382" s="1"/>
     </row>
     <row r="383">
       <c r="A383" s="1"/>
@@ -7707,7 +7282,6 @@
       <c r="L383" s="1"/>
       <c r="M383" s="1"/>
       <c r="N383" s="1"/>
-      <c r="O383" s="1"/>
     </row>
     <row r="384">
       <c r="A384" s="1"/>
@@ -7724,7 +7298,6 @@
       <c r="L384" s="1"/>
       <c r="M384" s="1"/>
       <c r="N384" s="1"/>
-      <c r="O384" s="1"/>
     </row>
     <row r="385">
       <c r="A385" s="1"/>
@@ -7741,7 +7314,6 @@
       <c r="L385" s="1"/>
       <c r="M385" s="1"/>
       <c r="N385" s="1"/>
-      <c r="O385" s="1"/>
     </row>
     <row r="386">
       <c r="A386" s="1"/>
@@ -7758,7 +7330,6 @@
       <c r="L386" s="1"/>
       <c r="M386" s="1"/>
       <c r="N386" s="1"/>
-      <c r="O386" s="1"/>
     </row>
     <row r="387">
       <c r="A387" s="1"/>
@@ -7775,7 +7346,6 @@
       <c r="L387" s="1"/>
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
-      <c r="O387" s="1"/>
     </row>
     <row r="388">
       <c r="A388" s="1"/>
@@ -7792,7 +7362,6 @@
       <c r="L388" s="1"/>
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
-      <c r="O388" s="1"/>
     </row>
     <row r="389">
       <c r="A389" s="1"/>
@@ -7809,7 +7378,6 @@
       <c r="L389" s="1"/>
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
-      <c r="O389" s="1"/>
     </row>
     <row r="390">
       <c r="A390" s="1"/>
@@ -7826,7 +7394,6 @@
       <c r="L390" s="1"/>
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
-      <c r="O390" s="1"/>
     </row>
     <row r="391">
       <c r="A391" s="1"/>
@@ -7843,7 +7410,6 @@
       <c r="L391" s="1"/>
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
-      <c r="O391" s="1"/>
     </row>
     <row r="392">
       <c r="A392" s="1"/>
@@ -7860,7 +7426,6 @@
       <c r="L392" s="1"/>
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
-      <c r="O392" s="1"/>
     </row>
     <row r="393">
       <c r="A393" s="1"/>
@@ -7877,7 +7442,6 @@
       <c r="L393" s="1"/>
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
-      <c r="O393" s="1"/>
     </row>
     <row r="394">
       <c r="A394" s="1"/>
@@ -7894,7 +7458,6 @@
       <c r="L394" s="1"/>
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
-      <c r="O394" s="1"/>
     </row>
     <row r="395">
       <c r="A395" s="1"/>
@@ -7911,7 +7474,6 @@
       <c r="L395" s="1"/>
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
-      <c r="O395" s="1"/>
     </row>
     <row r="396">
       <c r="A396" s="1"/>
@@ -7928,7 +7490,6 @@
       <c r="L396" s="1"/>
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
-      <c r="O396" s="1"/>
     </row>
     <row r="397">
       <c r="A397" s="1"/>
@@ -7945,7 +7506,6 @@
       <c r="L397" s="1"/>
       <c r="M397" s="1"/>
       <c r="N397" s="1"/>
-      <c r="O397" s="1"/>
     </row>
     <row r="398">
       <c r="A398" s="1"/>
@@ -7962,7 +7522,6 @@
       <c r="L398" s="1"/>
       <c r="M398" s="1"/>
       <c r="N398" s="1"/>
-      <c r="O398" s="1"/>
     </row>
     <row r="399">
       <c r="A399" s="1"/>
@@ -7979,7 +7538,6 @@
       <c r="L399" s="1"/>
       <c r="M399" s="1"/>
       <c r="N399" s="1"/>
-      <c r="O399" s="1"/>
     </row>
     <row r="400">
       <c r="A400" s="1"/>
@@ -7996,7 +7554,6 @@
       <c r="L400" s="1"/>
       <c r="M400" s="1"/>
       <c r="N400" s="1"/>
-      <c r="O400" s="1"/>
     </row>
     <row r="401">
       <c r="A401" s="1"/>
@@ -8013,7 +7570,6 @@
       <c r="L401" s="1"/>
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
-      <c r="O401" s="1"/>
     </row>
     <row r="402">
       <c r="A402" s="1"/>
@@ -8030,7 +7586,6 @@
       <c r="L402" s="1"/>
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
-      <c r="O402" s="1"/>
     </row>
     <row r="403">
       <c r="A403" s="1"/>
@@ -8047,7 +7602,6 @@
       <c r="L403" s="1"/>
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
-      <c r="O403" s="1"/>
     </row>
     <row r="404">
       <c r="A404" s="1"/>
@@ -8064,7 +7618,6 @@
       <c r="L404" s="1"/>
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
-      <c r="O404" s="1"/>
     </row>
     <row r="405">
       <c r="A405" s="1"/>
@@ -8081,7 +7634,6 @@
       <c r="L405" s="1"/>
       <c r="M405" s="1"/>
       <c r="N405" s="1"/>
-      <c r="O405" s="1"/>
     </row>
     <row r="406">
       <c r="A406" s="1"/>
@@ -8098,7 +7650,6 @@
       <c r="L406" s="1"/>
       <c r="M406" s="1"/>
       <c r="N406" s="1"/>
-      <c r="O406" s="1"/>
     </row>
     <row r="407">
       <c r="A407" s="1"/>
@@ -8115,7 +7666,6 @@
       <c r="L407" s="1"/>
       <c r="M407" s="1"/>
       <c r="N407" s="1"/>
-      <c r="O407" s="1"/>
     </row>
     <row r="408">
       <c r="A408" s="1"/>
@@ -8132,7 +7682,6 @@
       <c r="L408" s="1"/>
       <c r="M408" s="1"/>
       <c r="N408" s="1"/>
-      <c r="O408" s="1"/>
     </row>
     <row r="409">
       <c r="A409" s="1"/>
@@ -8149,7 +7698,6 @@
       <c r="L409" s="1"/>
       <c r="M409" s="1"/>
       <c r="N409" s="1"/>
-      <c r="O409" s="1"/>
     </row>
     <row r="410">
       <c r="A410" s="1"/>
@@ -8166,7 +7714,6 @@
       <c r="L410" s="1"/>
       <c r="M410" s="1"/>
       <c r="N410" s="1"/>
-      <c r="O410" s="1"/>
     </row>
     <row r="411">
       <c r="A411" s="1"/>
@@ -8183,7 +7730,6 @@
       <c r="L411" s="1"/>
       <c r="M411" s="1"/>
       <c r="N411" s="1"/>
-      <c r="O411" s="1"/>
     </row>
     <row r="412">
       <c r="A412" s="1"/>
@@ -8200,7 +7746,6 @@
       <c r="L412" s="1"/>
       <c r="M412" s="1"/>
       <c r="N412" s="1"/>
-      <c r="O412" s="1"/>
     </row>
     <row r="413">
       <c r="A413" s="1"/>
@@ -8217,7 +7762,6 @@
       <c r="L413" s="1"/>
       <c r="M413" s="1"/>
       <c r="N413" s="1"/>
-      <c r="O413" s="1"/>
     </row>
     <row r="414">
       <c r="A414" s="1"/>
@@ -8234,7 +7778,6 @@
       <c r="L414" s="1"/>
       <c r="M414" s="1"/>
       <c r="N414" s="1"/>
-      <c r="O414" s="1"/>
     </row>
     <row r="415">
       <c r="A415" s="1"/>
@@ -8251,7 +7794,6 @@
       <c r="L415" s="1"/>
       <c r="M415" s="1"/>
       <c r="N415" s="1"/>
-      <c r="O415" s="1"/>
     </row>
     <row r="416">
       <c r="A416" s="1"/>
@@ -8268,7 +7810,6 @@
       <c r="L416" s="1"/>
       <c r="M416" s="1"/>
       <c r="N416" s="1"/>
-      <c r="O416" s="1"/>
     </row>
     <row r="417">
       <c r="A417" s="1"/>
@@ -8285,7 +7826,6 @@
       <c r="L417" s="1"/>
       <c r="M417" s="1"/>
       <c r="N417" s="1"/>
-      <c r="O417" s="1"/>
     </row>
     <row r="418">
       <c r="A418" s="1"/>
@@ -8302,7 +7842,6 @@
       <c r="L418" s="1"/>
       <c r="M418" s="1"/>
       <c r="N418" s="1"/>
-      <c r="O418" s="1"/>
     </row>
     <row r="419">
       <c r="A419" s="1"/>
@@ -8319,7 +7858,6 @@
       <c r="L419" s="1"/>
       <c r="M419" s="1"/>
       <c r="N419" s="1"/>
-      <c r="O419" s="1"/>
     </row>
     <row r="420">
       <c r="A420" s="1"/>
@@ -8336,7 +7874,6 @@
       <c r="L420" s="1"/>
       <c r="M420" s="1"/>
       <c r="N420" s="1"/>
-      <c r="O420" s="1"/>
     </row>
     <row r="421">
       <c r="A421" s="1"/>
@@ -8353,7 +7890,6 @@
       <c r="L421" s="1"/>
       <c r="M421" s="1"/>
       <c r="N421" s="1"/>
-      <c r="O421" s="1"/>
     </row>
     <row r="422">
       <c r="A422" s="1"/>
@@ -8370,7 +7906,6 @@
       <c r="L422" s="1"/>
       <c r="M422" s="1"/>
       <c r="N422" s="1"/>
-      <c r="O422" s="1"/>
     </row>
     <row r="423">
       <c r="A423" s="1"/>
@@ -8387,7 +7922,6 @@
       <c r="L423" s="1"/>
       <c r="M423" s="1"/>
       <c r="N423" s="1"/>
-      <c r="O423" s="1"/>
     </row>
     <row r="424">
       <c r="A424" s="1"/>
@@ -8404,7 +7938,6 @@
       <c r="L424" s="1"/>
       <c r="M424" s="1"/>
       <c r="N424" s="1"/>
-      <c r="O424" s="1"/>
     </row>
     <row r="425">
       <c r="A425" s="1"/>
@@ -8421,7 +7954,6 @@
       <c r="L425" s="1"/>
       <c r="M425" s="1"/>
       <c r="N425" s="1"/>
-      <c r="O425" s="1"/>
     </row>
     <row r="426">
       <c r="A426" s="1"/>
@@ -8438,7 +7970,6 @@
       <c r="L426" s="1"/>
       <c r="M426" s="1"/>
       <c r="N426" s="1"/>
-      <c r="O426" s="1"/>
     </row>
     <row r="427">
       <c r="A427" s="1"/>
@@ -8455,7 +7986,6 @@
       <c r="L427" s="1"/>
       <c r="M427" s="1"/>
       <c r="N427" s="1"/>
-      <c r="O427" s="1"/>
     </row>
     <row r="428">
       <c r="A428" s="1"/>
@@ -8472,7 +8002,6 @@
       <c r="L428" s="1"/>
       <c r="M428" s="1"/>
       <c r="N428" s="1"/>
-      <c r="O428" s="1"/>
     </row>
     <row r="429">
       <c r="A429" s="1"/>
@@ -8489,7 +8018,6 @@
       <c r="L429" s="1"/>
       <c r="M429" s="1"/>
       <c r="N429" s="1"/>
-      <c r="O429" s="1"/>
     </row>
     <row r="430">
       <c r="A430" s="1"/>
@@ -8506,7 +8034,6 @@
       <c r="L430" s="1"/>
       <c r="M430" s="1"/>
       <c r="N430" s="1"/>
-      <c r="O430" s="1"/>
     </row>
     <row r="431">
       <c r="A431" s="1"/>
@@ -8523,7 +8050,6 @@
       <c r="L431" s="1"/>
       <c r="M431" s="1"/>
       <c r="N431" s="1"/>
-      <c r="O431" s="1"/>
     </row>
     <row r="432">
       <c r="A432" s="1"/>
@@ -8540,7 +8066,6 @@
       <c r="L432" s="1"/>
       <c r="M432" s="1"/>
       <c r="N432" s="1"/>
-      <c r="O432" s="1"/>
     </row>
     <row r="433">
       <c r="A433" s="1"/>
@@ -8557,7 +8082,6 @@
       <c r="L433" s="1"/>
       <c r="M433" s="1"/>
       <c r="N433" s="1"/>
-      <c r="O433" s="1"/>
     </row>
     <row r="434">
       <c r="A434" s="1"/>
@@ -8574,7 +8098,6 @@
       <c r="L434" s="1"/>
       <c r="M434" s="1"/>
       <c r="N434" s="1"/>
-      <c r="O434" s="1"/>
     </row>
     <row r="435">
       <c r="A435" s="1"/>
@@ -8591,7 +8114,6 @@
       <c r="L435" s="1"/>
       <c r="M435" s="1"/>
       <c r="N435" s="1"/>
-      <c r="O435" s="1"/>
     </row>
     <row r="436">
       <c r="A436" s="1"/>
@@ -8608,7 +8130,6 @@
       <c r="L436" s="1"/>
       <c r="M436" s="1"/>
       <c r="N436" s="1"/>
-      <c r="O436" s="1"/>
     </row>
     <row r="437">
       <c r="A437" s="1"/>
@@ -8625,7 +8146,6 @@
       <c r="L437" s="1"/>
       <c r="M437" s="1"/>
       <c r="N437" s="1"/>
-      <c r="O437" s="1"/>
     </row>
     <row r="438">
       <c r="A438" s="1"/>
@@ -8642,7 +8162,6 @@
       <c r="L438" s="1"/>
       <c r="M438" s="1"/>
       <c r="N438" s="1"/>
-      <c r="O438" s="1"/>
     </row>
     <row r="439">
       <c r="A439" s="1"/>
@@ -8659,7 +8178,6 @@
       <c r="L439" s="1"/>
       <c r="M439" s="1"/>
       <c r="N439" s="1"/>
-      <c r="O439" s="1"/>
     </row>
     <row r="440">
       <c r="A440" s="1"/>
@@ -8676,7 +8194,6 @@
       <c r="L440" s="1"/>
       <c r="M440" s="1"/>
       <c r="N440" s="1"/>
-      <c r="O440" s="1"/>
     </row>
     <row r="441">
       <c r="A441" s="1"/>
@@ -8693,7 +8210,6 @@
       <c r="L441" s="1"/>
       <c r="M441" s="1"/>
       <c r="N441" s="1"/>
-      <c r="O441" s="1"/>
     </row>
     <row r="442">
       <c r="A442" s="1"/>
@@ -8710,7 +8226,6 @@
       <c r="L442" s="1"/>
       <c r="M442" s="1"/>
       <c r="N442" s="1"/>
-      <c r="O442" s="1"/>
     </row>
     <row r="443">
       <c r="A443" s="1"/>
@@ -8727,7 +8242,6 @@
       <c r="L443" s="1"/>
       <c r="M443" s="1"/>
       <c r="N443" s="1"/>
-      <c r="O443" s="1"/>
     </row>
     <row r="444">
       <c r="A444" s="1"/>
@@ -8744,7 +8258,6 @@
       <c r="L444" s="1"/>
       <c r="M444" s="1"/>
       <c r="N444" s="1"/>
-      <c r="O444" s="1"/>
     </row>
     <row r="445">
       <c r="A445" s="1"/>
@@ -8761,7 +8274,6 @@
       <c r="L445" s="1"/>
       <c r="M445" s="1"/>
       <c r="N445" s="1"/>
-      <c r="O445" s="1"/>
     </row>
     <row r="446">
       <c r="A446" s="1"/>
@@ -8778,7 +8290,6 @@
       <c r="L446" s="1"/>
       <c r="M446" s="1"/>
       <c r="N446" s="1"/>
-      <c r="O446" s="1"/>
     </row>
     <row r="447">
       <c r="A447" s="1"/>
@@ -8795,7 +8306,6 @@
       <c r="L447" s="1"/>
       <c r="M447" s="1"/>
       <c r="N447" s="1"/>
-      <c r="O447" s="1"/>
     </row>
     <row r="448">
       <c r="A448" s="1"/>
@@ -8812,7 +8322,6 @@
       <c r="L448" s="1"/>
       <c r="M448" s="1"/>
       <c r="N448" s="1"/>
-      <c r="O448" s="1"/>
     </row>
     <row r="449">
       <c r="A449" s="1"/>
@@ -8829,7 +8338,6 @@
       <c r="L449" s="1"/>
       <c r="M449" s="1"/>
       <c r="N449" s="1"/>
-      <c r="O449" s="1"/>
     </row>
     <row r="450">
       <c r="A450" s="1"/>
@@ -8846,7 +8354,6 @@
       <c r="L450" s="1"/>
       <c r="M450" s="1"/>
       <c r="N450" s="1"/>
-      <c r="O450" s="1"/>
     </row>
     <row r="451">
       <c r="A451" s="1"/>
@@ -8863,7 +8370,6 @@
       <c r="L451" s="1"/>
       <c r="M451" s="1"/>
       <c r="N451" s="1"/>
-      <c r="O451" s="1"/>
     </row>
     <row r="452">
       <c r="A452" s="1"/>
@@ -8880,7 +8386,6 @@
       <c r="L452" s="1"/>
       <c r="M452" s="1"/>
       <c r="N452" s="1"/>
-      <c r="O452" s="1"/>
     </row>
     <row r="453">
       <c r="A453" s="1"/>
@@ -8897,7 +8402,6 @@
       <c r="L453" s="1"/>
       <c r="M453" s="1"/>
       <c r="N453" s="1"/>
-      <c r="O453" s="1"/>
     </row>
     <row r="454">
       <c r="A454" s="1"/>
@@ -8914,7 +8418,6 @@
       <c r="L454" s="1"/>
       <c r="M454" s="1"/>
       <c r="N454" s="1"/>
-      <c r="O454" s="1"/>
     </row>
     <row r="455">
       <c r="A455" s="1"/>
@@ -8931,7 +8434,6 @@
       <c r="L455" s="1"/>
       <c r="M455" s="1"/>
       <c r="N455" s="1"/>
-      <c r="O455" s="1"/>
     </row>
     <row r="456">
       <c r="A456" s="1"/>
@@ -8948,7 +8450,6 @@
       <c r="L456" s="1"/>
       <c r="M456" s="1"/>
       <c r="N456" s="1"/>
-      <c r="O456" s="1"/>
     </row>
     <row r="457">
       <c r="A457" s="1"/>
@@ -8965,7 +8466,6 @@
       <c r="L457" s="1"/>
       <c r="M457" s="1"/>
       <c r="N457" s="1"/>
-      <c r="O457" s="1"/>
     </row>
     <row r="458">
       <c r="A458" s="1"/>
@@ -8982,7 +8482,6 @@
       <c r="L458" s="1"/>
       <c r="M458" s="1"/>
       <c r="N458" s="1"/>
-      <c r="O458" s="1"/>
     </row>
     <row r="459">
       <c r="A459" s="1"/>
@@ -8999,7 +8498,6 @@
       <c r="L459" s="1"/>
       <c r="M459" s="1"/>
       <c r="N459" s="1"/>
-      <c r="O459" s="1"/>
     </row>
     <row r="460">
       <c r="A460" s="1"/>
@@ -9016,7 +8514,6 @@
       <c r="L460" s="1"/>
       <c r="M460" s="1"/>
       <c r="N460" s="1"/>
-      <c r="O460" s="1"/>
     </row>
     <row r="461">
       <c r="A461" s="1"/>
@@ -9033,7 +8530,6 @@
       <c r="L461" s="1"/>
       <c r="M461" s="1"/>
       <c r="N461" s="1"/>
-      <c r="O461" s="1"/>
     </row>
     <row r="462">
       <c r="A462" s="1"/>
@@ -9050,7 +8546,6 @@
       <c r="L462" s="1"/>
       <c r="M462" s="1"/>
       <c r="N462" s="1"/>
-      <c r="O462" s="1"/>
     </row>
     <row r="463">
       <c r="A463" s="1"/>
@@ -9067,7 +8562,6 @@
       <c r="L463" s="1"/>
       <c r="M463" s="1"/>
       <c r="N463" s="1"/>
-      <c r="O463" s="1"/>
     </row>
     <row r="464">
       <c r="A464" s="1"/>
@@ -9084,7 +8578,6 @@
       <c r="L464" s="1"/>
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
-      <c r="O464" s="1"/>
     </row>
     <row r="465">
       <c r="A465" s="1"/>
@@ -9101,7 +8594,6 @@
       <c r="L465" s="1"/>
       <c r="M465" s="1"/>
       <c r="N465" s="1"/>
-      <c r="O465" s="1"/>
     </row>
     <row r="466">
       <c r="A466" s="1"/>
@@ -9118,7 +8610,6 @@
       <c r="L466" s="1"/>
       <c r="M466" s="1"/>
       <c r="N466" s="1"/>
-      <c r="O466" s="1"/>
     </row>
     <row r="467">
       <c r="A467" s="1"/>
@@ -9135,7 +8626,6 @@
       <c r="L467" s="1"/>
       <c r="M467" s="1"/>
       <c r="N467" s="1"/>
-      <c r="O467" s="1"/>
     </row>
     <row r="468">
       <c r="A468" s="1"/>
@@ -9152,7 +8642,6 @@
       <c r="L468" s="1"/>
       <c r="M468" s="1"/>
       <c r="N468" s="1"/>
-      <c r="O468" s="1"/>
     </row>
     <row r="469">
       <c r="A469" s="1"/>
@@ -9169,7 +8658,6 @@
       <c r="L469" s="1"/>
       <c r="M469" s="1"/>
       <c r="N469" s="1"/>
-      <c r="O469" s="1"/>
     </row>
     <row r="470">
       <c r="A470" s="1"/>
@@ -9186,7 +8674,6 @@
       <c r="L470" s="1"/>
       <c r="M470" s="1"/>
       <c r="N470" s="1"/>
-      <c r="O470" s="1"/>
     </row>
     <row r="471">
       <c r="A471" s="1"/>
@@ -9203,7 +8690,6 @@
       <c r="L471" s="1"/>
       <c r="M471" s="1"/>
       <c r="N471" s="1"/>
-      <c r="O471" s="1"/>
     </row>
     <row r="472">
       <c r="A472" s="1"/>
@@ -9220,7 +8706,6 @@
       <c r="L472" s="1"/>
       <c r="M472" s="1"/>
       <c r="N472" s="1"/>
-      <c r="O472" s="1"/>
     </row>
     <row r="473">
       <c r="A473" s="1"/>
@@ -9237,7 +8722,6 @@
       <c r="L473" s="1"/>
       <c r="M473" s="1"/>
       <c r="N473" s="1"/>
-      <c r="O473" s="1"/>
     </row>
     <row r="474">
       <c r="A474" s="1"/>
@@ -9254,7 +8738,6 @@
       <c r="L474" s="1"/>
       <c r="M474" s="1"/>
       <c r="N474" s="1"/>
-      <c r="O474" s="1"/>
     </row>
     <row r="475">
       <c r="A475" s="1"/>
@@ -9271,7 +8754,6 @@
       <c r="L475" s="1"/>
       <c r="M475" s="1"/>
       <c r="N475" s="1"/>
-      <c r="O475" s="1"/>
     </row>
     <row r="476">
       <c r="A476" s="1"/>
@@ -9288,7 +8770,6 @@
       <c r="L476" s="1"/>
       <c r="M476" s="1"/>
       <c r="N476" s="1"/>
-      <c r="O476" s="1"/>
     </row>
     <row r="477">
       <c r="A477" s="1"/>
@@ -9305,7 +8786,6 @@
       <c r="L477" s="1"/>
       <c r="M477" s="1"/>
       <c r="N477" s="1"/>
-      <c r="O477" s="1"/>
     </row>
     <row r="478">
       <c r="A478" s="1"/>
@@ -9322,7 +8802,6 @@
       <c r="L478" s="1"/>
       <c r="M478" s="1"/>
       <c r="N478" s="1"/>
-      <c r="O478" s="1"/>
     </row>
     <row r="479">
       <c r="A479" s="1"/>
@@ -9339,7 +8818,6 @@
       <c r="L479" s="1"/>
       <c r="M479" s="1"/>
       <c r="N479" s="1"/>
-      <c r="O479" s="1"/>
     </row>
     <row r="480">
       <c r="A480" s="1"/>
@@ -9356,7 +8834,6 @@
       <c r="L480" s="1"/>
       <c r="M480" s="1"/>
       <c r="N480" s="1"/>
-      <c r="O480" s="1"/>
     </row>
     <row r="481">
       <c r="A481" s="1"/>
@@ -9373,7 +8850,6 @@
       <c r="L481" s="1"/>
       <c r="M481" s="1"/>
       <c r="N481" s="1"/>
-      <c r="O481" s="1"/>
     </row>
     <row r="482">
       <c r="A482" s="1"/>
@@ -9390,7 +8866,6 @@
       <c r="L482" s="1"/>
       <c r="M482" s="1"/>
       <c r="N482" s="1"/>
-      <c r="O482" s="1"/>
     </row>
     <row r="483">
       <c r="A483" s="1"/>
@@ -9407,7 +8882,6 @@
       <c r="L483" s="1"/>
       <c r="M483" s="1"/>
       <c r="N483" s="1"/>
-      <c r="O483" s="1"/>
     </row>
     <row r="484">
       <c r="A484" s="1"/>
@@ -9424,7 +8898,6 @@
       <c r="L484" s="1"/>
       <c r="M484" s="1"/>
       <c r="N484" s="1"/>
-      <c r="O484" s="1"/>
     </row>
     <row r="485">
       <c r="A485" s="1"/>
@@ -9441,7 +8914,6 @@
       <c r="L485" s="1"/>
       <c r="M485" s="1"/>
       <c r="N485" s="1"/>
-      <c r="O485" s="1"/>
     </row>
     <row r="486">
       <c r="A486" s="1"/>
@@ -9458,7 +8930,6 @@
       <c r="L486" s="1"/>
       <c r="M486" s="1"/>
       <c r="N486" s="1"/>
-      <c r="O486" s="1"/>
     </row>
     <row r="487">
       <c r="A487" s="1"/>
@@ -9475,7 +8946,6 @@
       <c r="L487" s="1"/>
       <c r="M487" s="1"/>
       <c r="N487" s="1"/>
-      <c r="O487" s="1"/>
     </row>
     <row r="488">
       <c r="A488" s="1"/>
@@ -9492,7 +8962,6 @@
       <c r="L488" s="1"/>
       <c r="M488" s="1"/>
       <c r="N488" s="1"/>
-      <c r="O488" s="1"/>
     </row>
     <row r="489">
       <c r="A489" s="1"/>
@@ -9509,7 +8978,6 @@
       <c r="L489" s="1"/>
       <c r="M489" s="1"/>
       <c r="N489" s="1"/>
-      <c r="O489" s="1"/>
     </row>
     <row r="490">
       <c r="A490" s="1"/>
@@ -9526,7 +8994,6 @@
       <c r="L490" s="1"/>
       <c r="M490" s="1"/>
       <c r="N490" s="1"/>
-      <c r="O490" s="1"/>
     </row>
     <row r="491">
       <c r="A491" s="1"/>
@@ -9543,7 +9010,6 @@
       <c r="L491" s="1"/>
       <c r="M491" s="1"/>
       <c r="N491" s="1"/>
-      <c r="O491" s="1"/>
     </row>
     <row r="492">
       <c r="A492" s="1"/>
@@ -9560,7 +9026,6 @@
       <c r="L492" s="1"/>
       <c r="M492" s="1"/>
       <c r="N492" s="1"/>
-      <c r="O492" s="1"/>
     </row>
     <row r="493">
       <c r="A493" s="1"/>
@@ -9577,7 +9042,6 @@
       <c r="L493" s="1"/>
       <c r="M493" s="1"/>
       <c r="N493" s="1"/>
-      <c r="O493" s="1"/>
     </row>
     <row r="494">
       <c r="A494" s="1"/>
@@ -9594,7 +9058,6 @@
       <c r="L494" s="1"/>
       <c r="M494" s="1"/>
       <c r="N494" s="1"/>
-      <c r="O494" s="1"/>
     </row>
     <row r="495">
       <c r="A495" s="1"/>
@@ -9611,7 +9074,6 @@
       <c r="L495" s="1"/>
       <c r="M495" s="1"/>
       <c r="N495" s="1"/>
-      <c r="O495" s="1"/>
     </row>
     <row r="496">
       <c r="A496" s="1"/>
@@ -9628,7 +9090,6 @@
       <c r="L496" s="1"/>
       <c r="M496" s="1"/>
       <c r="N496" s="1"/>
-      <c r="O496" s="1"/>
     </row>
     <row r="497">
       <c r="A497" s="1"/>
@@ -9645,7 +9106,6 @@
       <c r="L497" s="1"/>
       <c r="M497" s="1"/>
       <c r="N497" s="1"/>
-      <c r="O497" s="1"/>
     </row>
     <row r="498">
       <c r="A498" s="1"/>
@@ -9662,7 +9122,6 @@
       <c r="L498" s="1"/>
       <c r="M498" s="1"/>
       <c r="N498" s="1"/>
-      <c r="O498" s="1"/>
     </row>
     <row r="499">
       <c r="A499" s="1"/>
@@ -9679,7 +9138,6 @@
       <c r="L499" s="1"/>
       <c r="M499" s="1"/>
       <c r="N499" s="1"/>
-      <c r="O499" s="1"/>
     </row>
     <row r="500">
       <c r="A500" s="1"/>
@@ -9696,7 +9154,6 @@
       <c r="L500" s="1"/>
       <c r="M500" s="1"/>
       <c r="N500" s="1"/>
-      <c r="O500" s="1"/>
     </row>
     <row r="501">
       <c r="A501" s="1"/>
@@ -9713,7 +9170,6 @@
       <c r="L501" s="1"/>
       <c r="M501" s="1"/>
       <c r="N501" s="1"/>
-      <c r="O501" s="1"/>
     </row>
     <row r="502">
       <c r="A502" s="1"/>
@@ -9730,7 +9186,6 @@
       <c r="L502" s="1"/>
       <c r="M502" s="1"/>
       <c r="N502" s="1"/>
-      <c r="O502" s="1"/>
     </row>
     <row r="503">
       <c r="A503" s="1"/>
@@ -9747,7 +9202,6 @@
       <c r="L503" s="1"/>
       <c r="M503" s="1"/>
       <c r="N503" s="1"/>
-      <c r="O503" s="1"/>
     </row>
     <row r="504">
       <c r="A504" s="1"/>
@@ -9764,7 +9218,6 @@
       <c r="L504" s="1"/>
       <c r="M504" s="1"/>
       <c r="N504" s="1"/>
-      <c r="O504" s="1"/>
     </row>
     <row r="505">
       <c r="A505" s="1"/>
@@ -9781,7 +9234,6 @@
       <c r="L505" s="1"/>
       <c r="M505" s="1"/>
       <c r="N505" s="1"/>
-      <c r="O505" s="1"/>
     </row>
     <row r="506">
       <c r="A506" s="1"/>
@@ -9798,7 +9250,6 @@
       <c r="L506" s="1"/>
       <c r="M506" s="1"/>
       <c r="N506" s="1"/>
-      <c r="O506" s="1"/>
     </row>
     <row r="507">
       <c r="A507" s="1"/>
@@ -9815,7 +9266,6 @@
       <c r="L507" s="1"/>
       <c r="M507" s="1"/>
       <c r="N507" s="1"/>
-      <c r="O507" s="1"/>
     </row>
     <row r="508">
       <c r="A508" s="1"/>
@@ -9832,7 +9282,6 @@
       <c r="L508" s="1"/>
       <c r="M508" s="1"/>
       <c r="N508" s="1"/>
-      <c r="O508" s="1"/>
     </row>
     <row r="509">
       <c r="A509" s="1"/>
@@ -9849,7 +9298,6 @@
       <c r="L509" s="1"/>
       <c r="M509" s="1"/>
       <c r="N509" s="1"/>
-      <c r="O509" s="1"/>
     </row>
     <row r="510">
       <c r="A510" s="1"/>
@@ -9866,7 +9314,6 @@
       <c r="L510" s="1"/>
       <c r="M510" s="1"/>
       <c r="N510" s="1"/>
-      <c r="O510" s="1"/>
     </row>
     <row r="511">
       <c r="A511" s="1"/>
@@ -9883,7 +9330,6 @@
       <c r="L511" s="1"/>
       <c r="M511" s="1"/>
       <c r="N511" s="1"/>
-      <c r="O511" s="1"/>
     </row>
     <row r="512">
       <c r="A512" s="1"/>
@@ -9900,7 +9346,6 @@
       <c r="L512" s="1"/>
       <c r="M512" s="1"/>
       <c r="N512" s="1"/>
-      <c r="O512" s="1"/>
     </row>
     <row r="513">
       <c r="A513" s="1"/>
@@ -9917,7 +9362,6 @@
       <c r="L513" s="1"/>
       <c r="M513" s="1"/>
       <c r="N513" s="1"/>
-      <c r="O513" s="1"/>
     </row>
     <row r="514">
       <c r="A514" s="1"/>
@@ -9934,7 +9378,6 @@
       <c r="L514" s="1"/>
       <c r="M514" s="1"/>
       <c r="N514" s="1"/>
-      <c r="O514" s="1"/>
     </row>
     <row r="515">
       <c r="A515" s="1"/>
@@ -9951,7 +9394,6 @@
       <c r="L515" s="1"/>
       <c r="M515" s="1"/>
       <c r="N515" s="1"/>
-      <c r="O515" s="1"/>
     </row>
     <row r="516">
       <c r="A516" s="1"/>
@@ -9968,7 +9410,6 @@
       <c r="L516" s="1"/>
       <c r="M516" s="1"/>
       <c r="N516" s="1"/>
-      <c r="O516" s="1"/>
     </row>
     <row r="517">
       <c r="A517" s="1"/>
@@ -9985,7 +9426,6 @@
       <c r="L517" s="1"/>
       <c r="M517" s="1"/>
       <c r="N517" s="1"/>
-      <c r="O517" s="1"/>
     </row>
     <row r="518">
       <c r="A518" s="1"/>
@@ -10002,7 +9442,6 @@
       <c r="L518" s="1"/>
       <c r="M518" s="1"/>
       <c r="N518" s="1"/>
-      <c r="O518" s="1"/>
     </row>
     <row r="519">
       <c r="A519" s="1"/>
@@ -10019,7 +9458,6 @@
       <c r="L519" s="1"/>
       <c r="M519" s="1"/>
       <c r="N519" s="1"/>
-      <c r="O519" s="1"/>
     </row>
     <row r="520">
       <c r="A520" s="1"/>
@@ -10036,7 +9474,6 @@
       <c r="L520" s="1"/>
       <c r="M520" s="1"/>
       <c r="N520" s="1"/>
-      <c r="O520" s="1"/>
     </row>
     <row r="521">
       <c r="A521" s="1"/>
@@ -10053,7 +9490,6 @@
       <c r="L521" s="1"/>
       <c r="M521" s="1"/>
       <c r="N521" s="1"/>
-      <c r="O521" s="1"/>
     </row>
     <row r="522">
       <c r="A522" s="1"/>
@@ -10070,7 +9506,6 @@
       <c r="L522" s="1"/>
       <c r="M522" s="1"/>
       <c r="N522" s="1"/>
-      <c r="O522" s="1"/>
     </row>
     <row r="523">
       <c r="A523" s="1"/>
@@ -10087,7 +9522,6 @@
       <c r="L523" s="1"/>
       <c r="M523" s="1"/>
       <c r="N523" s="1"/>
-      <c r="O523" s="1"/>
     </row>
     <row r="524">
       <c r="A524" s="1"/>
@@ -10104,7 +9538,6 @@
       <c r="L524" s="1"/>
       <c r="M524" s="1"/>
       <c r="N524" s="1"/>
-      <c r="O524" s="1"/>
     </row>
     <row r="525">
       <c r="A525" s="1"/>
@@ -10121,7 +9554,6 @@
       <c r="L525" s="1"/>
       <c r="M525" s="1"/>
       <c r="N525" s="1"/>
-      <c r="O525" s="1"/>
     </row>
     <row r="526">
       <c r="A526" s="1"/>
@@ -10138,7 +9570,6 @@
       <c r="L526" s="1"/>
       <c r="M526" s="1"/>
       <c r="N526" s="1"/>
-      <c r="O526" s="1"/>
     </row>
     <row r="527">
       <c r="A527" s="1"/>
@@ -10155,7 +9586,6 @@
       <c r="L527" s="1"/>
       <c r="M527" s="1"/>
       <c r="N527" s="1"/>
-      <c r="O527" s="1"/>
     </row>
     <row r="528">
       <c r="A528" s="1"/>
@@ -10172,7 +9602,6 @@
       <c r="L528" s="1"/>
       <c r="M528" s="1"/>
       <c r="N528" s="1"/>
-      <c r="O528" s="1"/>
     </row>
     <row r="529">
       <c r="A529" s="1"/>
@@ -10189,7 +9618,6 @@
       <c r="L529" s="1"/>
       <c r="M529" s="1"/>
       <c r="N529" s="1"/>
-      <c r="O529" s="1"/>
     </row>
     <row r="530">
       <c r="A530" s="1"/>
@@ -10206,7 +9634,6 @@
       <c r="L530" s="1"/>
       <c r="M530" s="1"/>
       <c r="N530" s="1"/>
-      <c r="O530" s="1"/>
     </row>
     <row r="531">
       <c r="A531" s="1"/>
@@ -10223,7 +9650,6 @@
       <c r="L531" s="1"/>
       <c r="M531" s="1"/>
       <c r="N531" s="1"/>
-      <c r="O531" s="1"/>
     </row>
     <row r="532">
       <c r="A532" s="1"/>
@@ -10240,7 +9666,6 @@
       <c r="L532" s="1"/>
       <c r="M532" s="1"/>
       <c r="N532" s="1"/>
-      <c r="O532" s="1"/>
     </row>
     <row r="533">
       <c r="A533" s="1"/>
@@ -10257,7 +9682,6 @@
       <c r="L533" s="1"/>
       <c r="M533" s="1"/>
       <c r="N533" s="1"/>
-      <c r="O533" s="1"/>
     </row>
     <row r="534">
       <c r="A534" s="1"/>
@@ -10274,7 +9698,6 @@
       <c r="L534" s="1"/>
       <c r="M534" s="1"/>
       <c r="N534" s="1"/>
-      <c r="O534" s="1"/>
     </row>
     <row r="535">
       <c r="A535" s="1"/>
@@ -10291,7 +9714,6 @@
       <c r="L535" s="1"/>
       <c r="M535" s="1"/>
       <c r="N535" s="1"/>
-      <c r="O535" s="1"/>
     </row>
     <row r="536">
       <c r="A536" s="1"/>
@@ -10308,7 +9730,6 @@
       <c r="L536" s="1"/>
       <c r="M536" s="1"/>
       <c r="N536" s="1"/>
-      <c r="O536" s="1"/>
     </row>
     <row r="537">
       <c r="A537" s="1"/>
@@ -10325,7 +9746,6 @@
       <c r="L537" s="1"/>
       <c r="M537" s="1"/>
       <c r="N537" s="1"/>
-      <c r="O537" s="1"/>
     </row>
     <row r="538">
       <c r="A538" s="1"/>
@@ -10342,7 +9762,6 @@
       <c r="L538" s="1"/>
       <c r="M538" s="1"/>
       <c r="N538" s="1"/>
-      <c r="O538" s="1"/>
     </row>
     <row r="539">
       <c r="A539" s="1"/>
@@ -10359,7 +9778,6 @@
       <c r="L539" s="1"/>
       <c r="M539" s="1"/>
       <c r="N539" s="1"/>
-      <c r="O539" s="1"/>
     </row>
     <row r="540">
       <c r="A540" s="1"/>
@@ -10376,7 +9794,6 @@
       <c r="L540" s="1"/>
       <c r="M540" s="1"/>
       <c r="N540" s="1"/>
-      <c r="O540" s="1"/>
     </row>
     <row r="541">
       <c r="A541" s="1"/>
@@ -10393,7 +9810,6 @@
       <c r="L541" s="1"/>
       <c r="M541" s="1"/>
       <c r="N541" s="1"/>
-      <c r="O541" s="1"/>
     </row>
     <row r="542">
       <c r="A542" s="1"/>
@@ -10410,7 +9826,6 @@
       <c r="L542" s="1"/>
       <c r="M542" s="1"/>
       <c r="N542" s="1"/>
-      <c r="O542" s="1"/>
     </row>
     <row r="543">
       <c r="A543" s="1"/>
@@ -10427,7 +9842,6 @@
       <c r="L543" s="1"/>
       <c r="M543" s="1"/>
       <c r="N543" s="1"/>
-      <c r="O543" s="1"/>
     </row>
     <row r="544">
       <c r="A544" s="1"/>
@@ -10444,7 +9858,6 @@
       <c r="L544" s="1"/>
       <c r="M544" s="1"/>
       <c r="N544" s="1"/>
-      <c r="O544" s="1"/>
     </row>
     <row r="545">
       <c r="A545" s="1"/>
@@ -10461,7 +9874,6 @@
       <c r="L545" s="1"/>
       <c r="M545" s="1"/>
       <c r="N545" s="1"/>
-      <c r="O545" s="1"/>
     </row>
     <row r="546">
       <c r="A546" s="1"/>
@@ -10478,7 +9890,6 @@
       <c r="L546" s="1"/>
       <c r="M546" s="1"/>
       <c r="N546" s="1"/>
-      <c r="O546" s="1"/>
     </row>
     <row r="547">
       <c r="A547" s="1"/>
@@ -10495,7 +9906,6 @@
       <c r="L547" s="1"/>
       <c r="M547" s="1"/>
       <c r="N547" s="1"/>
-      <c r="O547" s="1"/>
     </row>
     <row r="548">
       <c r="A548" s="1"/>
@@ -10512,7 +9922,6 @@
       <c r="L548" s="1"/>
       <c r="M548" s="1"/>
       <c r="N548" s="1"/>
-      <c r="O548" s="1"/>
     </row>
     <row r="549">
       <c r="A549" s="1"/>
@@ -10529,7 +9938,6 @@
       <c r="L549" s="1"/>
       <c r="M549" s="1"/>
       <c r="N549" s="1"/>
-      <c r="O549" s="1"/>
     </row>
     <row r="550">
       <c r="A550" s="1"/>
@@ -10546,7 +9954,6 @@
       <c r="L550" s="1"/>
       <c r="M550" s="1"/>
       <c r="N550" s="1"/>
-      <c r="O550" s="1"/>
     </row>
     <row r="551">
       <c r="A551" s="1"/>
@@ -10563,7 +9970,6 @@
       <c r="L551" s="1"/>
       <c r="M551" s="1"/>
       <c r="N551" s="1"/>
-      <c r="O551" s="1"/>
     </row>
     <row r="552">
       <c r="A552" s="1"/>
@@ -10580,7 +9986,6 @@
       <c r="L552" s="1"/>
       <c r="M552" s="1"/>
       <c r="N552" s="1"/>
-      <c r="O552" s="1"/>
     </row>
     <row r="553">
       <c r="A553" s="1"/>
@@ -10597,7 +10002,6 @@
       <c r="L553" s="1"/>
       <c r="M553" s="1"/>
       <c r="N553" s="1"/>
-      <c r="O553" s="1"/>
     </row>
     <row r="554">
       <c r="A554" s="1"/>
@@ -10614,7 +10018,6 @@
       <c r="L554" s="1"/>
       <c r="M554" s="1"/>
       <c r="N554" s="1"/>
-      <c r="O554" s="1"/>
     </row>
     <row r="555">
       <c r="A555" s="1"/>
@@ -10631,7 +10034,6 @@
       <c r="L555" s="1"/>
       <c r="M555" s="1"/>
       <c r="N555" s="1"/>
-      <c r="O555" s="1"/>
     </row>
     <row r="556">
       <c r="A556" s="1"/>
@@ -10648,7 +10050,6 @@
       <c r="L556" s="1"/>
       <c r="M556" s="1"/>
       <c r="N556" s="1"/>
-      <c r="O556" s="1"/>
     </row>
     <row r="557">
       <c r="A557" s="1"/>
@@ -10665,7 +10066,6 @@
       <c r="L557" s="1"/>
       <c r="M557" s="1"/>
       <c r="N557" s="1"/>
-      <c r="O557" s="1"/>
     </row>
     <row r="558">
       <c r="A558" s="1"/>
@@ -10682,7 +10082,6 @@
       <c r="L558" s="1"/>
       <c r="M558" s="1"/>
       <c r="N558" s="1"/>
-      <c r="O558" s="1"/>
     </row>
     <row r="559">
       <c r="A559" s="1"/>
@@ -10699,7 +10098,6 @@
       <c r="L559" s="1"/>
       <c r="M559" s="1"/>
       <c r="N559" s="1"/>
-      <c r="O559" s="1"/>
     </row>
     <row r="560">
       <c r="A560" s="1"/>
@@ -10716,7 +10114,6 @@
       <c r="L560" s="1"/>
       <c r="M560" s="1"/>
       <c r="N560" s="1"/>
-      <c r="O560" s="1"/>
     </row>
     <row r="561">
       <c r="A561" s="1"/>
@@ -10733,7 +10130,6 @@
       <c r="L561" s="1"/>
       <c r="M561" s="1"/>
       <c r="N561" s="1"/>
-      <c r="O561" s="1"/>
     </row>
     <row r="562">
       <c r="A562" s="1"/>
@@ -10750,7 +10146,6 @@
       <c r="L562" s="1"/>
       <c r="M562" s="1"/>
       <c r="N562" s="1"/>
-      <c r="O562" s="1"/>
     </row>
     <row r="563">
       <c r="A563" s="1"/>
@@ -10767,7 +10162,6 @@
       <c r="L563" s="1"/>
       <c r="M563" s="1"/>
       <c r="N563" s="1"/>
-      <c r="O563" s="1"/>
     </row>
     <row r="564">
       <c r="A564" s="1"/>
@@ -10784,7 +10178,6 @@
       <c r="L564" s="1"/>
       <c r="M564" s="1"/>
       <c r="N564" s="1"/>
-      <c r="O564" s="1"/>
     </row>
     <row r="565">
       <c r="A565" s="1"/>
@@ -10801,7 +10194,6 @@
       <c r="L565" s="1"/>
       <c r="M565" s="1"/>
       <c r="N565" s="1"/>
-      <c r="O565" s="1"/>
     </row>
     <row r="566">
       <c r="A566" s="1"/>
@@ -10818,7 +10210,6 @@
       <c r="L566" s="1"/>
       <c r="M566" s="1"/>
       <c r="N566" s="1"/>
-      <c r="O566" s="1"/>
     </row>
     <row r="567">
       <c r="A567" s="1"/>
@@ -10835,7 +10226,6 @@
       <c r="L567" s="1"/>
       <c r="M567" s="1"/>
       <c r="N567" s="1"/>
-      <c r="O567" s="1"/>
     </row>
     <row r="568">
       <c r="A568" s="1"/>
@@ -10852,7 +10242,6 @@
       <c r="L568" s="1"/>
       <c r="M568" s="1"/>
       <c r="N568" s="1"/>
-      <c r="O568" s="1"/>
     </row>
     <row r="569">
       <c r="A569" s="1"/>
@@ -10869,7 +10258,6 @@
       <c r="L569" s="1"/>
       <c r="M569" s="1"/>
       <c r="N569" s="1"/>
-      <c r="O569" s="1"/>
     </row>
     <row r="570">
       <c r="A570" s="1"/>
@@ -10886,7 +10274,6 @@
       <c r="L570" s="1"/>
       <c r="M570" s="1"/>
       <c r="N570" s="1"/>
-      <c r="O570" s="1"/>
     </row>
     <row r="571">
       <c r="A571" s="1"/>
@@ -10903,7 +10290,6 @@
       <c r="L571" s="1"/>
       <c r="M571" s="1"/>
       <c r="N571" s="1"/>
-      <c r="O571" s="1"/>
     </row>
     <row r="572">
       <c r="A572" s="1"/>
@@ -10920,7 +10306,6 @@
       <c r="L572" s="1"/>
       <c r="M572" s="1"/>
       <c r="N572" s="1"/>
-      <c r="O572" s="1"/>
     </row>
     <row r="573">
       <c r="A573" s="1"/>
@@ -10937,7 +10322,6 @@
       <c r="L573" s="1"/>
       <c r="M573" s="1"/>
       <c r="N573" s="1"/>
-      <c r="O573" s="1"/>
     </row>
     <row r="574">
       <c r="A574" s="1"/>
@@ -10954,7 +10338,6 @@
       <c r="L574" s="1"/>
       <c r="M574" s="1"/>
       <c r="N574" s="1"/>
-      <c r="O574" s="1"/>
     </row>
     <row r="575">
       <c r="A575" s="1"/>
@@ -10971,7 +10354,6 @@
       <c r="L575" s="1"/>
       <c r="M575" s="1"/>
       <c r="N575" s="1"/>
-      <c r="O575" s="1"/>
     </row>
     <row r="576">
       <c r="A576" s="1"/>
@@ -10988,7 +10370,6 @@
       <c r="L576" s="1"/>
       <c r="M576" s="1"/>
       <c r="N576" s="1"/>
-      <c r="O576" s="1"/>
     </row>
     <row r="577">
       <c r="A577" s="1"/>
@@ -11005,7 +10386,6 @@
       <c r="L577" s="1"/>
       <c r="M577" s="1"/>
       <c r="N577" s="1"/>
-      <c r="O577" s="1"/>
     </row>
     <row r="578">
       <c r="A578" s="1"/>
@@ -11022,7 +10402,6 @@
       <c r="L578" s="1"/>
       <c r="M578" s="1"/>
       <c r="N578" s="1"/>
-      <c r="O578" s="1"/>
     </row>
     <row r="579">
       <c r="A579" s="1"/>
@@ -11039,7 +10418,6 @@
       <c r="L579" s="1"/>
       <c r="M579" s="1"/>
       <c r="N579" s="1"/>
-      <c r="O579" s="1"/>
     </row>
     <row r="580">
       <c r="A580" s="1"/>
@@ -11056,7 +10434,6 @@
       <c r="L580" s="1"/>
       <c r="M580" s="1"/>
       <c r="N580" s="1"/>
-      <c r="O580" s="1"/>
     </row>
     <row r="581">
       <c r="A581" s="1"/>
@@ -11073,7 +10450,6 @@
       <c r="L581" s="1"/>
       <c r="M581" s="1"/>
       <c r="N581" s="1"/>
-      <c r="O581" s="1"/>
     </row>
     <row r="582">
       <c r="A582" s="1"/>
@@ -11090,7 +10466,6 @@
       <c r="L582" s="1"/>
       <c r="M582" s="1"/>
       <c r="N582" s="1"/>
-      <c r="O582" s="1"/>
     </row>
     <row r="583">
       <c r="A583" s="1"/>
@@ -11107,7 +10482,6 @@
       <c r="L583" s="1"/>
       <c r="M583" s="1"/>
       <c r="N583" s="1"/>
-      <c r="O583" s="1"/>
     </row>
     <row r="584">
       <c r="A584" s="1"/>
@@ -11124,7 +10498,6 @@
       <c r="L584" s="1"/>
       <c r="M584" s="1"/>
       <c r="N584" s="1"/>
-      <c r="O584" s="1"/>
     </row>
     <row r="585">
       <c r="A585" s="1"/>
@@ -11141,7 +10514,6 @@
       <c r="L585" s="1"/>
       <c r="M585" s="1"/>
       <c r="N585" s="1"/>
-      <c r="O585" s="1"/>
     </row>
     <row r="586">
       <c r="A586" s="1"/>
@@ -11158,7 +10530,6 @@
       <c r="L586" s="1"/>
       <c r="M586" s="1"/>
       <c r="N586" s="1"/>
-      <c r="O586" s="1"/>
     </row>
     <row r="587">
       <c r="A587" s="1"/>
@@ -11175,7 +10546,6 @@
       <c r="L587" s="1"/>
       <c r="M587" s="1"/>
       <c r="N587" s="1"/>
-      <c r="O587" s="1"/>
     </row>
     <row r="588">
       <c r="A588" s="1"/>
@@ -11192,7 +10562,6 @@
       <c r="L588" s="1"/>
       <c r="M588" s="1"/>
       <c r="N588" s="1"/>
-      <c r="O588" s="1"/>
     </row>
     <row r="589">
       <c r="A589" s="1"/>
@@ -11209,7 +10578,6 @@
       <c r="L589" s="1"/>
       <c r="M589" s="1"/>
       <c r="N589" s="1"/>
-      <c r="O589" s="1"/>
     </row>
     <row r="590">
       <c r="A590" s="1"/>
@@ -11226,7 +10594,6 @@
       <c r="L590" s="1"/>
       <c r="M590" s="1"/>
       <c r="N590" s="1"/>
-      <c r="O590" s="1"/>
     </row>
     <row r="591">
       <c r="A591" s="1"/>
@@ -11243,7 +10610,6 @@
       <c r="L591" s="1"/>
       <c r="M591" s="1"/>
       <c r="N591" s="1"/>
-      <c r="O591" s="1"/>
     </row>
     <row r="592">
       <c r="A592" s="1"/>
@@ -11260,7 +10626,6 @@
       <c r="L592" s="1"/>
       <c r="M592" s="1"/>
       <c r="N592" s="1"/>
-      <c r="O592" s="1"/>
     </row>
     <row r="593">
       <c r="A593" s="1"/>
@@ -11277,7 +10642,6 @@
       <c r="L593" s="1"/>
       <c r="M593" s="1"/>
       <c r="N593" s="1"/>
-      <c r="O593" s="1"/>
     </row>
     <row r="594">
       <c r="A594" s="1"/>
@@ -11294,7 +10658,6 @@
       <c r="L594" s="1"/>
       <c r="M594" s="1"/>
       <c r="N594" s="1"/>
-      <c r="O594" s="1"/>
     </row>
     <row r="595">
       <c r="A595" s="1"/>
@@ -11311,7 +10674,6 @@
       <c r="L595" s="1"/>
       <c r="M595" s="1"/>
       <c r="N595" s="1"/>
-      <c r="O595" s="1"/>
     </row>
     <row r="596">
       <c r="A596" s="1"/>
@@ -11328,7 +10690,6 @@
       <c r="L596" s="1"/>
       <c r="M596" s="1"/>
       <c r="N596" s="1"/>
-      <c r="O596" s="1"/>
     </row>
     <row r="597">
       <c r="A597" s="1"/>
@@ -11345,7 +10706,6 @@
       <c r="L597" s="1"/>
       <c r="M597" s="1"/>
       <c r="N597" s="1"/>
-      <c r="O597" s="1"/>
     </row>
     <row r="598">
       <c r="A598" s="1"/>
@@ -11362,7 +10722,6 @@
       <c r="L598" s="1"/>
       <c r="M598" s="1"/>
       <c r="N598" s="1"/>
-      <c r="O598" s="1"/>
     </row>
     <row r="599">
       <c r="A599" s="1"/>
@@ -11379,7 +10738,6 @@
       <c r="L599" s="1"/>
       <c r="M599" s="1"/>
       <c r="N599" s="1"/>
-      <c r="O599" s="1"/>
     </row>
     <row r="600">
       <c r="A600" s="1"/>
@@ -11396,7 +10754,6 @@
       <c r="L600" s="1"/>
       <c r="M600" s="1"/>
       <c r="N600" s="1"/>
-      <c r="O600" s="1"/>
     </row>
     <row r="601">
       <c r="A601" s="1"/>
@@ -11413,7 +10770,6 @@
       <c r="L601" s="1"/>
       <c r="M601" s="1"/>
       <c r="N601" s="1"/>
-      <c r="O601" s="1"/>
     </row>
     <row r="602">
       <c r="A602" s="1"/>
@@ -11430,7 +10786,6 @@
       <c r="L602" s="1"/>
       <c r="M602" s="1"/>
       <c r="N602" s="1"/>
-      <c r="O602" s="1"/>
     </row>
     <row r="603">
       <c r="A603" s="1"/>
@@ -11447,7 +10802,6 @@
       <c r="L603" s="1"/>
       <c r="M603" s="1"/>
       <c r="N603" s="1"/>
-      <c r="O603" s="1"/>
     </row>
     <row r="604">
       <c r="A604" s="1"/>
@@ -11464,7 +10818,6 @@
       <c r="L604" s="1"/>
       <c r="M604" s="1"/>
       <c r="N604" s="1"/>
-      <c r="O604" s="1"/>
     </row>
     <row r="605">
       <c r="A605" s="1"/>
@@ -11481,7 +10834,6 @@
       <c r="L605" s="1"/>
       <c r="M605" s="1"/>
       <c r="N605" s="1"/>
-      <c r="O605" s="1"/>
     </row>
     <row r="606">
       <c r="A606" s="1"/>
@@ -11498,7 +10850,6 @@
       <c r="L606" s="1"/>
       <c r="M606" s="1"/>
       <c r="N606" s="1"/>
-      <c r="O606" s="1"/>
     </row>
     <row r="607">
       <c r="A607" s="1"/>
@@ -11515,7 +10866,6 @@
       <c r="L607" s="1"/>
       <c r="M607" s="1"/>
       <c r="N607" s="1"/>
-      <c r="O607" s="1"/>
     </row>
     <row r="608">
       <c r="A608" s="1"/>
@@ -11532,7 +10882,6 @@
       <c r="L608" s="1"/>
       <c r="M608" s="1"/>
       <c r="N608" s="1"/>
-      <c r="O608" s="1"/>
     </row>
     <row r="609">
       <c r="A609" s="1"/>
@@ -11549,7 +10898,6 @@
       <c r="L609" s="1"/>
       <c r="M609" s="1"/>
       <c r="N609" s="1"/>
-      <c r="O609" s="1"/>
     </row>
     <row r="610">
       <c r="A610" s="1"/>
@@ -11566,7 +10914,6 @@
       <c r="L610" s="1"/>
       <c r="M610" s="1"/>
       <c r="N610" s="1"/>
-      <c r="O610" s="1"/>
     </row>
     <row r="611">
       <c r="A611" s="1"/>
@@ -11583,7 +10930,6 @@
       <c r="L611" s="1"/>
       <c r="M611" s="1"/>
       <c r="N611" s="1"/>
-      <c r="O611" s="1"/>
     </row>
     <row r="612">
       <c r="A612" s="1"/>
@@ -11600,7 +10946,6 @@
       <c r="L612" s="1"/>
       <c r="M612" s="1"/>
       <c r="N612" s="1"/>
-      <c r="O612" s="1"/>
     </row>
     <row r="613">
       <c r="A613" s="1"/>
@@ -11617,7 +10962,6 @@
       <c r="L613" s="1"/>
       <c r="M613" s="1"/>
       <c r="N613" s="1"/>
-      <c r="O613" s="1"/>
     </row>
     <row r="614">
       <c r="A614" s="1"/>
@@ -11634,7 +10978,6 @@
       <c r="L614" s="1"/>
       <c r="M614" s="1"/>
       <c r="N614" s="1"/>
-      <c r="O614" s="1"/>
     </row>
     <row r="615">
       <c r="A615" s="1"/>
@@ -11651,7 +10994,6 @@
       <c r="L615" s="1"/>
       <c r="M615" s="1"/>
       <c r="N615" s="1"/>
-      <c r="O615" s="1"/>
     </row>
     <row r="616">
       <c r="A616" s="1"/>
@@ -11668,7 +11010,6 @@
       <c r="L616" s="1"/>
       <c r="M616" s="1"/>
       <c r="N616" s="1"/>
-      <c r="O616" s="1"/>
     </row>
     <row r="617">
       <c r="A617" s="1"/>
@@ -11685,7 +11026,6 @@
       <c r="L617" s="1"/>
       <c r="M617" s="1"/>
       <c r="N617" s="1"/>
-      <c r="O617" s="1"/>
     </row>
     <row r="618">
       <c r="A618" s="1"/>
@@ -11702,7 +11042,6 @@
       <c r="L618" s="1"/>
       <c r="M618" s="1"/>
       <c r="N618" s="1"/>
-      <c r="O618" s="1"/>
     </row>
     <row r="619">
       <c r="A619" s="1"/>
@@ -11719,7 +11058,6 @@
       <c r="L619" s="1"/>
       <c r="M619" s="1"/>
       <c r="N619" s="1"/>
-      <c r="O619" s="1"/>
     </row>
     <row r="620">
       <c r="A620" s="1"/>
@@ -11736,7 +11074,6 @@
       <c r="L620" s="1"/>
       <c r="M620" s="1"/>
       <c r="N620" s="1"/>
-      <c r="O620" s="1"/>
     </row>
     <row r="621">
       <c r="A621" s="1"/>
@@ -11753,7 +11090,6 @@
       <c r="L621" s="1"/>
       <c r="M621" s="1"/>
       <c r="N621" s="1"/>
-      <c r="O621" s="1"/>
     </row>
     <row r="622">
       <c r="A622" s="1"/>
@@ -11770,7 +11106,6 @@
       <c r="L622" s="1"/>
       <c r="M622" s="1"/>
       <c r="N622" s="1"/>
-      <c r="O622" s="1"/>
     </row>
     <row r="623">
       <c r="A623" s="1"/>
@@ -11787,7 +11122,6 @@
       <c r="L623" s="1"/>
       <c r="M623" s="1"/>
       <c r="N623" s="1"/>
-      <c r="O623" s="1"/>
     </row>
     <row r="624">
       <c r="A624" s="1"/>
@@ -11804,7 +11138,6 @@
       <c r="L624" s="1"/>
       <c r="M624" s="1"/>
       <c r="N624" s="1"/>
-      <c r="O624" s="1"/>
     </row>
     <row r="625">
       <c r="A625" s="1"/>
@@ -11821,7 +11154,6 @@
       <c r="L625" s="1"/>
       <c r="M625" s="1"/>
       <c r="N625" s="1"/>
-      <c r="O625" s="1"/>
     </row>
     <row r="626">
       <c r="A626" s="1"/>
@@ -11838,7 +11170,6 @@
       <c r="L626" s="1"/>
       <c r="M626" s="1"/>
       <c r="N626" s="1"/>
-      <c r="O626" s="1"/>
     </row>
     <row r="627">
       <c r="A627" s="1"/>
@@ -11855,7 +11186,6 @@
       <c r="L627" s="1"/>
       <c r="M627" s="1"/>
       <c r="N627" s="1"/>
-      <c r="O627" s="1"/>
     </row>
     <row r="628">
       <c r="A628" s="1"/>
@@ -11872,7 +11202,6 @@
       <c r="L628" s="1"/>
       <c r="M628" s="1"/>
       <c r="N628" s="1"/>
-      <c r="O628" s="1"/>
     </row>
     <row r="629">
       <c r="A629" s="1"/>
@@ -11889,7 +11218,6 @@
       <c r="L629" s="1"/>
       <c r="M629" s="1"/>
       <c r="N629" s="1"/>
-      <c r="O629" s="1"/>
     </row>
     <row r="630">
       <c r="A630" s="1"/>
@@ -11906,7 +11234,6 @@
       <c r="L630" s="1"/>
       <c r="M630" s="1"/>
       <c r="N630" s="1"/>
-      <c r="O630" s="1"/>
     </row>
     <row r="631">
       <c r="A631" s="1"/>
@@ -11923,7 +11250,6 @@
       <c r="L631" s="1"/>
       <c r="M631" s="1"/>
       <c r="N631" s="1"/>
-      <c r="O631" s="1"/>
     </row>
     <row r="632">
       <c r="A632" s="1"/>
@@ -11940,7 +11266,6 @@
       <c r="L632" s="1"/>
       <c r="M632" s="1"/>
       <c r="N632" s="1"/>
-      <c r="O632" s="1"/>
     </row>
     <row r="633">
       <c r="A633" s="1"/>
@@ -11957,7 +11282,6 @@
       <c r="L633" s="1"/>
       <c r="M633" s="1"/>
       <c r="N633" s="1"/>
-      <c r="O633" s="1"/>
     </row>
     <row r="634">
       <c r="A634" s="1"/>
@@ -11974,7 +11298,6 @@
       <c r="L634" s="1"/>
       <c r="M634" s="1"/>
       <c r="N634" s="1"/>
-      <c r="O634" s="1"/>
     </row>
     <row r="635">
       <c r="A635" s="1"/>
@@ -11991,7 +11314,6 @@
       <c r="L635" s="1"/>
       <c r="M635" s="1"/>
       <c r="N635" s="1"/>
-      <c r="O635" s="1"/>
     </row>
     <row r="636">
       <c r="A636" s="1"/>
@@ -12008,7 +11330,6 @@
       <c r="L636" s="1"/>
       <c r="M636" s="1"/>
       <c r="N636" s="1"/>
-      <c r="O636" s="1"/>
     </row>
     <row r="637">
       <c r="A637" s="1"/>
@@ -12025,7 +11346,6 @@
       <c r="L637" s="1"/>
       <c r="M637" s="1"/>
       <c r="N637" s="1"/>
-      <c r="O637" s="1"/>
     </row>
     <row r="638">
       <c r="A638" s="1"/>
@@ -12042,7 +11362,6 @@
       <c r="L638" s="1"/>
       <c r="M638" s="1"/>
       <c r="N638" s="1"/>
-      <c r="O638" s="1"/>
     </row>
     <row r="639">
       <c r="A639" s="1"/>
@@ -12059,7 +11378,6 @@
       <c r="L639" s="1"/>
       <c r="M639" s="1"/>
       <c r="N639" s="1"/>
-      <c r="O639" s="1"/>
     </row>
     <row r="640">
       <c r="A640" s="1"/>
@@ -12076,7 +11394,6 @@
       <c r="L640" s="1"/>
       <c r="M640" s="1"/>
       <c r="N640" s="1"/>
-      <c r="O640" s="1"/>
     </row>
     <row r="641">
       <c r="A641" s="1"/>
@@ -12093,7 +11410,6 @@
       <c r="L641" s="1"/>
       <c r="M641" s="1"/>
       <c r="N641" s="1"/>
-      <c r="O641" s="1"/>
     </row>
     <row r="642">
       <c r="A642" s="1"/>
@@ -12110,7 +11426,6 @@
       <c r="L642" s="1"/>
       <c r="M642" s="1"/>
       <c r="N642" s="1"/>
-      <c r="O642" s="1"/>
     </row>
     <row r="643">
       <c r="A643" s="1"/>
@@ -12127,7 +11442,6 @@
       <c r="L643" s="1"/>
       <c r="M643" s="1"/>
       <c r="N643" s="1"/>
-      <c r="O643" s="1"/>
     </row>
     <row r="644">
       <c r="A644" s="1"/>
@@ -12144,7 +11458,6 @@
       <c r="L644" s="1"/>
       <c r="M644" s="1"/>
       <c r="N644" s="1"/>
-      <c r="O644" s="1"/>
     </row>
     <row r="645">
       <c r="A645" s="1"/>
@@ -12161,7 +11474,6 @@
       <c r="L645" s="1"/>
       <c r="M645" s="1"/>
       <c r="N645" s="1"/>
-      <c r="O645" s="1"/>
     </row>
     <row r="646">
       <c r="A646" s="1"/>
@@ -12178,7 +11490,6 @@
       <c r="L646" s="1"/>
       <c r="M646" s="1"/>
       <c r="N646" s="1"/>
-      <c r="O646" s="1"/>
     </row>
     <row r="647">
       <c r="A647" s="1"/>
@@ -12195,7 +11506,6 @@
       <c r="L647" s="1"/>
       <c r="M647" s="1"/>
       <c r="N647" s="1"/>
-      <c r="O647" s="1"/>
     </row>
     <row r="648">
       <c r="A648" s="1"/>
@@ -12212,7 +11522,6 @@
       <c r="L648" s="1"/>
       <c r="M648" s="1"/>
       <c r="N648" s="1"/>
-      <c r="O648" s="1"/>
     </row>
     <row r="649">
       <c r="A649" s="1"/>
@@ -12229,7 +11538,6 @@
       <c r="L649" s="1"/>
       <c r="M649" s="1"/>
       <c r="N649" s="1"/>
-      <c r="O649" s="1"/>
     </row>
     <row r="650">
       <c r="A650" s="1"/>
@@ -12246,7 +11554,6 @@
       <c r="L650" s="1"/>
       <c r="M650" s="1"/>
       <c r="N650" s="1"/>
-      <c r="O650" s="1"/>
     </row>
     <row r="651">
       <c r="A651" s="1"/>
@@ -12263,7 +11570,6 @@
       <c r="L651" s="1"/>
       <c r="M651" s="1"/>
       <c r="N651" s="1"/>
-      <c r="O651" s="1"/>
     </row>
     <row r="652">
       <c r="A652" s="1"/>
@@ -12280,7 +11586,6 @@
       <c r="L652" s="1"/>
       <c r="M652" s="1"/>
       <c r="N652" s="1"/>
-      <c r="O652" s="1"/>
     </row>
     <row r="653">
       <c r="A653" s="1"/>
@@ -12297,7 +11602,6 @@
       <c r="L653" s="1"/>
       <c r="M653" s="1"/>
       <c r="N653" s="1"/>
-      <c r="O653" s="1"/>
     </row>
     <row r="654">
       <c r="A654" s="1"/>
@@ -12314,7 +11618,6 @@
       <c r="L654" s="1"/>
       <c r="M654" s="1"/>
       <c r="N654" s="1"/>
-      <c r="O654" s="1"/>
     </row>
     <row r="655">
       <c r="A655" s="1"/>
@@ -12331,7 +11634,6 @@
       <c r="L655" s="1"/>
       <c r="M655" s="1"/>
       <c r="N655" s="1"/>
-      <c r="O655" s="1"/>
     </row>
     <row r="656">
       <c r="A656" s="1"/>
@@ -12348,7 +11650,6 @@
       <c r="L656" s="1"/>
       <c r="M656" s="1"/>
       <c r="N656" s="1"/>
-      <c r="O656" s="1"/>
     </row>
     <row r="657">
       <c r="A657" s="1"/>
@@ -12365,7 +11666,6 @@
       <c r="L657" s="1"/>
       <c r="M657" s="1"/>
       <c r="N657" s="1"/>
-      <c r="O657" s="1"/>
     </row>
     <row r="658">
       <c r="A658" s="1"/>
@@ -12382,7 +11682,6 @@
       <c r="L658" s="1"/>
       <c r="M658" s="1"/>
       <c r="N658" s="1"/>
-      <c r="O658" s="1"/>
     </row>
     <row r="659">
       <c r="A659" s="1"/>
@@ -12399,7 +11698,6 @@
       <c r="L659" s="1"/>
       <c r="M659" s="1"/>
       <c r="N659" s="1"/>
-      <c r="O659" s="1"/>
     </row>
     <row r="660">
       <c r="A660" s="1"/>
@@ -12416,7 +11714,6 @@
       <c r="L660" s="1"/>
       <c r="M660" s="1"/>
       <c r="N660" s="1"/>
-      <c r="O660" s="1"/>
     </row>
     <row r="661">
       <c r="A661" s="1"/>
@@ -12433,7 +11730,6 @@
       <c r="L661" s="1"/>
       <c r="M661" s="1"/>
       <c r="N661" s="1"/>
-      <c r="O661" s="1"/>
     </row>
     <row r="662">
       <c r="A662" s="1"/>
@@ -12450,7 +11746,6 @@
       <c r="L662" s="1"/>
       <c r="M662" s="1"/>
       <c r="N662" s="1"/>
-      <c r="O662" s="1"/>
     </row>
     <row r="663">
       <c r="A663" s="1"/>
@@ -12467,7 +11762,6 @@
       <c r="L663" s="1"/>
       <c r="M663" s="1"/>
       <c r="N663" s="1"/>
-      <c r="O663" s="1"/>
     </row>
     <row r="664">
       <c r="A664" s="1"/>
@@ -12484,7 +11778,6 @@
       <c r="L664" s="1"/>
       <c r="M664" s="1"/>
       <c r="N664" s="1"/>
-      <c r="O664" s="1"/>
     </row>
     <row r="665">
       <c r="A665" s="1"/>
@@ -12501,7 +11794,6 @@
       <c r="L665" s="1"/>
       <c r="M665" s="1"/>
       <c r="N665" s="1"/>
-      <c r="O665" s="1"/>
     </row>
     <row r="666">
       <c r="A666" s="1"/>
@@ -12518,7 +11810,6 @@
       <c r="L666" s="1"/>
       <c r="M666" s="1"/>
       <c r="N666" s="1"/>
-      <c r="O666" s="1"/>
     </row>
     <row r="667">
       <c r="A667" s="1"/>
@@ -12535,7 +11826,6 @@
       <c r="L667" s="1"/>
       <c r="M667" s="1"/>
       <c r="N667" s="1"/>
-      <c r="O667" s="1"/>
     </row>
     <row r="668">
       <c r="A668" s="1"/>
@@ -12552,7 +11842,6 @@
       <c r="L668" s="1"/>
       <c r="M668" s="1"/>
       <c r="N668" s="1"/>
-      <c r="O668" s="1"/>
     </row>
     <row r="669">
       <c r="A669" s="1"/>
@@ -12569,7 +11858,6 @@
       <c r="L669" s="1"/>
       <c r="M669" s="1"/>
       <c r="N669" s="1"/>
-      <c r="O669" s="1"/>
     </row>
     <row r="670">
       <c r="A670" s="1"/>
@@ -12586,7 +11874,6 @@
       <c r="L670" s="1"/>
       <c r="M670" s="1"/>
       <c r="N670" s="1"/>
-      <c r="O670" s="1"/>
     </row>
     <row r="671">
       <c r="A671" s="1"/>
@@ -12603,7 +11890,6 @@
       <c r="L671" s="1"/>
       <c r="M671" s="1"/>
       <c r="N671" s="1"/>
-      <c r="O671" s="1"/>
     </row>
     <row r="672">
       <c r="A672" s="1"/>
@@ -12620,7 +11906,6 @@
       <c r="L672" s="1"/>
       <c r="M672" s="1"/>
       <c r="N672" s="1"/>
-      <c r="O672" s="1"/>
     </row>
     <row r="673">
       <c r="A673" s="1"/>
@@ -12637,7 +11922,6 @@
       <c r="L673" s="1"/>
       <c r="M673" s="1"/>
       <c r="N673" s="1"/>
-      <c r="O673" s="1"/>
     </row>
     <row r="674">
       <c r="A674" s="1"/>
@@ -12654,7 +11938,6 @@
       <c r="L674" s="1"/>
       <c r="M674" s="1"/>
       <c r="N674" s="1"/>
-      <c r="O674" s="1"/>
     </row>
     <row r="675">
       <c r="A675" s="1"/>
@@ -12671,7 +11954,6 @@
       <c r="L675" s="1"/>
       <c r="M675" s="1"/>
       <c r="N675" s="1"/>
-      <c r="O675" s="1"/>
     </row>
     <row r="676">
       <c r="A676" s="1"/>
@@ -12688,7 +11970,6 @@
       <c r="L676" s="1"/>
       <c r="M676" s="1"/>
       <c r="N676" s="1"/>
-      <c r="O676" s="1"/>
     </row>
     <row r="677">
       <c r="A677" s="1"/>
@@ -12705,7 +11986,6 @@
       <c r="L677" s="1"/>
       <c r="M677" s="1"/>
       <c r="N677" s="1"/>
-      <c r="O677" s="1"/>
     </row>
     <row r="678">
       <c r="A678" s="1"/>
@@ -12722,7 +12002,6 @@
       <c r="L678" s="1"/>
       <c r="M678" s="1"/>
       <c r="N678" s="1"/>
-      <c r="O678" s="1"/>
     </row>
     <row r="679">
       <c r="A679" s="1"/>
@@ -12739,7 +12018,6 @@
       <c r="L679" s="1"/>
       <c r="M679" s="1"/>
       <c r="N679" s="1"/>
-      <c r="O679" s="1"/>
     </row>
     <row r="680">
       <c r="A680" s="1"/>
@@ -12756,7 +12034,6 @@
       <c r="L680" s="1"/>
       <c r="M680" s="1"/>
       <c r="N680" s="1"/>
-      <c r="O680" s="1"/>
     </row>
     <row r="681">
       <c r="A681" s="1"/>
@@ -12773,7 +12050,6 @@
       <c r="L681" s="1"/>
       <c r="M681" s="1"/>
       <c r="N681" s="1"/>
-      <c r="O681" s="1"/>
     </row>
     <row r="682">
       <c r="A682" s="1"/>
@@ -12790,7 +12066,6 @@
       <c r="L682" s="1"/>
       <c r="M682" s="1"/>
       <c r="N682" s="1"/>
-      <c r="O682" s="1"/>
     </row>
     <row r="683">
       <c r="A683" s="1"/>
@@ -12807,7 +12082,6 @@
       <c r="L683" s="1"/>
       <c r="M683" s="1"/>
       <c r="N683" s="1"/>
-      <c r="O683" s="1"/>
     </row>
     <row r="684">
       <c r="A684" s="1"/>
@@ -12824,7 +12098,6 @@
       <c r="L684" s="1"/>
       <c r="M684" s="1"/>
       <c r="N684" s="1"/>
-      <c r="O684" s="1"/>
     </row>
     <row r="685">
       <c r="A685" s="1"/>
@@ -12841,7 +12114,6 @@
       <c r="L685" s="1"/>
       <c r="M685" s="1"/>
       <c r="N685" s="1"/>
-      <c r="O685" s="1"/>
     </row>
     <row r="686">
       <c r="A686" s="1"/>
@@ -12858,7 +12130,6 @@
       <c r="L686" s="1"/>
       <c r="M686" s="1"/>
       <c r="N686" s="1"/>
-      <c r="O686" s="1"/>
     </row>
     <row r="687">
       <c r="A687" s="1"/>
@@ -12875,7 +12146,6 @@
       <c r="L687" s="1"/>
       <c r="M687" s="1"/>
       <c r="N687" s="1"/>
-      <c r="O687" s="1"/>
     </row>
     <row r="688">
       <c r="A688" s="1"/>
@@ -12892,7 +12162,6 @@
       <c r="L688" s="1"/>
       <c r="M688" s="1"/>
       <c r="N688" s="1"/>
-      <c r="O688" s="1"/>
     </row>
     <row r="689">
       <c r="A689" s="1"/>
@@ -12909,7 +12178,6 @@
       <c r="L689" s="1"/>
       <c r="M689" s="1"/>
       <c r="N689" s="1"/>
-      <c r="O689" s="1"/>
     </row>
     <row r="690">
       <c r="A690" s="1"/>
@@ -12926,7 +12194,6 @@
       <c r="L690" s="1"/>
       <c r="M690" s="1"/>
       <c r="N690" s="1"/>
-      <c r="O690" s="1"/>
     </row>
     <row r="691">
       <c r="A691" s="1"/>
@@ -12943,7 +12210,6 @@
       <c r="L691" s="1"/>
       <c r="M691" s="1"/>
       <c r="N691" s="1"/>
-      <c r="O691" s="1"/>
     </row>
     <row r="692">
       <c r="A692" s="1"/>
@@ -12960,7 +12226,6 @@
       <c r="L692" s="1"/>
       <c r="M692" s="1"/>
       <c r="N692" s="1"/>
-      <c r="O692" s="1"/>
     </row>
     <row r="693">
       <c r="A693" s="1"/>
@@ -12977,7 +12242,6 @@
       <c r="L693" s="1"/>
       <c r="M693" s="1"/>
       <c r="N693" s="1"/>
-      <c r="O693" s="1"/>
     </row>
     <row r="694">
       <c r="A694" s="1"/>
@@ -12994,7 +12258,6 @@
       <c r="L694" s="1"/>
       <c r="M694" s="1"/>
       <c r="N694" s="1"/>
-      <c r="O694" s="1"/>
     </row>
     <row r="695">
       <c r="A695" s="1"/>
@@ -13011,7 +12274,6 @@
       <c r="L695" s="1"/>
       <c r="M695" s="1"/>
       <c r="N695" s="1"/>
-      <c r="O695" s="1"/>
     </row>
     <row r="696">
       <c r="A696" s="1"/>
@@ -13028,7 +12290,6 @@
       <c r="L696" s="1"/>
       <c r="M696" s="1"/>
       <c r="N696" s="1"/>
-      <c r="O696" s="1"/>
     </row>
     <row r="697">
       <c r="A697" s="1"/>
@@ -13045,7 +12306,6 @@
       <c r="L697" s="1"/>
       <c r="M697" s="1"/>
       <c r="N697" s="1"/>
-      <c r="O697" s="1"/>
     </row>
     <row r="698">
       <c r="A698" s="1"/>
@@ -13062,7 +12322,6 @@
       <c r="L698" s="1"/>
       <c r="M698" s="1"/>
       <c r="N698" s="1"/>
-      <c r="O698" s="1"/>
     </row>
     <row r="699">
       <c r="A699" s="1"/>
@@ -13079,7 +12338,6 @@
       <c r="L699" s="1"/>
       <c r="M699" s="1"/>
       <c r="N699" s="1"/>
-      <c r="O699" s="1"/>
     </row>
     <row r="700">
       <c r="A700" s="1"/>
@@ -13096,7 +12354,6 @@
       <c r="L700" s="1"/>
       <c r="M700" s="1"/>
       <c r="N700" s="1"/>
-      <c r="O700" s="1"/>
     </row>
     <row r="701">
       <c r="A701" s="1"/>
@@ -13113,7 +12370,6 @@
       <c r="L701" s="1"/>
       <c r="M701" s="1"/>
       <c r="N701" s="1"/>
-      <c r="O701" s="1"/>
     </row>
     <row r="702">
       <c r="A702" s="1"/>
@@ -13130,7 +12386,6 @@
       <c r="L702" s="1"/>
       <c r="M702" s="1"/>
       <c r="N702" s="1"/>
-      <c r="O702" s="1"/>
     </row>
     <row r="703">
       <c r="A703" s="1"/>
@@ -13147,7 +12402,6 @@
       <c r="L703" s="1"/>
       <c r="M703" s="1"/>
       <c r="N703" s="1"/>
-      <c r="O703" s="1"/>
     </row>
     <row r="704">
       <c r="A704" s="1"/>
@@ -13164,7 +12418,6 @@
       <c r="L704" s="1"/>
       <c r="M704" s="1"/>
       <c r="N704" s="1"/>
-      <c r="O704" s="1"/>
     </row>
     <row r="705">
       <c r="A705" s="1"/>
@@ -13181,7 +12434,6 @@
       <c r="L705" s="1"/>
       <c r="M705" s="1"/>
       <c r="N705" s="1"/>
-      <c r="O705" s="1"/>
     </row>
     <row r="706">
       <c r="A706" s="1"/>
@@ -13198,7 +12450,6 @@
       <c r="L706" s="1"/>
       <c r="M706" s="1"/>
       <c r="N706" s="1"/>
-      <c r="O706" s="1"/>
     </row>
     <row r="707">
       <c r="A707" s="1"/>
@@ -13215,7 +12466,6 @@
       <c r="L707" s="1"/>
       <c r="M707" s="1"/>
       <c r="N707" s="1"/>
-      <c r="O707" s="1"/>
     </row>
     <row r="708">
       <c r="A708" s="1"/>
@@ -13232,7 +12482,6 @@
       <c r="L708" s="1"/>
       <c r="M708" s="1"/>
       <c r="N708" s="1"/>
-      <c r="O708" s="1"/>
     </row>
     <row r="709">
       <c r="A709" s="1"/>
@@ -13249,7 +12498,6 @@
       <c r="L709" s="1"/>
       <c r="M709" s="1"/>
       <c r="N709" s="1"/>
-      <c r="O709" s="1"/>
     </row>
     <row r="710">
       <c r="A710" s="1"/>
@@ -13266,7 +12514,6 @@
       <c r="L710" s="1"/>
       <c r="M710" s="1"/>
       <c r="N710" s="1"/>
-      <c r="O710" s="1"/>
     </row>
     <row r="711">
       <c r="A711" s="1"/>
@@ -13283,7 +12530,6 @@
       <c r="L711" s="1"/>
       <c r="M711" s="1"/>
       <c r="N711" s="1"/>
-      <c r="O711" s="1"/>
     </row>
     <row r="712">
       <c r="A712" s="1"/>
@@ -13300,7 +12546,6 @@
       <c r="L712" s="1"/>
       <c r="M712" s="1"/>
       <c r="N712" s="1"/>
-      <c r="O712" s="1"/>
     </row>
     <row r="713">
       <c r="A713" s="1"/>
@@ -13317,7 +12562,6 @@
       <c r="L713" s="1"/>
       <c r="M713" s="1"/>
       <c r="N713" s="1"/>
-      <c r="O713" s="1"/>
     </row>
     <row r="714">
       <c r="A714" s="1"/>
@@ -13334,7 +12578,6 @@
       <c r="L714" s="1"/>
       <c r="M714" s="1"/>
       <c r="N714" s="1"/>
-      <c r="O714" s="1"/>
     </row>
     <row r="715">
       <c r="A715" s="1"/>
@@ -13351,7 +12594,6 @@
       <c r="L715" s="1"/>
       <c r="M715" s="1"/>
       <c r="N715" s="1"/>
-      <c r="O715" s="1"/>
     </row>
     <row r="716">
       <c r="A716" s="1"/>
@@ -13368,7 +12610,6 @@
       <c r="L716" s="1"/>
       <c r="M716" s="1"/>
       <c r="N716" s="1"/>
-      <c r="O716" s="1"/>
     </row>
     <row r="717">
       <c r="A717" s="1"/>
@@ -13385,7 +12626,6 @@
       <c r="L717" s="1"/>
       <c r="M717" s="1"/>
       <c r="N717" s="1"/>
-      <c r="O717" s="1"/>
     </row>
     <row r="718">
       <c r="A718" s="1"/>
@@ -13402,7 +12642,6 @@
       <c r="L718" s="1"/>
       <c r="M718" s="1"/>
       <c r="N718" s="1"/>
-      <c r="O718" s="1"/>
     </row>
     <row r="719">
       <c r="A719" s="1"/>
@@ -13419,7 +12658,6 @@
       <c r="L719" s="1"/>
       <c r="M719" s="1"/>
       <c r="N719" s="1"/>
-      <c r="O719" s="1"/>
     </row>
     <row r="720">
       <c r="A720" s="1"/>
@@ -13436,7 +12674,6 @@
       <c r="L720" s="1"/>
       <c r="M720" s="1"/>
       <c r="N720" s="1"/>
-      <c r="O720" s="1"/>
     </row>
     <row r="721">
       <c r="A721" s="1"/>
@@ -13453,7 +12690,6 @@
       <c r="L721" s="1"/>
       <c r="M721" s="1"/>
       <c r="N721" s="1"/>
-      <c r="O721" s="1"/>
     </row>
     <row r="722">
       <c r="A722" s="1"/>
@@ -13470,7 +12706,6 @@
       <c r="L722" s="1"/>
       <c r="M722" s="1"/>
       <c r="N722" s="1"/>
-      <c r="O722" s="1"/>
     </row>
     <row r="723">
       <c r="A723" s="1"/>
@@ -13487,7 +12722,6 @@
       <c r="L723" s="1"/>
       <c r="M723" s="1"/>
       <c r="N723" s="1"/>
-      <c r="O723" s="1"/>
     </row>
     <row r="724">
       <c r="A724" s="1"/>
@@ -13504,7 +12738,6 @@
       <c r="L724" s="1"/>
       <c r="M724" s="1"/>
       <c r="N724" s="1"/>
-      <c r="O724" s="1"/>
     </row>
     <row r="725">
       <c r="A725" s="1"/>
@@ -13521,7 +12754,6 @@
       <c r="L725" s="1"/>
       <c r="M725" s="1"/>
       <c r="N725" s="1"/>
-      <c r="O725" s="1"/>
     </row>
     <row r="726">
       <c r="A726" s="1"/>
@@ -13538,7 +12770,6 @@
       <c r="L726" s="1"/>
       <c r="M726" s="1"/>
       <c r="N726" s="1"/>
-      <c r="O726" s="1"/>
     </row>
     <row r="727">
       <c r="A727" s="1"/>
@@ -13555,7 +12786,6 @@
       <c r="L727" s="1"/>
       <c r="M727" s="1"/>
       <c r="N727" s="1"/>
-      <c r="O727" s="1"/>
     </row>
     <row r="728">
       <c r="A728" s="1"/>
@@ -13572,7 +12802,6 @@
       <c r="L728" s="1"/>
       <c r="M728" s="1"/>
       <c r="N728" s="1"/>
-      <c r="O728" s="1"/>
     </row>
     <row r="729">
       <c r="A729" s="1"/>
@@ -13589,7 +12818,6 @@
       <c r="L729" s="1"/>
       <c r="M729" s="1"/>
       <c r="N729" s="1"/>
-      <c r="O729" s="1"/>
     </row>
     <row r="730">
       <c r="A730" s="1"/>
@@ -13606,7 +12834,6 @@
       <c r="L730" s="1"/>
       <c r="M730" s="1"/>
       <c r="N730" s="1"/>
-      <c r="O730" s="1"/>
     </row>
     <row r="731">
       <c r="A731" s="1"/>
@@ -13623,7 +12850,6 @@
       <c r="L731" s="1"/>
       <c r="M731" s="1"/>
       <c r="N731" s="1"/>
-      <c r="O731" s="1"/>
     </row>
     <row r="732">
       <c r="A732" s="1"/>
@@ -13640,7 +12866,6 @@
       <c r="L732" s="1"/>
       <c r="M732" s="1"/>
       <c r="N732" s="1"/>
-      <c r="O732" s="1"/>
     </row>
     <row r="733">
       <c r="A733" s="1"/>
@@ -13657,7 +12882,6 @@
       <c r="L733" s="1"/>
       <c r="M733" s="1"/>
       <c r="N733" s="1"/>
-      <c r="O733" s="1"/>
     </row>
     <row r="734">
       <c r="A734" s="1"/>
@@ -13674,7 +12898,6 @@
       <c r="L734" s="1"/>
       <c r="M734" s="1"/>
       <c r="N734" s="1"/>
-      <c r="O734" s="1"/>
     </row>
     <row r="735">
       <c r="A735" s="1"/>
@@ -13691,7 +12914,6 @@
       <c r="L735" s="1"/>
       <c r="M735" s="1"/>
       <c r="N735" s="1"/>
-      <c r="O735" s="1"/>
     </row>
     <row r="736">
       <c r="A736" s="1"/>
@@ -13708,7 +12930,6 @@
       <c r="L736" s="1"/>
       <c r="M736" s="1"/>
       <c r="N736" s="1"/>
-      <c r="O736" s="1"/>
     </row>
     <row r="737">
       <c r="A737" s="1"/>
@@ -13725,7 +12946,6 @@
       <c r="L737" s="1"/>
       <c r="M737" s="1"/>
       <c r="N737" s="1"/>
-      <c r="O737" s="1"/>
     </row>
     <row r="738">
       <c r="A738" s="1"/>
@@ -13742,7 +12962,6 @@
       <c r="L738" s="1"/>
       <c r="M738" s="1"/>
       <c r="N738" s="1"/>
-      <c r="O738" s="1"/>
     </row>
     <row r="739">
       <c r="A739" s="1"/>
@@ -13759,7 +12978,6 @@
       <c r="L739" s="1"/>
       <c r="M739" s="1"/>
       <c r="N739" s="1"/>
-      <c r="O739" s="1"/>
     </row>
     <row r="740">
       <c r="A740" s="1"/>
@@ -13776,7 +12994,6 @@
       <c r="L740" s="1"/>
       <c r="M740" s="1"/>
       <c r="N740" s="1"/>
-      <c r="O740" s="1"/>
     </row>
     <row r="741">
       <c r="A741" s="1"/>
@@ -13793,7 +13010,6 @@
       <c r="L741" s="1"/>
       <c r="M741" s="1"/>
       <c r="N741" s="1"/>
-      <c r="O741" s="1"/>
     </row>
     <row r="742">
       <c r="A742" s="1"/>
@@ -13810,7 +13026,6 @@
       <c r="L742" s="1"/>
       <c r="M742" s="1"/>
       <c r="N742" s="1"/>
-      <c r="O742" s="1"/>
     </row>
     <row r="743">
       <c r="A743" s="1"/>
@@ -13827,7 +13042,6 @@
       <c r="L743" s="1"/>
       <c r="M743" s="1"/>
       <c r="N743" s="1"/>
-      <c r="O743" s="1"/>
     </row>
     <row r="744">
       <c r="A744" s="1"/>
@@ -13844,7 +13058,6 @@
       <c r="L744" s="1"/>
       <c r="M744" s="1"/>
       <c r="N744" s="1"/>
-      <c r="O744" s="1"/>
     </row>
     <row r="745">
       <c r="A745" s="1"/>
@@ -13861,7 +13074,6 @@
       <c r="L745" s="1"/>
       <c r="M745" s="1"/>
       <c r="N745" s="1"/>
-      <c r="O745" s="1"/>
     </row>
     <row r="746">
       <c r="A746" s="1"/>
@@ -13878,7 +13090,6 @@
       <c r="L746" s="1"/>
       <c r="M746" s="1"/>
       <c r="N746" s="1"/>
-      <c r="O746" s="1"/>
     </row>
     <row r="747">
       <c r="A747" s="1"/>
@@ -13895,7 +13106,6 @@
       <c r="L747" s="1"/>
       <c r="M747" s="1"/>
       <c r="N747" s="1"/>
-      <c r="O747" s="1"/>
     </row>
     <row r="748">
       <c r="A748" s="1"/>
@@ -13912,7 +13122,6 @@
       <c r="L748" s="1"/>
       <c r="M748" s="1"/>
       <c r="N748" s="1"/>
-      <c r="O748" s="1"/>
     </row>
     <row r="749">
       <c r="A749" s="1"/>
@@ -13929,7 +13138,6 @@
       <c r="L749" s="1"/>
       <c r="M749" s="1"/>
       <c r="N749" s="1"/>
-      <c r="O749" s="1"/>
     </row>
     <row r="750">
       <c r="A750" s="1"/>
@@ -13946,7 +13154,6 @@
       <c r="L750" s="1"/>
       <c r="M750" s="1"/>
       <c r="N750" s="1"/>
-      <c r="O750" s="1"/>
     </row>
     <row r="751">
       <c r="A751" s="1"/>
@@ -13963,7 +13170,6 @@
       <c r="L751" s="1"/>
       <c r="M751" s="1"/>
       <c r="N751" s="1"/>
-      <c r="O751" s="1"/>
     </row>
     <row r="752">
       <c r="A752" s="1"/>
@@ -13980,7 +13186,6 @@
       <c r="L752" s="1"/>
       <c r="M752" s="1"/>
       <c r="N752" s="1"/>
-      <c r="O752" s="1"/>
     </row>
     <row r="753">
       <c r="A753" s="1"/>
@@ -13997,7 +13202,6 @@
       <c r="L753" s="1"/>
       <c r="M753" s="1"/>
       <c r="N753" s="1"/>
-      <c r="O753" s="1"/>
     </row>
     <row r="754">
       <c r="A754" s="1"/>
@@ -14014,7 +13218,6 @@
       <c r="L754" s="1"/>
       <c r="M754" s="1"/>
       <c r="N754" s="1"/>
-      <c r="O754" s="1"/>
     </row>
     <row r="755">
       <c r="A755" s="1"/>
@@ -14031,7 +13234,6 @@
       <c r="L755" s="1"/>
       <c r="M755" s="1"/>
       <c r="N755" s="1"/>
-      <c r="O755" s="1"/>
     </row>
     <row r="756">
       <c r="A756" s="1"/>
@@ -14048,7 +13250,6 @@
       <c r="L756" s="1"/>
       <c r="M756" s="1"/>
       <c r="N756" s="1"/>
-      <c r="O756" s="1"/>
     </row>
     <row r="757">
       <c r="A757" s="1"/>
@@ -14065,7 +13266,6 @@
       <c r="L757" s="1"/>
       <c r="M757" s="1"/>
       <c r="N757" s="1"/>
-      <c r="O757" s="1"/>
     </row>
     <row r="758">
       <c r="A758" s="1"/>
@@ -14082,7 +13282,6 @@
       <c r="L758" s="1"/>
       <c r="M758" s="1"/>
       <c r="N758" s="1"/>
-      <c r="O758" s="1"/>
     </row>
     <row r="759">
       <c r="A759" s="1"/>
@@ -14099,7 +13298,6 @@
       <c r="L759" s="1"/>
       <c r="M759" s="1"/>
       <c r="N759" s="1"/>
-      <c r="O759" s="1"/>
     </row>
     <row r="760">
       <c r="A760" s="1"/>
@@ -14116,7 +13314,6 @@
       <c r="L760" s="1"/>
       <c r="M760" s="1"/>
       <c r="N760" s="1"/>
-      <c r="O760" s="1"/>
     </row>
     <row r="761">
       <c r="A761" s="1"/>
@@ -14133,7 +13330,6 @@
       <c r="L761" s="1"/>
       <c r="M761" s="1"/>
       <c r="N761" s="1"/>
-      <c r="O761" s="1"/>
     </row>
     <row r="762">
       <c r="A762" s="1"/>
@@ -14150,7 +13346,6 @@
       <c r="L762" s="1"/>
       <c r="M762" s="1"/>
       <c r="N762" s="1"/>
-      <c r="O762" s="1"/>
     </row>
     <row r="763">
       <c r="A763" s="1"/>
@@ -14167,7 +13362,6 @@
       <c r="L763" s="1"/>
       <c r="M763" s="1"/>
       <c r="N763" s="1"/>
-      <c r="O763" s="1"/>
     </row>
     <row r="764">
       <c r="A764" s="1"/>
@@ -14184,7 +13378,6 @@
       <c r="L764" s="1"/>
       <c r="M764" s="1"/>
       <c r="N764" s="1"/>
-      <c r="O764" s="1"/>
     </row>
     <row r="765">
       <c r="A765" s="1"/>
@@ -14201,7 +13394,6 @@
       <c r="L765" s="1"/>
       <c r="M765" s="1"/>
       <c r="N765" s="1"/>
-      <c r="O765" s="1"/>
     </row>
     <row r="766">
       <c r="A766" s="1"/>
@@ -14218,7 +13410,6 @@
       <c r="L766" s="1"/>
       <c r="M766" s="1"/>
       <c r="N766" s="1"/>
-      <c r="O766" s="1"/>
     </row>
     <row r="767">
       <c r="A767" s="1"/>
@@ -14235,7 +13426,6 @@
       <c r="L767" s="1"/>
       <c r="M767" s="1"/>
       <c r="N767" s="1"/>
-      <c r="O767" s="1"/>
     </row>
     <row r="768">
       <c r="A768" s="1"/>
@@ -14252,7 +13442,6 @@
       <c r="L768" s="1"/>
       <c r="M768" s="1"/>
       <c r="N768" s="1"/>
-      <c r="O768" s="1"/>
     </row>
     <row r="769">
       <c r="A769" s="1"/>
@@ -14269,7 +13458,6 @@
       <c r="L769" s="1"/>
       <c r="M769" s="1"/>
       <c r="N769" s="1"/>
-      <c r="O769" s="1"/>
     </row>
     <row r="770">
       <c r="A770" s="1"/>
@@ -14286,7 +13474,6 @@
       <c r="L770" s="1"/>
       <c r="M770" s="1"/>
       <c r="N770" s="1"/>
-      <c r="O770" s="1"/>
     </row>
     <row r="771">
       <c r="A771" s="1"/>
@@ -14303,7 +13490,6 @@
       <c r="L771" s="1"/>
       <c r="M771" s="1"/>
       <c r="N771" s="1"/>
-      <c r="O771" s="1"/>
     </row>
     <row r="772">
       <c r="A772" s="1"/>
@@ -14320,7 +13506,6 @@
       <c r="L772" s="1"/>
       <c r="M772" s="1"/>
       <c r="N772" s="1"/>
-      <c r="O772" s="1"/>
     </row>
     <row r="773">
       <c r="A773" s="1"/>
@@ -14337,7 +13522,6 @@
       <c r="L773" s="1"/>
       <c r="M773" s="1"/>
       <c r="N773" s="1"/>
-      <c r="O773" s="1"/>
     </row>
     <row r="774">
       <c r="A774" s="1"/>
@@ -14354,7 +13538,6 @@
       <c r="L774" s="1"/>
       <c r="M774" s="1"/>
       <c r="N774" s="1"/>
-      <c r="O774" s="1"/>
     </row>
     <row r="775">
       <c r="A775" s="1"/>
@@ -14371,7 +13554,6 @@
       <c r="L775" s="1"/>
       <c r="M775" s="1"/>
       <c r="N775" s="1"/>
-      <c r="O775" s="1"/>
     </row>
     <row r="776">
       <c r="A776" s="1"/>
@@ -14388,7 +13570,6 @@
       <c r="L776" s="1"/>
       <c r="M776" s="1"/>
       <c r="N776" s="1"/>
-      <c r="O776" s="1"/>
     </row>
     <row r="777">
       <c r="A777" s="1"/>
@@ -14405,7 +13586,6 @@
       <c r="L777" s="1"/>
       <c r="M777" s="1"/>
       <c r="N777" s="1"/>
-      <c r="O777" s="1"/>
     </row>
     <row r="778">
       <c r="A778" s="1"/>
@@ -14422,7 +13602,6 @@
       <c r="L778" s="1"/>
       <c r="M778" s="1"/>
       <c r="N778" s="1"/>
-      <c r="O778" s="1"/>
     </row>
     <row r="779">
       <c r="A779" s="1"/>
@@ -14439,7 +13618,6 @@
       <c r="L779" s="1"/>
       <c r="M779" s="1"/>
       <c r="N779" s="1"/>
-      <c r="O779" s="1"/>
     </row>
     <row r="780">
       <c r="A780" s="1"/>
@@ -14456,7 +13634,6 @@
       <c r="L780" s="1"/>
       <c r="M780" s="1"/>
       <c r="N780" s="1"/>
-      <c r="O780" s="1"/>
     </row>
     <row r="781">
       <c r="A781" s="1"/>
@@ -14473,7 +13650,6 @@
       <c r="L781" s="1"/>
       <c r="M781" s="1"/>
       <c r="N781" s="1"/>
-      <c r="O781" s="1"/>
     </row>
     <row r="782">
       <c r="A782" s="1"/>
@@ -14490,7 +13666,6 @@
       <c r="L782" s="1"/>
       <c r="M782" s="1"/>
       <c r="N782" s="1"/>
-      <c r="O782" s="1"/>
     </row>
     <row r="783">
       <c r="A783" s="1"/>
@@ -14507,7 +13682,6 @@
       <c r="L783" s="1"/>
       <c r="M783" s="1"/>
       <c r="N783" s="1"/>
-      <c r="O783" s="1"/>
     </row>
     <row r="784">
       <c r="A784" s="1"/>
@@ -14524,7 +13698,6 @@
       <c r="L784" s="1"/>
       <c r="M784" s="1"/>
       <c r="N784" s="1"/>
-      <c r="O784" s="1"/>
     </row>
     <row r="785">
       <c r="A785" s="1"/>
@@ -14541,7 +13714,6 @@
       <c r="L785" s="1"/>
       <c r="M785" s="1"/>
       <c r="N785" s="1"/>
-      <c r="O785" s="1"/>
     </row>
     <row r="786">
       <c r="A786" s="1"/>
@@ -14558,7 +13730,6 @@
       <c r="L786" s="1"/>
       <c r="M786" s="1"/>
       <c r="N786" s="1"/>
-      <c r="O786" s="1"/>
     </row>
     <row r="787">
       <c r="A787" s="1"/>
@@ -14575,7 +13746,6 @@
       <c r="L787" s="1"/>
       <c r="M787" s="1"/>
       <c r="N787" s="1"/>
-      <c r="O787" s="1"/>
     </row>
     <row r="788">
       <c r="A788" s="1"/>
@@ -14592,7 +13762,6 @@
       <c r="L788" s="1"/>
       <c r="M788" s="1"/>
       <c r="N788" s="1"/>
-      <c r="O788" s="1"/>
     </row>
     <row r="789">
       <c r="A789" s="1"/>
@@ -14609,7 +13778,6 @@
       <c r="L789" s="1"/>
       <c r="M789" s="1"/>
       <c r="N789" s="1"/>
-      <c r="O789" s="1"/>
     </row>
     <row r="790">
       <c r="A790" s="1"/>
@@ -14626,7 +13794,6 @@
       <c r="L790" s="1"/>
       <c r="M790" s="1"/>
       <c r="N790" s="1"/>
-      <c r="O790" s="1"/>
     </row>
     <row r="791">
       <c r="A791" s="1"/>
@@ -14643,7 +13810,6 @@
       <c r="L791" s="1"/>
       <c r="M791" s="1"/>
       <c r="N791" s="1"/>
-      <c r="O791" s="1"/>
     </row>
     <row r="792">
       <c r="A792" s="1"/>
@@ -14660,7 +13826,6 @@
       <c r="L792" s="1"/>
       <c r="M792" s="1"/>
       <c r="N792" s="1"/>
-      <c r="O792" s="1"/>
     </row>
     <row r="793">
       <c r="A793" s="1"/>
@@ -14677,7 +13842,6 @@
       <c r="L793" s="1"/>
       <c r="M793" s="1"/>
       <c r="N793" s="1"/>
-      <c r="O793" s="1"/>
     </row>
     <row r="794">
       <c r="A794" s="1"/>
@@ -14694,7 +13858,6 @@
       <c r="L794" s="1"/>
       <c r="M794" s="1"/>
       <c r="N794" s="1"/>
-      <c r="O794" s="1"/>
     </row>
     <row r="795">
       <c r="A795" s="1"/>
@@ -14711,7 +13874,6 @@
       <c r="L795" s="1"/>
       <c r="M795" s="1"/>
       <c r="N795" s="1"/>
-      <c r="O795" s="1"/>
     </row>
     <row r="796">
       <c r="A796" s="1"/>
@@ -14728,7 +13890,6 @@
       <c r="L796" s="1"/>
       <c r="M796" s="1"/>
       <c r="N796" s="1"/>
-      <c r="O796" s="1"/>
     </row>
     <row r="797">
       <c r="A797" s="1"/>
@@ -14745,7 +13906,6 @@
       <c r="L797" s="1"/>
       <c r="M797" s="1"/>
       <c r="N797" s="1"/>
-      <c r="O797" s="1"/>
     </row>
     <row r="798">
       <c r="A798" s="1"/>
@@ -14762,7 +13922,6 @@
       <c r="L798" s="1"/>
       <c r="M798" s="1"/>
       <c r="N798" s="1"/>
-      <c r="O798" s="1"/>
     </row>
     <row r="799">
       <c r="A799" s="1"/>
@@ -14779,7 +13938,6 @@
       <c r="L799" s="1"/>
       <c r="M799" s="1"/>
       <c r="N799" s="1"/>
-      <c r="O799" s="1"/>
     </row>
     <row r="800">
       <c r="A800" s="1"/>
@@ -14796,7 +13954,6 @@
       <c r="L800" s="1"/>
       <c r="M800" s="1"/>
       <c r="N800" s="1"/>
-      <c r="O800" s="1"/>
     </row>
     <row r="801">
       <c r="A801" s="1"/>
@@ -14813,7 +13970,6 @@
       <c r="L801" s="1"/>
       <c r="M801" s="1"/>
       <c r="N801" s="1"/>
-      <c r="O801" s="1"/>
     </row>
     <row r="802">
       <c r="A802" s="1"/>
@@ -14830,7 +13986,6 @@
       <c r="L802" s="1"/>
       <c r="M802" s="1"/>
       <c r="N802" s="1"/>
-      <c r="O802" s="1"/>
     </row>
     <row r="803">
       <c r="A803" s="1"/>
@@ -14847,7 +14002,6 @@
       <c r="L803" s="1"/>
       <c r="M803" s="1"/>
       <c r="N803" s="1"/>
-      <c r="O803" s="1"/>
     </row>
     <row r="804">
       <c r="A804" s="1"/>
@@ -14864,7 +14018,6 @@
       <c r="L804" s="1"/>
       <c r="M804" s="1"/>
       <c r="N804" s="1"/>
-      <c r="O804" s="1"/>
     </row>
     <row r="805">
       <c r="A805" s="1"/>
@@ -14881,7 +14034,6 @@
       <c r="L805" s="1"/>
       <c r="M805" s="1"/>
       <c r="N805" s="1"/>
-      <c r="O805" s="1"/>
     </row>
     <row r="806">
       <c r="A806" s="1"/>
@@ -14898,7 +14050,6 @@
       <c r="L806" s="1"/>
       <c r="M806" s="1"/>
       <c r="N806" s="1"/>
-      <c r="O806" s="1"/>
     </row>
     <row r="807">
       <c r="A807" s="1"/>
@@ -14915,7 +14066,6 @@
       <c r="L807" s="1"/>
       <c r="M807" s="1"/>
       <c r="N807" s="1"/>
-      <c r="O807" s="1"/>
     </row>
     <row r="808">
       <c r="A808" s="1"/>
@@ -14932,7 +14082,6 @@
       <c r="L808" s="1"/>
       <c r="M808" s="1"/>
       <c r="N808" s="1"/>
-      <c r="O808" s="1"/>
     </row>
     <row r="809">
       <c r="A809" s="1"/>
@@ -14949,7 +14098,6 @@
       <c r="L809" s="1"/>
       <c r="M809" s="1"/>
       <c r="N809" s="1"/>
-      <c r="O809" s="1"/>
     </row>
     <row r="810">
       <c r="A810" s="1"/>
@@ -14966,7 +14114,6 @@
       <c r="L810" s="1"/>
       <c r="M810" s="1"/>
       <c r="N810" s="1"/>
-      <c r="O810" s="1"/>
     </row>
     <row r="811">
       <c r="A811" s="1"/>
@@ -14983,7 +14130,6 @@
       <c r="L811" s="1"/>
       <c r="M811" s="1"/>
       <c r="N811" s="1"/>
-      <c r="O811" s="1"/>
     </row>
     <row r="812">
       <c r="A812" s="1"/>
@@ -15000,7 +14146,6 @@
       <c r="L812" s="1"/>
       <c r="M812" s="1"/>
       <c r="N812" s="1"/>
-      <c r="O812" s="1"/>
     </row>
     <row r="813">
       <c r="A813" s="1"/>
@@ -15017,7 +14162,6 @@
       <c r="L813" s="1"/>
       <c r="M813" s="1"/>
       <c r="N813" s="1"/>
-      <c r="O813" s="1"/>
     </row>
     <row r="814">
       <c r="A814" s="1"/>
@@ -15034,7 +14178,6 @@
       <c r="L814" s="1"/>
       <c r="M814" s="1"/>
       <c r="N814" s="1"/>
-      <c r="O814" s="1"/>
     </row>
     <row r="815">
       <c r="A815" s="1"/>
@@ -15051,7 +14194,6 @@
       <c r="L815" s="1"/>
       <c r="M815" s="1"/>
       <c r="N815" s="1"/>
-      <c r="O815" s="1"/>
     </row>
     <row r="816">
       <c r="A816" s="1"/>
@@ -15068,7 +14210,6 @@
       <c r="L816" s="1"/>
       <c r="M816" s="1"/>
       <c r="N816" s="1"/>
-      <c r="O816" s="1"/>
     </row>
     <row r="817">
       <c r="A817" s="1"/>
@@ -15085,7 +14226,6 @@
       <c r="L817" s="1"/>
       <c r="M817" s="1"/>
       <c r="N817" s="1"/>
-      <c r="O817" s="1"/>
     </row>
     <row r="818">
       <c r="A818" s="1"/>
@@ -15102,7 +14242,6 @@
       <c r="L818" s="1"/>
       <c r="M818" s="1"/>
       <c r="N818" s="1"/>
-      <c r="O818" s="1"/>
     </row>
     <row r="819">
       <c r="A819" s="1"/>
@@ -15119,7 +14258,6 @@
       <c r="L819" s="1"/>
       <c r="M819" s="1"/>
       <c r="N819" s="1"/>
-      <c r="O819" s="1"/>
     </row>
     <row r="820">
       <c r="A820" s="1"/>
@@ -15136,7 +14274,6 @@
       <c r="L820" s="1"/>
       <c r="M820" s="1"/>
       <c r="N820" s="1"/>
-      <c r="O820" s="1"/>
     </row>
     <row r="821">
       <c r="A821" s="1"/>
@@ -15153,7 +14290,6 @@
       <c r="L821" s="1"/>
       <c r="M821" s="1"/>
       <c r="N821" s="1"/>
-      <c r="O821" s="1"/>
     </row>
     <row r="822">
       <c r="A822" s="1"/>
@@ -15170,7 +14306,6 @@
       <c r="L822" s="1"/>
       <c r="M822" s="1"/>
       <c r="N822" s="1"/>
-      <c r="O822" s="1"/>
     </row>
     <row r="823">
       <c r="A823" s="1"/>
@@ -15187,7 +14322,6 @@
       <c r="L823" s="1"/>
       <c r="M823" s="1"/>
       <c r="N823" s="1"/>
-      <c r="O823" s="1"/>
     </row>
     <row r="824">
       <c r="A824" s="1"/>
@@ -15204,7 +14338,6 @@
       <c r="L824" s="1"/>
       <c r="M824" s="1"/>
       <c r="N824" s="1"/>
-      <c r="O824" s="1"/>
     </row>
     <row r="825">
       <c r="A825" s="1"/>
@@ -15221,7 +14354,6 @@
       <c r="L825" s="1"/>
       <c r="M825" s="1"/>
       <c r="N825" s="1"/>
-      <c r="O825" s="1"/>
     </row>
     <row r="826">
       <c r="A826" s="1"/>
@@ -15238,7 +14370,6 @@
       <c r="L826" s="1"/>
       <c r="M826" s="1"/>
       <c r="N826" s="1"/>
-      <c r="O826" s="1"/>
     </row>
     <row r="827">
       <c r="A827" s="1"/>
@@ -15255,7 +14386,6 @@
       <c r="L827" s="1"/>
       <c r="M827" s="1"/>
       <c r="N827" s="1"/>
-      <c r="O827" s="1"/>
     </row>
     <row r="828">
       <c r="A828" s="1"/>
@@ -15272,7 +14402,6 @@
       <c r="L828" s="1"/>
       <c r="M828" s="1"/>
       <c r="N828" s="1"/>
-      <c r="O828" s="1"/>
     </row>
     <row r="829">
       <c r="A829" s="1"/>
@@ -15289,7 +14418,6 @@
       <c r="L829" s="1"/>
       <c r="M829" s="1"/>
       <c r="N829" s="1"/>
-      <c r="O829" s="1"/>
     </row>
     <row r="830">
       <c r="A830" s="1"/>
@@ -15306,7 +14434,6 @@
       <c r="L830" s="1"/>
       <c r="M830" s="1"/>
       <c r="N830" s="1"/>
-      <c r="O830" s="1"/>
     </row>
     <row r="831">
       <c r="A831" s="1"/>
@@ -15323,7 +14450,6 @@
       <c r="L831" s="1"/>
       <c r="M831" s="1"/>
       <c r="N831" s="1"/>
-      <c r="O831" s="1"/>
     </row>
     <row r="832">
       <c r="A832" s="1"/>
@@ -15340,7 +14466,6 @@
       <c r="L832" s="1"/>
       <c r="M832" s="1"/>
       <c r="N832" s="1"/>
-      <c r="O832" s="1"/>
     </row>
     <row r="833">
       <c r="A833" s="1"/>
@@ -15357,7 +14482,6 @@
       <c r="L833" s="1"/>
       <c r="M833" s="1"/>
       <c r="N833" s="1"/>
-      <c r="O833" s="1"/>
     </row>
     <row r="834">
       <c r="A834" s="1"/>
@@ -15374,7 +14498,6 @@
       <c r="L834" s="1"/>
       <c r="M834" s="1"/>
       <c r="N834" s="1"/>
-      <c r="O834" s="1"/>
     </row>
     <row r="835">
       <c r="A835" s="1"/>
@@ -15391,7 +14514,6 @@
       <c r="L835" s="1"/>
       <c r="M835" s="1"/>
       <c r="N835" s="1"/>
-      <c r="O835" s="1"/>
     </row>
     <row r="836">
       <c r="A836" s="1"/>
@@ -15408,7 +14530,6 @@
       <c r="L836" s="1"/>
       <c r="M836" s="1"/>
       <c r="N836" s="1"/>
-      <c r="O836" s="1"/>
     </row>
     <row r="837">
       <c r="A837" s="1"/>
@@ -15425,7 +14546,6 @@
       <c r="L837" s="1"/>
       <c r="M837" s="1"/>
       <c r="N837" s="1"/>
-      <c r="O837" s="1"/>
     </row>
     <row r="838">
       <c r="A838" s="1"/>
@@ -15442,7 +14562,6 @@
       <c r="L838" s="1"/>
       <c r="M838" s="1"/>
       <c r="N838" s="1"/>
-      <c r="O838" s="1"/>
     </row>
     <row r="839">
       <c r="A839" s="1"/>
@@ -15459,7 +14578,6 @@
       <c r="L839" s="1"/>
       <c r="M839" s="1"/>
       <c r="N839" s="1"/>
-      <c r="O839" s="1"/>
     </row>
     <row r="840">
       <c r="A840" s="1"/>
@@ -15476,7 +14594,6 @@
       <c r="L840" s="1"/>
       <c r="M840" s="1"/>
       <c r="N840" s="1"/>
-      <c r="O840" s="1"/>
     </row>
     <row r="841">
       <c r="A841" s="1"/>
@@ -15493,7 +14610,6 @@
       <c r="L841" s="1"/>
       <c r="M841" s="1"/>
       <c r="N841" s="1"/>
-      <c r="O841" s="1"/>
     </row>
     <row r="842">
       <c r="A842" s="1"/>
@@ -15510,7 +14626,6 @@
       <c r="L842" s="1"/>
       <c r="M842" s="1"/>
       <c r="N842" s="1"/>
-      <c r="O842" s="1"/>
     </row>
     <row r="843">
       <c r="A843" s="1"/>
@@ -15527,7 +14642,6 @@
       <c r="L843" s="1"/>
       <c r="M843" s="1"/>
       <c r="N843" s="1"/>
-      <c r="O843" s="1"/>
     </row>
     <row r="844">
       <c r="A844" s="1"/>
@@ -15544,7 +14658,6 @@
       <c r="L844" s="1"/>
       <c r="M844" s="1"/>
       <c r="N844" s="1"/>
-      <c r="O844" s="1"/>
     </row>
     <row r="845">
       <c r="A845" s="1"/>
@@ -15561,7 +14674,6 @@
       <c r="L845" s="1"/>
       <c r="M845" s="1"/>
       <c r="N845" s="1"/>
-      <c r="O845" s="1"/>
     </row>
     <row r="846">
       <c r="A846" s="1"/>
@@ -15578,7 +14690,6 @@
       <c r="L846" s="1"/>
       <c r="M846" s="1"/>
       <c r="N846" s="1"/>
-      <c r="O846" s="1"/>
     </row>
     <row r="847">
       <c r="A847" s="1"/>
@@ -15595,7 +14706,6 @@
       <c r="L847" s="1"/>
       <c r="M847" s="1"/>
       <c r="N847" s="1"/>
-      <c r="O847" s="1"/>
     </row>
     <row r="848">
       <c r="A848" s="1"/>
@@ -15612,7 +14722,6 @@
       <c r="L848" s="1"/>
       <c r="M848" s="1"/>
       <c r="N848" s="1"/>
-      <c r="O848" s="1"/>
     </row>
     <row r="849">
       <c r="A849" s="1"/>
@@ -15629,7 +14738,6 @@
       <c r="L849" s="1"/>
       <c r="M849" s="1"/>
       <c r="N849" s="1"/>
-      <c r="O849" s="1"/>
     </row>
     <row r="850">
       <c r="A850" s="1"/>
@@ -15646,7 +14754,6 @@
       <c r="L850" s="1"/>
       <c r="M850" s="1"/>
       <c r="N850" s="1"/>
-      <c r="O850" s="1"/>
     </row>
     <row r="851">
       <c r="A851" s="1"/>
@@ -15663,7 +14770,6 @@
       <c r="L851" s="1"/>
       <c r="M851" s="1"/>
       <c r="N851" s="1"/>
-      <c r="O851" s="1"/>
     </row>
     <row r="852">
       <c r="A852" s="1"/>
@@ -15680,7 +14786,6 @@
       <c r="L852" s="1"/>
       <c r="M852" s="1"/>
       <c r="N852" s="1"/>
-      <c r="O852" s="1"/>
     </row>
     <row r="853">
       <c r="A853" s="1"/>
@@ -15697,7 +14802,6 @@
       <c r="L853" s="1"/>
       <c r="M853" s="1"/>
       <c r="N853" s="1"/>
-      <c r="O853" s="1"/>
     </row>
     <row r="854">
       <c r="A854" s="1"/>
@@ -15714,7 +14818,6 @@
       <c r="L854" s="1"/>
       <c r="M854" s="1"/>
       <c r="N854" s="1"/>
-      <c r="O854" s="1"/>
     </row>
     <row r="855">
       <c r="A855" s="1"/>
@@ -15731,7 +14834,6 @@
       <c r="L855" s="1"/>
       <c r="M855" s="1"/>
       <c r="N855" s="1"/>
-      <c r="O855" s="1"/>
     </row>
     <row r="856">
       <c r="A856" s="1"/>
@@ -15748,7 +14850,6 @@
       <c r="L856" s="1"/>
       <c r="M856" s="1"/>
       <c r="N856" s="1"/>
-      <c r="O856" s="1"/>
     </row>
     <row r="857">
       <c r="A857" s="1"/>
@@ -15765,7 +14866,6 @@
       <c r="L857" s="1"/>
       <c r="M857" s="1"/>
       <c r="N857" s="1"/>
-      <c r="O857" s="1"/>
     </row>
     <row r="858">
       <c r="A858" s="1"/>
@@ -15782,7 +14882,6 @@
       <c r="L858" s="1"/>
       <c r="M858" s="1"/>
       <c r="N858" s="1"/>
-      <c r="O858" s="1"/>
     </row>
     <row r="859">
       <c r="A859" s="1"/>
@@ -15799,7 +14898,6 @@
       <c r="L859" s="1"/>
       <c r="M859" s="1"/>
       <c r="N859" s="1"/>
-      <c r="O859" s="1"/>
     </row>
     <row r="860">
       <c r="A860" s="1"/>
@@ -15816,7 +14914,6 @@
       <c r="L860" s="1"/>
       <c r="M860" s="1"/>
       <c r="N860" s="1"/>
-      <c r="O860" s="1"/>
     </row>
     <row r="861">
       <c r="A861" s="1"/>
@@ -15833,7 +14930,6 @@
       <c r="L861" s="1"/>
       <c r="M861" s="1"/>
       <c r="N861" s="1"/>
-      <c r="O861" s="1"/>
     </row>
     <row r="862">
       <c r="A862" s="1"/>
@@ -15850,7 +14946,6 @@
       <c r="L862" s="1"/>
       <c r="M862" s="1"/>
       <c r="N862" s="1"/>
-      <c r="O862" s="1"/>
     </row>
     <row r="863">
       <c r="A863" s="1"/>
@@ -15867,7 +14962,6 @@
       <c r="L863" s="1"/>
       <c r="M863" s="1"/>
       <c r="N863" s="1"/>
-      <c r="O863" s="1"/>
     </row>
     <row r="864">
       <c r="A864" s="1"/>
@@ -15884,7 +14978,6 @@
       <c r="L864" s="1"/>
       <c r="M864" s="1"/>
       <c r="N864" s="1"/>
-      <c r="O864" s="1"/>
     </row>
     <row r="865">
       <c r="A865" s="1"/>
@@ -15901,7 +14994,6 @@
       <c r="L865" s="1"/>
       <c r="M865" s="1"/>
       <c r="N865" s="1"/>
-      <c r="O865" s="1"/>
     </row>
     <row r="866">
       <c r="A866" s="1"/>
@@ -15918,7 +15010,6 @@
       <c r="L866" s="1"/>
       <c r="M866" s="1"/>
       <c r="N866" s="1"/>
-      <c r="O866" s="1"/>
     </row>
     <row r="867">
       <c r="A867" s="1"/>
@@ -15935,7 +15026,6 @@
       <c r="L867" s="1"/>
       <c r="M867" s="1"/>
       <c r="N867" s="1"/>
-      <c r="O867" s="1"/>
     </row>
     <row r="868">
       <c r="A868" s="1"/>
@@ -15952,7 +15042,6 @@
       <c r="L868" s="1"/>
       <c r="M868" s="1"/>
       <c r="N868" s="1"/>
-      <c r="O868" s="1"/>
     </row>
     <row r="869">
       <c r="A869" s="1"/>
@@ -15969,7 +15058,6 @@
       <c r="L869" s="1"/>
       <c r="M869" s="1"/>
       <c r="N869" s="1"/>
-      <c r="O869" s="1"/>
     </row>
     <row r="870">
       <c r="A870" s="1"/>
@@ -15986,7 +15074,6 @@
       <c r="L870" s="1"/>
       <c r="M870" s="1"/>
       <c r="N870" s="1"/>
-      <c r="O870" s="1"/>
     </row>
     <row r="871">
       <c r="A871" s="1"/>
@@ -16003,7 +15090,6 @@
       <c r="L871" s="1"/>
       <c r="M871" s="1"/>
       <c r="N871" s="1"/>
-      <c r="O871" s="1"/>
     </row>
     <row r="872">
       <c r="A872" s="1"/>
@@ -16020,7 +15106,6 @@
       <c r="L872" s="1"/>
       <c r="M872" s="1"/>
       <c r="N872" s="1"/>
-      <c r="O872" s="1"/>
     </row>
     <row r="873">
       <c r="A873" s="1"/>
@@ -16037,7 +15122,6 @@
       <c r="L873" s="1"/>
       <c r="M873" s="1"/>
       <c r="N873" s="1"/>
-      <c r="O873" s="1"/>
     </row>
     <row r="874">
       <c r="A874" s="1"/>
@@ -16054,7 +15138,6 @@
       <c r="L874" s="1"/>
       <c r="M874" s="1"/>
       <c r="N874" s="1"/>
-      <c r="O874" s="1"/>
     </row>
     <row r="875">
       <c r="A875" s="1"/>
@@ -16071,7 +15154,6 @@
       <c r="L875" s="1"/>
       <c r="M875" s="1"/>
       <c r="N875" s="1"/>
-      <c r="O875" s="1"/>
     </row>
     <row r="876">
       <c r="A876" s="1"/>
@@ -16088,7 +15170,6 @@
       <c r="L876" s="1"/>
       <c r="M876" s="1"/>
       <c r="N876" s="1"/>
-      <c r="O876" s="1"/>
     </row>
     <row r="877">
       <c r="A877" s="1"/>
@@ -16105,7 +15186,6 @@
       <c r="L877" s="1"/>
       <c r="M877" s="1"/>
       <c r="N877" s="1"/>
-      <c r="O877" s="1"/>
     </row>
     <row r="878">
       <c r="A878" s="1"/>
@@ -16122,7 +15202,6 @@
       <c r="L878" s="1"/>
       <c r="M878" s="1"/>
       <c r="N878" s="1"/>
-      <c r="O878" s="1"/>
     </row>
     <row r="879">
       <c r="A879" s="1"/>
@@ -16139,7 +15218,6 @@
       <c r="L879" s="1"/>
       <c r="M879" s="1"/>
       <c r="N879" s="1"/>
-      <c r="O879" s="1"/>
     </row>
     <row r="880">
       <c r="A880" s="1"/>
@@ -16156,7 +15234,6 @@
       <c r="L880" s="1"/>
       <c r="M880" s="1"/>
       <c r="N880" s="1"/>
-      <c r="O880" s="1"/>
     </row>
     <row r="881">
       <c r="A881" s="1"/>
@@ -16173,7 +15250,6 @@
       <c r="L881" s="1"/>
       <c r="M881" s="1"/>
       <c r="N881" s="1"/>
-      <c r="O881" s="1"/>
     </row>
     <row r="882">
       <c r="A882" s="1"/>
@@ -16190,7 +15266,6 @@
       <c r="L882" s="1"/>
       <c r="M882" s="1"/>
       <c r="N882" s="1"/>
-      <c r="O882" s="1"/>
     </row>
     <row r="883">
       <c r="A883" s="1"/>
@@ -16207,7 +15282,6 @@
       <c r="L883" s="1"/>
       <c r="M883" s="1"/>
       <c r="N883" s="1"/>
-      <c r="O883" s="1"/>
     </row>
     <row r="884">
       <c r="A884" s="1"/>
@@ -16224,7 +15298,6 @@
       <c r="L884" s="1"/>
       <c r="M884" s="1"/>
       <c r="N884" s="1"/>
-      <c r="O884" s="1"/>
     </row>
     <row r="885">
       <c r="A885" s="1"/>
@@ -16241,7 +15314,6 @@
       <c r="L885" s="1"/>
       <c r="M885" s="1"/>
       <c r="N885" s="1"/>
-      <c r="O885" s="1"/>
     </row>
     <row r="886">
       <c r="A886" s="1"/>
@@ -16258,7 +15330,6 @@
       <c r="L886" s="1"/>
       <c r="M886" s="1"/>
       <c r="N886" s="1"/>
-      <c r="O886" s="1"/>
     </row>
     <row r="887">
       <c r="A887" s="1"/>
@@ -16275,7 +15346,6 @@
       <c r="L887" s="1"/>
       <c r="M887" s="1"/>
       <c r="N887" s="1"/>
-      <c r="O887" s="1"/>
     </row>
     <row r="888">
       <c r="A888" s="1"/>
@@ -16292,7 +15362,6 @@
       <c r="L888" s="1"/>
       <c r="M888" s="1"/>
       <c r="N888" s="1"/>
-      <c r="O888" s="1"/>
     </row>
     <row r="889">
       <c r="A889" s="1"/>
@@ -16309,7 +15378,6 @@
       <c r="L889" s="1"/>
       <c r="M889" s="1"/>
       <c r="N889" s="1"/>
-      <c r="O889" s="1"/>
     </row>
     <row r="890">
       <c r="A890" s="1"/>
@@ -16326,7 +15394,6 @@
       <c r="L890" s="1"/>
       <c r="M890" s="1"/>
       <c r="N890" s="1"/>
-      <c r="O890" s="1"/>
     </row>
     <row r="891">
       <c r="A891" s="1"/>
@@ -16343,7 +15410,6 @@
       <c r="L891" s="1"/>
       <c r="M891" s="1"/>
       <c r="N891" s="1"/>
-      <c r="O891" s="1"/>
     </row>
     <row r="892">
       <c r="A892" s="1"/>
@@ -16360,7 +15426,6 @@
       <c r="L892" s="1"/>
       <c r="M892" s="1"/>
       <c r="N892" s="1"/>
-      <c r="O892" s="1"/>
     </row>
     <row r="893">
       <c r="A893" s="1"/>
@@ -16377,7 +15442,6 @@
       <c r="L893" s="1"/>
       <c r="M893" s="1"/>
       <c r="N893" s="1"/>
-      <c r="O893" s="1"/>
     </row>
     <row r="894">
       <c r="A894" s="1"/>
@@ -16394,7 +15458,6 @@
       <c r="L894" s="1"/>
       <c r="M894" s="1"/>
       <c r="N894" s="1"/>
-      <c r="O894" s="1"/>
     </row>
     <row r="895">
       <c r="A895" s="1"/>
@@ -16411,7 +15474,6 @@
       <c r="L895" s="1"/>
       <c r="M895" s="1"/>
       <c r="N895" s="1"/>
-      <c r="O895" s="1"/>
     </row>
     <row r="896">
       <c r="A896" s="1"/>
@@ -16428,7 +15490,6 @@
       <c r="L896" s="1"/>
       <c r="M896" s="1"/>
       <c r="N896" s="1"/>
-      <c r="O896" s="1"/>
     </row>
     <row r="897">
       <c r="A897" s="1"/>
@@ -16445,7 +15506,6 @@
       <c r="L897" s="1"/>
       <c r="M897" s="1"/>
       <c r="N897" s="1"/>
-      <c r="O897" s="1"/>
     </row>
     <row r="898">
       <c r="A898" s="1"/>
@@ -16462,7 +15522,6 @@
       <c r="L898" s="1"/>
       <c r="M898" s="1"/>
       <c r="N898" s="1"/>
-      <c r="O898" s="1"/>
     </row>
     <row r="899">
       <c r="A899" s="1"/>
@@ -16479,7 +15538,6 @@
       <c r="L899" s="1"/>
       <c r="M899" s="1"/>
       <c r="N899" s="1"/>
-      <c r="O899" s="1"/>
     </row>
     <row r="900">
       <c r="A900" s="1"/>
@@ -16496,7 +15554,6 @@
       <c r="L900" s="1"/>
       <c r="M900" s="1"/>
       <c r="N900" s="1"/>
-      <c r="O900" s="1"/>
     </row>
     <row r="901">
       <c r="A901" s="1"/>
@@ -16513,7 +15570,6 @@
       <c r="L901" s="1"/>
       <c r="M901" s="1"/>
       <c r="N901" s="1"/>
-      <c r="O901" s="1"/>
     </row>
     <row r="902">
       <c r="A902" s="1"/>
@@ -16530,7 +15586,6 @@
       <c r="L902" s="1"/>
       <c r="M902" s="1"/>
       <c r="N902" s="1"/>
-      <c r="O902" s="1"/>
     </row>
     <row r="903">
       <c r="A903" s="1"/>
@@ -16547,7 +15602,6 @@
       <c r="L903" s="1"/>
       <c r="M903" s="1"/>
       <c r="N903" s="1"/>
-      <c r="O903" s="1"/>
     </row>
     <row r="904">
       <c r="A904" s="1"/>
@@ -16564,7 +15618,6 @@
       <c r="L904" s="1"/>
       <c r="M904" s="1"/>
       <c r="N904" s="1"/>
-      <c r="O904" s="1"/>
     </row>
     <row r="905">
       <c r="A905" s="1"/>
@@ -16581,7 +15634,6 @@
       <c r="L905" s="1"/>
       <c r="M905" s="1"/>
       <c r="N905" s="1"/>
-      <c r="O905" s="1"/>
     </row>
     <row r="906">
       <c r="A906" s="1"/>
@@ -16598,7 +15650,6 @@
       <c r="L906" s="1"/>
       <c r="M906" s="1"/>
       <c r="N906" s="1"/>
-      <c r="O906" s="1"/>
     </row>
     <row r="907">
       <c r="A907" s="1"/>
@@ -16615,7 +15666,6 @@
       <c r="L907" s="1"/>
       <c r="M907" s="1"/>
       <c r="N907" s="1"/>
-      <c r="O907" s="1"/>
     </row>
     <row r="908">
       <c r="A908" s="1"/>
@@ -16632,7 +15682,6 @@
       <c r="L908" s="1"/>
       <c r="M908" s="1"/>
       <c r="N908" s="1"/>
-      <c r="O908" s="1"/>
     </row>
     <row r="909">
       <c r="A909" s="1"/>
@@ -16649,7 +15698,6 @@
       <c r="L909" s="1"/>
       <c r="M909" s="1"/>
       <c r="N909" s="1"/>
-      <c r="O909" s="1"/>
     </row>
     <row r="910">
       <c r="A910" s="1"/>
@@ -16666,7 +15714,6 @@
       <c r="L910" s="1"/>
       <c r="M910" s="1"/>
       <c r="N910" s="1"/>
-      <c r="O910" s="1"/>
     </row>
     <row r="911">
       <c r="A911" s="1"/>
@@ -16683,7 +15730,6 @@
       <c r="L911" s="1"/>
       <c r="M911" s="1"/>
       <c r="N911" s="1"/>
-      <c r="O911" s="1"/>
     </row>
     <row r="912">
       <c r="A912" s="1"/>
@@ -16700,7 +15746,6 @@
       <c r="L912" s="1"/>
       <c r="M912" s="1"/>
       <c r="N912" s="1"/>
-      <c r="O912" s="1"/>
     </row>
     <row r="913">
       <c r="A913" s="1"/>
@@ -16717,7 +15762,6 @@
       <c r="L913" s="1"/>
       <c r="M913" s="1"/>
       <c r="N913" s="1"/>
-      <c r="O913" s="1"/>
     </row>
     <row r="914">
       <c r="A914" s="1"/>
@@ -16734,7 +15778,6 @@
       <c r="L914" s="1"/>
       <c r="M914" s="1"/>
       <c r="N914" s="1"/>
-      <c r="O914" s="1"/>
     </row>
     <row r="915">
       <c r="A915" s="1"/>
@@ -16751,7 +15794,6 @@
       <c r="L915" s="1"/>
       <c r="M915" s="1"/>
       <c r="N915" s="1"/>
-      <c r="O915" s="1"/>
     </row>
     <row r="916">
       <c r="A916" s="1"/>
@@ -16768,7 +15810,6 @@
       <c r="L916" s="1"/>
       <c r="M916" s="1"/>
       <c r="N916" s="1"/>
-      <c r="O916" s="1"/>
     </row>
     <row r="917">
       <c r="A917" s="1"/>
@@ -16785,7 +15826,6 @@
       <c r="L917" s="1"/>
       <c r="M917" s="1"/>
       <c r="N917" s="1"/>
-      <c r="O917" s="1"/>
     </row>
     <row r="918">
       <c r="A918" s="1"/>
@@ -16802,7 +15842,6 @@
       <c r="L918" s="1"/>
       <c r="M918" s="1"/>
       <c r="N918" s="1"/>
-      <c r="O918" s="1"/>
     </row>
     <row r="919">
       <c r="A919" s="1"/>
@@ -16819,7 +15858,6 @@
       <c r="L919" s="1"/>
       <c r="M919" s="1"/>
       <c r="N919" s="1"/>
-      <c r="O919" s="1"/>
     </row>
     <row r="920">
       <c r="A920" s="1"/>
@@ -16836,7 +15874,6 @@
       <c r="L920" s="1"/>
       <c r="M920" s="1"/>
       <c r="N920" s="1"/>
-      <c r="O920" s="1"/>
     </row>
     <row r="921">
       <c r="A921" s="1"/>
@@ -16853,7 +15890,6 @@
       <c r="L921" s="1"/>
       <c r="M921" s="1"/>
       <c r="N921" s="1"/>
-      <c r="O921" s="1"/>
     </row>
     <row r="922">
       <c r="A922" s="1"/>
@@ -16870,7 +15906,6 @@
       <c r="L922" s="1"/>
       <c r="M922" s="1"/>
       <c r="N922" s="1"/>
-      <c r="O922" s="1"/>
     </row>
     <row r="923">
       <c r="A923" s="1"/>
@@ -16887,7 +15922,6 @@
       <c r="L923" s="1"/>
       <c r="M923" s="1"/>
       <c r="N923" s="1"/>
-      <c r="O923" s="1"/>
     </row>
     <row r="924">
       <c r="A924" s="1"/>
@@ -16904,7 +15938,6 @@
       <c r="L924" s="1"/>
       <c r="M924" s="1"/>
       <c r="N924" s="1"/>
-      <c r="O924" s="1"/>
     </row>
     <row r="925">
       <c r="A925" s="1"/>
@@ -16921,7 +15954,6 @@
       <c r="L925" s="1"/>
       <c r="M925" s="1"/>
       <c r="N925" s="1"/>
-      <c r="O925" s="1"/>
     </row>
     <row r="926">
       <c r="A926" s="1"/>
@@ -16938,7 +15970,6 @@
       <c r="L926" s="1"/>
       <c r="M926" s="1"/>
       <c r="N926" s="1"/>
-      <c r="O926" s="1"/>
     </row>
     <row r="927">
       <c r="A927" s="1"/>
@@ -16955,7 +15986,6 @@
       <c r="L927" s="1"/>
       <c r="M927" s="1"/>
       <c r="N927" s="1"/>
-      <c r="O927" s="1"/>
     </row>
     <row r="928">
       <c r="A928" s="1"/>
@@ -16972,7 +16002,6 @@
       <c r="L928" s="1"/>
       <c r="M928" s="1"/>
       <c r="N928" s="1"/>
-      <c r="O928" s="1"/>
     </row>
     <row r="929">
       <c r="A929" s="1"/>
@@ -16989,7 +16018,6 @@
       <c r="L929" s="1"/>
       <c r="M929" s="1"/>
       <c r="N929" s="1"/>
-      <c r="O929" s="1"/>
     </row>
     <row r="930">
       <c r="A930" s="1"/>
@@ -17006,7 +16034,6 @@
       <c r="L930" s="1"/>
       <c r="M930" s="1"/>
       <c r="N930" s="1"/>
-      <c r="O930" s="1"/>
     </row>
     <row r="931">
       <c r="A931" s="1"/>
@@ -17023,7 +16050,6 @@
       <c r="L931" s="1"/>
       <c r="M931" s="1"/>
       <c r="N931" s="1"/>
-      <c r="O931" s="1"/>
     </row>
     <row r="932">
       <c r="A932" s="1"/>
@@ -17040,7 +16066,6 @@
       <c r="L932" s="1"/>
       <c r="M932" s="1"/>
       <c r="N932" s="1"/>
-      <c r="O932" s="1"/>
     </row>
     <row r="933">
       <c r="A933" s="1"/>
@@ -17057,7 +16082,6 @@
       <c r="L933" s="1"/>
       <c r="M933" s="1"/>
       <c r="N933" s="1"/>
-      <c r="O933" s="1"/>
     </row>
     <row r="934">
       <c r="A934" s="1"/>
@@ -17074,7 +16098,6 @@
       <c r="L934" s="1"/>
       <c r="M934" s="1"/>
       <c r="N934" s="1"/>
-      <c r="O934" s="1"/>
     </row>
     <row r="935">
       <c r="A935" s="1"/>
@@ -17091,7 +16114,6 @@
       <c r="L935" s="1"/>
       <c r="M935" s="1"/>
       <c r="N935" s="1"/>
-      <c r="O935" s="1"/>
     </row>
     <row r="936">
       <c r="A936" s="1"/>
@@ -17108,7 +16130,6 @@
       <c r="L936" s="1"/>
       <c r="M936" s="1"/>
       <c r="N936" s="1"/>
-      <c r="O936" s="1"/>
     </row>
     <row r="937">
       <c r="A937" s="1"/>
@@ -17125,7 +16146,6 @@
       <c r="L937" s="1"/>
       <c r="M937" s="1"/>
       <c r="N937" s="1"/>
-      <c r="O937" s="1"/>
     </row>
     <row r="938">
       <c r="A938" s="1"/>
@@ -17142,7 +16162,6 @@
       <c r="L938" s="1"/>
       <c r="M938" s="1"/>
       <c r="N938" s="1"/>
-      <c r="O938" s="1"/>
     </row>
     <row r="939">
       <c r="A939" s="1"/>
@@ -17159,7 +16178,6 @@
       <c r="L939" s="1"/>
       <c r="M939" s="1"/>
       <c r="N939" s="1"/>
-      <c r="O939" s="1"/>
     </row>
     <row r="940">
       <c r="A940" s="1"/>
@@ -17176,7 +16194,6 @@
       <c r="L940" s="1"/>
       <c r="M940" s="1"/>
       <c r="N940" s="1"/>
-      <c r="O940" s="1"/>
     </row>
     <row r="941">
       <c r="A941" s="1"/>
@@ -17193,7 +16210,6 @@
       <c r="L941" s="1"/>
       <c r="M941" s="1"/>
       <c r="N941" s="1"/>
-      <c r="O941" s="1"/>
     </row>
     <row r="942">
       <c r="A942" s="1"/>
@@ -17210,7 +16226,6 @@
       <c r="L942" s="1"/>
       <c r="M942" s="1"/>
       <c r="N942" s="1"/>
-      <c r="O942" s="1"/>
     </row>
     <row r="943">
       <c r="A943" s="1"/>
@@ -17227,7 +16242,6 @@
       <c r="L943" s="1"/>
       <c r="M943" s="1"/>
       <c r="N943" s="1"/>
-      <c r="O943" s="1"/>
     </row>
     <row r="944">
       <c r="A944" s="1"/>
@@ -17244,7 +16258,6 @@
       <c r="L944" s="1"/>
       <c r="M944" s="1"/>
       <c r="N944" s="1"/>
-      <c r="O944" s="1"/>
     </row>
     <row r="945">
       <c r="A945" s="1"/>
@@ -17261,7 +16274,6 @@
       <c r="L945" s="1"/>
       <c r="M945" s="1"/>
       <c r="N945" s="1"/>
-      <c r="O945" s="1"/>
     </row>
     <row r="946">
       <c r="A946" s="1"/>
@@ -17278,7 +16290,6 @@
       <c r="L946" s="1"/>
       <c r="M946" s="1"/>
       <c r="N946" s="1"/>
-      <c r="O946" s="1"/>
     </row>
     <row r="947">
       <c r="A947" s="1"/>
@@ -17295,7 +16306,6 @@
       <c r="L947" s="1"/>
       <c r="M947" s="1"/>
       <c r="N947" s="1"/>
-      <c r="O947" s="1"/>
     </row>
     <row r="948">
       <c r="A948" s="1"/>
@@ -17312,7 +16322,6 @@
       <c r="L948" s="1"/>
       <c r="M948" s="1"/>
       <c r="N948" s="1"/>
-      <c r="O948" s="1"/>
     </row>
     <row r="949">
       <c r="A949" s="1"/>
@@ -17329,7 +16338,6 @@
       <c r="L949" s="1"/>
       <c r="M949" s="1"/>
       <c r="N949" s="1"/>
-      <c r="O949" s="1"/>
     </row>
     <row r="950">
       <c r="A950" s="1"/>
@@ -17346,7 +16354,6 @@
       <c r="L950" s="1"/>
       <c r="M950" s="1"/>
       <c r="N950" s="1"/>
-      <c r="O950" s="1"/>
     </row>
     <row r="951">
       <c r="A951" s="1"/>
@@ -17363,7 +16370,6 @@
       <c r="L951" s="1"/>
       <c r="M951" s="1"/>
       <c r="N951" s="1"/>
-      <c r="O951" s="1"/>
     </row>
     <row r="952">
       <c r="A952" s="1"/>
@@ -17380,7 +16386,6 @@
       <c r="L952" s="1"/>
       <c r="M952" s="1"/>
       <c r="N952" s="1"/>
-      <c r="O952" s="1"/>
     </row>
     <row r="953">
       <c r="A953" s="1"/>
@@ -17397,7 +16402,6 @@
       <c r="L953" s="1"/>
       <c r="M953" s="1"/>
       <c r="N953" s="1"/>
-      <c r="O953" s="1"/>
     </row>
     <row r="954">
       <c r="A954" s="1"/>
@@ -17414,7 +16418,6 @@
       <c r="L954" s="1"/>
       <c r="M954" s="1"/>
       <c r="N954" s="1"/>
-      <c r="O954" s="1"/>
     </row>
     <row r="955">
       <c r="A955" s="1"/>
@@ -17431,7 +16434,6 @@
       <c r="L955" s="1"/>
       <c r="M955" s="1"/>
       <c r="N955" s="1"/>
-      <c r="O955" s="1"/>
     </row>
     <row r="956">
       <c r="A956" s="1"/>
@@ -17448,7 +16450,6 @@
       <c r="L956" s="1"/>
       <c r="M956" s="1"/>
       <c r="N956" s="1"/>
-      <c r="O956" s="1"/>
     </row>
     <row r="957">
       <c r="A957" s="1"/>
@@ -17465,7 +16466,6 @@
       <c r="L957" s="1"/>
       <c r="M957" s="1"/>
       <c r="N957" s="1"/>
-      <c r="O957" s="1"/>
     </row>
     <row r="958">
       <c r="A958" s="1"/>
@@ -17482,7 +16482,6 @@
       <c r="L958" s="1"/>
       <c r="M958" s="1"/>
       <c r="N958" s="1"/>
-      <c r="O958" s="1"/>
     </row>
     <row r="959">
       <c r="A959" s="1"/>
@@ -17499,7 +16498,6 @@
       <c r="L959" s="1"/>
       <c r="M959" s="1"/>
       <c r="N959" s="1"/>
-      <c r="O959" s="1"/>
     </row>
     <row r="960">
       <c r="A960" s="1"/>
@@ -17516,7 +16514,6 @@
       <c r="L960" s="1"/>
       <c r="M960" s="1"/>
       <c r="N960" s="1"/>
-      <c r="O960" s="1"/>
     </row>
     <row r="961">
       <c r="A961" s="1"/>
@@ -17533,7 +16530,6 @@
       <c r="L961" s="1"/>
       <c r="M961" s="1"/>
       <c r="N961" s="1"/>
-      <c r="O961" s="1"/>
     </row>
     <row r="962">
       <c r="A962" s="1"/>
@@ -17550,7 +16546,6 @@
       <c r="L962" s="1"/>
       <c r="M962" s="1"/>
       <c r="N962" s="1"/>
-      <c r="O962" s="1"/>
     </row>
     <row r="963">
       <c r="A963" s="1"/>
@@ -17567,7 +16562,6 @@
       <c r="L963" s="1"/>
       <c r="M963" s="1"/>
       <c r="N963" s="1"/>
-      <c r="O963" s="1"/>
     </row>
     <row r="964">
       <c r="A964" s="1"/>
@@ -17584,7 +16578,6 @@
       <c r="L964" s="1"/>
       <c r="M964" s="1"/>
       <c r="N964" s="1"/>
-      <c r="O964" s="1"/>
     </row>
     <row r="965">
       <c r="A965" s="1"/>
@@ -17601,7 +16594,6 @@
       <c r="L965" s="1"/>
       <c r="M965" s="1"/>
       <c r="N965" s="1"/>
-      <c r="O965" s="1"/>
     </row>
     <row r="966">
       <c r="A966" s="1"/>
@@ -17618,7 +16610,6 @@
       <c r="L966" s="1"/>
       <c r="M966" s="1"/>
       <c r="N966" s="1"/>
-      <c r="O966" s="1"/>
     </row>
     <row r="967">
       <c r="A967" s="1"/>
@@ -17635,7 +16626,6 @@
       <c r="L967" s="1"/>
       <c r="M967" s="1"/>
       <c r="N967" s="1"/>
-      <c r="O967" s="1"/>
     </row>
     <row r="968">
       <c r="A968" s="1"/>
@@ -17652,7 +16642,6 @@
       <c r="L968" s="1"/>
       <c r="M968" s="1"/>
       <c r="N968" s="1"/>
-      <c r="O968" s="1"/>
     </row>
     <row r="969">
       <c r="A969" s="1"/>
@@ -17669,7 +16658,6 @@
       <c r="L969" s="1"/>
       <c r="M969" s="1"/>
       <c r="N969" s="1"/>
-      <c r="O969" s="1"/>
     </row>
     <row r="970">
       <c r="A970" s="1"/>
@@ -17686,7 +16674,6 @@
       <c r="L970" s="1"/>
       <c r="M970" s="1"/>
       <c r="N970" s="1"/>
-      <c r="O970" s="1"/>
     </row>
     <row r="971">
       <c r="A971" s="1"/>
@@ -17703,7 +16690,6 @@
       <c r="L971" s="1"/>
       <c r="M971" s="1"/>
       <c r="N971" s="1"/>
-      <c r="O971" s="1"/>
     </row>
     <row r="972">
       <c r="A972" s="1"/>
@@ -17720,7 +16706,6 @@
       <c r="L972" s="1"/>
       <c r="M972" s="1"/>
       <c r="N972" s="1"/>
-      <c r="O972" s="1"/>
     </row>
     <row r="973">
       <c r="A973" s="1"/>
@@ -17737,7 +16722,6 @@
       <c r="L973" s="1"/>
       <c r="M973" s="1"/>
       <c r="N973" s="1"/>
-      <c r="O973" s="1"/>
     </row>
     <row r="974">
       <c r="A974" s="1"/>
@@ -17754,7 +16738,6 @@
       <c r="L974" s="1"/>
       <c r="M974" s="1"/>
       <c r="N974" s="1"/>
-      <c r="O974" s="1"/>
     </row>
     <row r="975">
       <c r="A975" s="1"/>
@@ -17771,7 +16754,6 @@
       <c r="L975" s="1"/>
       <c r="M975" s="1"/>
       <c r="N975" s="1"/>
-      <c r="O975" s="1"/>
     </row>
     <row r="976">
       <c r="A976" s="1"/>
@@ -17788,7 +16770,6 @@
       <c r="L976" s="1"/>
       <c r="M976" s="1"/>
       <c r="N976" s="1"/>
-      <c r="O976" s="1"/>
     </row>
     <row r="977">
       <c r="A977" s="1"/>
@@ -17805,7 +16786,6 @@
       <c r="L977" s="1"/>
       <c r="M977" s="1"/>
       <c r="N977" s="1"/>
-      <c r="O977" s="1"/>
     </row>
     <row r="978">
       <c r="A978" s="1"/>
@@ -17822,7 +16802,6 @@
       <c r="L978" s="1"/>
       <c r="M978" s="1"/>
       <c r="N978" s="1"/>
-      <c r="O978" s="1"/>
     </row>
     <row r="979">
       <c r="A979" s="1"/>
@@ -17839,7 +16818,6 @@
       <c r="L979" s="1"/>
       <c r="M979" s="1"/>
       <c r="N979" s="1"/>
-      <c r="O979" s="1"/>
     </row>
     <row r="980">
       <c r="A980" s="1"/>
@@ -17856,7 +16834,6 @@
       <c r="L980" s="1"/>
       <c r="M980" s="1"/>
       <c r="N980" s="1"/>
-      <c r="O980" s="1"/>
     </row>
     <row r="981">
       <c r="A981" s="1"/>
@@ -17873,7 +16850,6 @@
       <c r="L981" s="1"/>
       <c r="M981" s="1"/>
       <c r="N981" s="1"/>
-      <c r="O981" s="1"/>
     </row>
     <row r="982">
       <c r="A982" s="1"/>
@@ -17890,7 +16866,6 @@
       <c r="L982" s="1"/>
       <c r="M982" s="1"/>
       <c r="N982" s="1"/>
-      <c r="O982" s="1"/>
     </row>
     <row r="983">
       <c r="A983" s="1"/>
@@ -17907,7 +16882,6 @@
       <c r="L983" s="1"/>
       <c r="M983" s="1"/>
       <c r="N983" s="1"/>
-      <c r="O983" s="1"/>
     </row>
     <row r="984">
       <c r="A984" s="1"/>
@@ -17924,7 +16898,6 @@
       <c r="L984" s="1"/>
       <c r="M984" s="1"/>
       <c r="N984" s="1"/>
-      <c r="O984" s="1"/>
     </row>
     <row r="985">
       <c r="A985" s="1"/>
@@ -17941,7 +16914,6 @@
       <c r="L985" s="1"/>
       <c r="M985" s="1"/>
       <c r="N985" s="1"/>
-      <c r="O985" s="1"/>
     </row>
     <row r="986">
       <c r="A986" s="1"/>
@@ -17958,7 +16930,6 @@
       <c r="L986" s="1"/>
       <c r="M986" s="1"/>
       <c r="N986" s="1"/>
-      <c r="O986" s="1"/>
     </row>
     <row r="987">
       <c r="A987" s="1"/>
@@ -17975,7 +16946,6 @@
       <c r="L987" s="1"/>
       <c r="M987" s="1"/>
       <c r="N987" s="1"/>
-      <c r="O987" s="1"/>
     </row>
     <row r="988">
       <c r="A988" s="1"/>
@@ -17992,7 +16962,6 @@
       <c r="L988" s="1"/>
       <c r="M988" s="1"/>
       <c r="N988" s="1"/>
-      <c r="O988" s="1"/>
     </row>
     <row r="989">
       <c r="A989" s="1"/>
@@ -18009,7 +16978,6 @@
       <c r="L989" s="1"/>
       <c r="M989" s="1"/>
       <c r="N989" s="1"/>
-      <c r="O989" s="1"/>
     </row>
     <row r="990">
       <c r="A990" s="1"/>
@@ -18026,7 +16994,6 @@
       <c r="L990" s="1"/>
       <c r="M990" s="1"/>
       <c r="N990" s="1"/>
-      <c r="O990" s="1"/>
     </row>
     <row r="991">
       <c r="A991" s="1"/>
@@ -18043,7 +17010,6 @@
       <c r="L991" s="1"/>
       <c r="M991" s="1"/>
       <c r="N991" s="1"/>
-      <c r="O991" s="1"/>
     </row>
     <row r="992">
       <c r="A992" s="1"/>
@@ -18060,7 +17026,6 @@
       <c r="L992" s="1"/>
       <c r="M992" s="1"/>
       <c r="N992" s="1"/>
-      <c r="O992" s="1"/>
     </row>
     <row r="993">
       <c r="A993" s="1"/>
@@ -18077,7 +17042,6 @@
       <c r="L993" s="1"/>
       <c r="M993" s="1"/>
       <c r="N993" s="1"/>
-      <c r="O993" s="1"/>
     </row>
     <row r="994">
       <c r="A994" s="1"/>
@@ -18094,7 +17058,6 @@
       <c r="L994" s="1"/>
       <c r="M994" s="1"/>
       <c r="N994" s="1"/>
-      <c r="O994" s="1"/>
     </row>
     <row r="995">
       <c r="A995" s="1"/>
@@ -18111,7 +17074,6 @@
       <c r="L995" s="1"/>
       <c r="M995" s="1"/>
       <c r="N995" s="1"/>
-      <c r="O995" s="1"/>
     </row>
     <row r="996">
       <c r="A996" s="1"/>
@@ -18128,14 +17090,13 @@
       <c r="L996" s="1"/>
       <c r="M996" s="1"/>
       <c r="N996" s="1"/>
-      <c r="O996" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B34:G34"/>
     <mergeCell ref="C51:C52"/>
   </mergeCells>
   <drawing r:id="rId1"/>
